--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
   <si>
     <t>user_id</t>
   </si>
@@ -196,6 +196,258 @@
   </si>
   <si>
     <t>2021_11</t>
+  </si>
+  <si>
+    <t>2021_pr_01</t>
+  </si>
+  <si>
+    <t>2021_su_01</t>
+  </si>
+  <si>
+    <t>2021_pr_02</t>
+  </si>
+  <si>
+    <t>2021_su_02</t>
+  </si>
+  <si>
+    <t>2021_pr_03</t>
+  </si>
+  <si>
+    <t>2021_su_03</t>
+  </si>
+  <si>
+    <t>2021_pr_04</t>
+  </si>
+  <si>
+    <t>2021_su_04</t>
+  </si>
+  <si>
+    <t>2021_pr_05</t>
+  </si>
+  <si>
+    <t>2021_su_05</t>
+  </si>
+  <si>
+    <t>2021_pr_06</t>
+  </si>
+  <si>
+    <t>2021_su_06</t>
+  </si>
+  <si>
+    <t>2021_pr_07</t>
+  </si>
+  <si>
+    <t>2021_su_07</t>
+  </si>
+  <si>
+    <t>2021_pr_08</t>
+  </si>
+  <si>
+    <t>2021_su_08</t>
+  </si>
+  <si>
+    <t>2021_pr_09</t>
+  </si>
+  <si>
+    <t>2021_su_09</t>
+  </si>
+  <si>
+    <t>2021_pr_10</t>
+  </si>
+  <si>
+    <t>2021_su_10</t>
+  </si>
+  <si>
+    <t>2021_pr_11</t>
+  </si>
+  <si>
+    <t>2021_su_11</t>
+  </si>
+  <si>
+    <t>2021_pr_12</t>
+  </si>
+  <si>
+    <t>2021_su_12</t>
+  </si>
+  <si>
+    <t>2021_pr_13</t>
+  </si>
+  <si>
+    <t>2021_su_13</t>
+  </si>
+  <si>
+    <t>2021_pr_14</t>
+  </si>
+  <si>
+    <t>2021_su_14</t>
+  </si>
+  <si>
+    <t>2021_pr_15</t>
+  </si>
+  <si>
+    <t>2021_su_15</t>
+  </si>
+  <si>
+    <t>2021_pr_16</t>
+  </si>
+  <si>
+    <t>2021_su_16</t>
+  </si>
+  <si>
+    <t>2021_pr_17</t>
+  </si>
+  <si>
+    <t>2021_su_17</t>
+  </si>
+  <si>
+    <t>2021_pr_18</t>
+  </si>
+  <si>
+    <t>2021_su_18</t>
+  </si>
+  <si>
+    <t>2021_pr_19</t>
+  </si>
+  <si>
+    <t>2021_su_19</t>
+  </si>
+  <si>
+    <t>2021_pr_20</t>
+  </si>
+  <si>
+    <t>2021_su_20</t>
+  </si>
+  <si>
+    <t>2021_pr_21</t>
+  </si>
+  <si>
+    <t>2021_su_21</t>
+  </si>
+  <si>
+    <t>2021_pr_22</t>
+  </si>
+  <si>
+    <t>2021_su_22</t>
+  </si>
+  <si>
+    <t>2021_pr_23</t>
+  </si>
+  <si>
+    <t>2021_su_23</t>
+  </si>
+  <si>
+    <t>2021_pr_24</t>
+  </si>
+  <si>
+    <t>2021_su_24</t>
+  </si>
+  <si>
+    <t>2021_pr_25</t>
+  </si>
+  <si>
+    <t>2021_su_25</t>
+  </si>
+  <si>
+    <t>2021_pr_26</t>
+  </si>
+  <si>
+    <t>2021_su_26</t>
+  </si>
+  <si>
+    <t>2021_pr_27</t>
+  </si>
+  <si>
+    <t>2021_su_27</t>
+  </si>
+  <si>
+    <t>2021_pr_28</t>
+  </si>
+  <si>
+    <t>2021_su_28</t>
+  </si>
+  <si>
+    <t>2021_pr_29</t>
+  </si>
+  <si>
+    <t>2021_su_29</t>
+  </si>
+  <si>
+    <t>2021_pr_30</t>
+  </si>
+  <si>
+    <t>2021_su_30</t>
+  </si>
+  <si>
+    <t>2021_pr_31</t>
+  </si>
+  <si>
+    <t>2021_su_31</t>
+  </si>
+  <si>
+    <t>2021_pr_32</t>
+  </si>
+  <si>
+    <t>2021_su_32</t>
+  </si>
+  <si>
+    <t>2021_pr_33</t>
+  </si>
+  <si>
+    <t>2021_su_33</t>
+  </si>
+  <si>
+    <t>2021_pr_34</t>
+  </si>
+  <si>
+    <t>2021_su_34</t>
+  </si>
+  <si>
+    <t>2021_pr_35</t>
+  </si>
+  <si>
+    <t>2021_su_35</t>
+  </si>
+  <si>
+    <t>2021_pr_36</t>
+  </si>
+  <si>
+    <t>2021_su_36</t>
+  </si>
+  <si>
+    <t>2021_pr_37</t>
+  </si>
+  <si>
+    <t>2021_su_37</t>
+  </si>
+  <si>
+    <t>2021_pr_38</t>
+  </si>
+  <si>
+    <t>2021_su_38</t>
+  </si>
+  <si>
+    <t>2021_pr_39</t>
+  </si>
+  <si>
+    <t>2021_su_39</t>
+  </si>
+  <si>
+    <t>2021_pr_40</t>
+  </si>
+  <si>
+    <t>2021_su_40</t>
+  </si>
+  <si>
+    <t>2021_pr_41</t>
+  </si>
+  <si>
+    <t>2021_su_41</t>
+  </si>
+  <si>
+    <t>2021_pr_42</t>
+  </si>
+  <si>
+    <t>2021_su_42</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,11 +1301,11 @@
         <f>"2021"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
         <v>2021_01</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1075,11 +1327,11 @@
         <f t="shared" ref="C3:C43" si="1">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -1101,11 +1353,11 @@
         <f t="shared" si="1"/>
         <v>2021_03</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1127,11 +1379,11 @@
         <f t="shared" si="1"/>
         <v>2021_04</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1153,11 +1405,11 @@
         <f t="shared" si="1"/>
         <v>2021_05</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1179,11 +1431,11 @@
         <f t="shared" si="1"/>
         <v>2021_06</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1205,11 +1457,11 @@
         <f t="shared" si="1"/>
         <v>2021_07</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1231,11 +1483,11 @@
         <f t="shared" si="1"/>
         <v>2021_08</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1257,11 +1509,11 @@
         <f t="shared" si="1"/>
         <v>2021_09</v>
       </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1283,11 +1535,11 @@
         <f t="shared" si="1"/>
         <v>2021_10</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1309,11 +1561,11 @@
         <f t="shared" si="1"/>
         <v>2021_11</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1335,11 +1587,11 @@
         <f t="shared" si="1"/>
         <v>2021_12</v>
       </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1361,11 +1613,11 @@
         <f t="shared" si="1"/>
         <v>2021_13</v>
       </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1387,11 +1639,11 @@
         <f t="shared" si="1"/>
         <v>2021_14</v>
       </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -1413,11 +1665,11 @@
         <f t="shared" si="1"/>
         <v>2021_15</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -1439,11 +1691,11 @@
         <f t="shared" si="1"/>
         <v>2021_16</v>
       </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -1465,11 +1717,11 @@
         <f t="shared" si="1"/>
         <v>2021_17</v>
       </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -1491,11 +1743,11 @@
         <f t="shared" si="1"/>
         <v>2021_18</v>
       </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -1517,11 +1769,11 @@
         <f t="shared" si="1"/>
         <v>2021_19</v>
       </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -1543,11 +1795,11 @@
         <f t="shared" si="1"/>
         <v>2021_20</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
@@ -1569,11 +1821,11 @@
         <f t="shared" si="1"/>
         <v>2021_21</v>
       </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
@@ -1595,11 +1847,11 @@
         <f t="shared" si="1"/>
         <v>2021_22</v>
       </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
@@ -1621,11 +1873,11 @@
         <f t="shared" si="1"/>
         <v>2021_23</v>
       </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -1647,11 +1899,11 @@
         <f t="shared" si="1"/>
         <v>2021_24</v>
       </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -1673,11 +1925,11 @@
         <f t="shared" si="1"/>
         <v>2021_25</v>
       </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
@@ -1699,11 +1951,11 @@
         <f t="shared" si="1"/>
         <v>2021_26</v>
       </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>26</v>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1725,11 +1977,11 @@
         <f t="shared" si="1"/>
         <v>2021_27</v>
       </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -1751,11 +2003,11 @@
         <f t="shared" si="1"/>
         <v>2021_28</v>
       </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1777,11 +2029,11 @@
         <f t="shared" si="1"/>
         <v>2021_29</v>
       </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -1803,11 +2055,11 @@
         <f t="shared" si="1"/>
         <v>2021_30</v>
       </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -1829,11 +2081,11 @@
         <f t="shared" si="1"/>
         <v>2021_31</v>
       </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -1855,11 +2107,11 @@
         <f t="shared" si="1"/>
         <v>2021_32</v>
       </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -1881,11 +2133,11 @@
         <f t="shared" si="1"/>
         <v>2021_33</v>
       </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
@@ -1907,11 +2159,11 @@
         <f t="shared" si="1"/>
         <v>2021_34</v>
       </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>34</v>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
@@ -1933,11 +2185,11 @@
         <f t="shared" si="1"/>
         <v>2021_35</v>
       </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>35</v>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
@@ -1959,11 +2211,11 @@
         <f t="shared" si="1"/>
         <v>2021_36</v>
       </c>
-      <c r="D37">
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -1985,11 +2237,11 @@
         <f t="shared" si="1"/>
         <v>2021_37</v>
       </c>
-      <c r="D38">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>37</v>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
@@ -2011,11 +2263,11 @@
         <f t="shared" si="1"/>
         <v>2021_38</v>
       </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>38</v>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
@@ -2037,11 +2289,11 @@
         <f t="shared" si="1"/>
         <v>2021_39</v>
       </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="E40">
-        <v>39</v>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
@@ -2063,11 +2315,11 @@
         <f t="shared" si="1"/>
         <v>2021_40</v>
       </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41">
-        <v>40</v>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -2089,11 +2341,11 @@
         <f t="shared" si="1"/>
         <v>2021_41</v>
       </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>41</v>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
@@ -2115,11 +2367,11 @@
         <f t="shared" si="1"/>
         <v>2021_42</v>
       </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43">
-        <v>42</v>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="192">
   <si>
     <t>user_id</t>
   </si>
@@ -448,6 +448,153 @@
   </si>
   <si>
     <t>2021_su_42</t>
+  </si>
+  <si>
+    <t>2021_pr_43</t>
+  </si>
+  <si>
+    <t>2021_su_43</t>
+  </si>
+  <si>
+    <t>pasang_lamu_sherpa.jpg</t>
+  </si>
+  <si>
+    <t>parijat.jpg</t>
+  </si>
+  <si>
+    <t>sushila_karki.jpg</t>
+  </si>
+  <si>
+    <t>himani_shah.jpg</t>
+  </si>
+  <si>
+    <t>2021_pr_44</t>
+  </si>
+  <si>
+    <t>2021_su_44</t>
+  </si>
+  <si>
+    <t>2021_pr_45</t>
+  </si>
+  <si>
+    <t>2021_su_45</t>
+  </si>
+  <si>
+    <t>2021_pr_46</t>
+  </si>
+  <si>
+    <t>2021_su_46</t>
+  </si>
+  <si>
+    <t>2021_pr_47</t>
+  </si>
+  <si>
+    <t>2021_su_47</t>
+  </si>
+  <si>
+    <t>2021_pr_48</t>
+  </si>
+  <si>
+    <t>2021_su_48</t>
+  </si>
+  <si>
+    <t>2021_pr_49</t>
+  </si>
+  <si>
+    <t>2021_su_49</t>
+  </si>
+  <si>
+    <t>2021_pr_50</t>
+  </si>
+  <si>
+    <t>2021_su_50</t>
+  </si>
+  <si>
+    <t>2021_pr_51</t>
+  </si>
+  <si>
+    <t>2021_su_51</t>
+  </si>
+  <si>
+    <t>football.jpg</t>
+  </si>
+  <si>
+    <t>kabadi.jpg</t>
+  </si>
+  <si>
+    <t>cricket.jpg</t>
+  </si>
+  <si>
+    <t>basketball.jpg</t>
+  </si>
+  <si>
+    <t>elephant_polo.jpg</t>
+  </si>
+  <si>
+    <t>2021_14</t>
+  </si>
+  <si>
+    <t>volleyball.jpg</t>
+  </si>
+  <si>
+    <t>coin_1_rupee.jpg</t>
+  </si>
+  <si>
+    <t>2021_pr_52</t>
+  </si>
+  <si>
+    <t>2021_su_52</t>
+  </si>
+  <si>
+    <t>2021_pr_53</t>
+  </si>
+  <si>
+    <t>2021_su_53</t>
+  </si>
+  <si>
+    <t>2021_pr_54</t>
+  </si>
+  <si>
+    <t>2021_su_54</t>
+  </si>
+  <si>
+    <t>2021_pr_55</t>
+  </si>
+  <si>
+    <t>2021_su_55</t>
+  </si>
+  <si>
+    <t>2021_pr_56</t>
+  </si>
+  <si>
+    <t>2021_su_56</t>
+  </si>
+  <si>
+    <t>2021_pr_57</t>
+  </si>
+  <si>
+    <t>2021_su_57</t>
+  </si>
+  <si>
+    <t>2021_pr_58</t>
+  </si>
+  <si>
+    <t>2021_su_58</t>
+  </si>
+  <si>
+    <t>mahakali_river.jpg</t>
+  </si>
+  <si>
+    <t>gandaki_river.jpg</t>
+  </si>
+  <si>
+    <t>koshi_river.jpg</t>
+  </si>
+  <si>
+    <t>narayani_river.jpg</t>
+  </si>
+  <si>
+    <t>karnali_river.jpg</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,11 +1467,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B43" si="0">"nrna"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="B3:B59" si="0">"nrna"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>nrna_02</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C43" si="1">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="C3:C59" si="1">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
       <c r="D3" t="s">
@@ -1342,7 +1489,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A43" si="2">A3+1</f>
+        <f t="shared" ref="A4:A59" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -1542,7 +1689,7 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1568,7 +1715,7 @@
         <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1594,7 +1741,7 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1620,7 +1767,7 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1646,7 +1793,7 @@
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1672,7 +1819,7 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1698,7 +1845,7 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1958,7 +2105,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -1984,7 +2131,7 @@
         <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -2010,7 +2157,7 @@
         <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -2378,6 +2525,422 @@
       </c>
       <c r="G43" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_43</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_45</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_47</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_48</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_49</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_50</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_51</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_52</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_57</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_58</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>user_id</t>
   </si>
@@ -198,264 +198,6 @@
     <t>2021_11</t>
   </si>
   <si>
-    <t>2021_pr_01</t>
-  </si>
-  <si>
-    <t>2021_su_01</t>
-  </si>
-  <si>
-    <t>2021_pr_02</t>
-  </si>
-  <si>
-    <t>2021_su_02</t>
-  </si>
-  <si>
-    <t>2021_pr_03</t>
-  </si>
-  <si>
-    <t>2021_su_03</t>
-  </si>
-  <si>
-    <t>2021_pr_04</t>
-  </si>
-  <si>
-    <t>2021_su_04</t>
-  </si>
-  <si>
-    <t>2021_pr_05</t>
-  </si>
-  <si>
-    <t>2021_su_05</t>
-  </si>
-  <si>
-    <t>2021_pr_06</t>
-  </si>
-  <si>
-    <t>2021_su_06</t>
-  </si>
-  <si>
-    <t>2021_pr_07</t>
-  </si>
-  <si>
-    <t>2021_su_07</t>
-  </si>
-  <si>
-    <t>2021_pr_08</t>
-  </si>
-  <si>
-    <t>2021_su_08</t>
-  </si>
-  <si>
-    <t>2021_pr_09</t>
-  </si>
-  <si>
-    <t>2021_su_09</t>
-  </si>
-  <si>
-    <t>2021_pr_10</t>
-  </si>
-  <si>
-    <t>2021_su_10</t>
-  </si>
-  <si>
-    <t>2021_pr_11</t>
-  </si>
-  <si>
-    <t>2021_su_11</t>
-  </si>
-  <si>
-    <t>2021_pr_12</t>
-  </si>
-  <si>
-    <t>2021_su_12</t>
-  </si>
-  <si>
-    <t>2021_pr_13</t>
-  </si>
-  <si>
-    <t>2021_su_13</t>
-  </si>
-  <si>
-    <t>2021_pr_14</t>
-  </si>
-  <si>
-    <t>2021_su_14</t>
-  </si>
-  <si>
-    <t>2021_pr_15</t>
-  </si>
-  <si>
-    <t>2021_su_15</t>
-  </si>
-  <si>
-    <t>2021_pr_16</t>
-  </si>
-  <si>
-    <t>2021_su_16</t>
-  </si>
-  <si>
-    <t>2021_pr_17</t>
-  </si>
-  <si>
-    <t>2021_su_17</t>
-  </si>
-  <si>
-    <t>2021_pr_18</t>
-  </si>
-  <si>
-    <t>2021_su_18</t>
-  </si>
-  <si>
-    <t>2021_pr_19</t>
-  </si>
-  <si>
-    <t>2021_su_19</t>
-  </si>
-  <si>
-    <t>2021_pr_20</t>
-  </si>
-  <si>
-    <t>2021_su_20</t>
-  </si>
-  <si>
-    <t>2021_pr_21</t>
-  </si>
-  <si>
-    <t>2021_su_21</t>
-  </si>
-  <si>
-    <t>2021_pr_22</t>
-  </si>
-  <si>
-    <t>2021_su_22</t>
-  </si>
-  <si>
-    <t>2021_pr_23</t>
-  </si>
-  <si>
-    <t>2021_su_23</t>
-  </si>
-  <si>
-    <t>2021_pr_24</t>
-  </si>
-  <si>
-    <t>2021_su_24</t>
-  </si>
-  <si>
-    <t>2021_pr_25</t>
-  </si>
-  <si>
-    <t>2021_su_25</t>
-  </si>
-  <si>
-    <t>2021_pr_26</t>
-  </si>
-  <si>
-    <t>2021_su_26</t>
-  </si>
-  <si>
-    <t>2021_pr_27</t>
-  </si>
-  <si>
-    <t>2021_su_27</t>
-  </si>
-  <si>
-    <t>2021_pr_28</t>
-  </si>
-  <si>
-    <t>2021_su_28</t>
-  </si>
-  <si>
-    <t>2021_pr_29</t>
-  </si>
-  <si>
-    <t>2021_su_29</t>
-  </si>
-  <si>
-    <t>2021_pr_30</t>
-  </si>
-  <si>
-    <t>2021_su_30</t>
-  </si>
-  <si>
-    <t>2021_pr_31</t>
-  </si>
-  <si>
-    <t>2021_su_31</t>
-  </si>
-  <si>
-    <t>2021_pr_32</t>
-  </si>
-  <si>
-    <t>2021_su_32</t>
-  </si>
-  <si>
-    <t>2021_pr_33</t>
-  </si>
-  <si>
-    <t>2021_su_33</t>
-  </si>
-  <si>
-    <t>2021_pr_34</t>
-  </si>
-  <si>
-    <t>2021_su_34</t>
-  </si>
-  <si>
-    <t>2021_pr_35</t>
-  </si>
-  <si>
-    <t>2021_su_35</t>
-  </si>
-  <si>
-    <t>2021_pr_36</t>
-  </si>
-  <si>
-    <t>2021_su_36</t>
-  </si>
-  <si>
-    <t>2021_pr_37</t>
-  </si>
-  <si>
-    <t>2021_su_37</t>
-  </si>
-  <si>
-    <t>2021_pr_38</t>
-  </si>
-  <si>
-    <t>2021_su_38</t>
-  </si>
-  <si>
-    <t>2021_pr_39</t>
-  </si>
-  <si>
-    <t>2021_su_39</t>
-  </si>
-  <si>
-    <t>2021_pr_40</t>
-  </si>
-  <si>
-    <t>2021_su_40</t>
-  </si>
-  <si>
-    <t>2021_pr_41</t>
-  </si>
-  <si>
-    <t>2021_su_41</t>
-  </si>
-  <si>
-    <t>2021_pr_42</t>
-  </si>
-  <si>
-    <t>2021_su_42</t>
-  </si>
-  <si>
-    <t>2021_pr_43</t>
-  </si>
-  <si>
-    <t>2021_su_43</t>
-  </si>
-  <si>
     <t>pasang_lamu_sherpa.jpg</t>
   </si>
   <si>
@@ -468,54 +210,6 @@
     <t>himani_shah.jpg</t>
   </si>
   <si>
-    <t>2021_pr_44</t>
-  </si>
-  <si>
-    <t>2021_su_44</t>
-  </si>
-  <si>
-    <t>2021_pr_45</t>
-  </si>
-  <si>
-    <t>2021_su_45</t>
-  </si>
-  <si>
-    <t>2021_pr_46</t>
-  </si>
-  <si>
-    <t>2021_su_46</t>
-  </si>
-  <si>
-    <t>2021_pr_47</t>
-  </si>
-  <si>
-    <t>2021_su_47</t>
-  </si>
-  <si>
-    <t>2021_pr_48</t>
-  </si>
-  <si>
-    <t>2021_su_48</t>
-  </si>
-  <si>
-    <t>2021_pr_49</t>
-  </si>
-  <si>
-    <t>2021_su_49</t>
-  </si>
-  <si>
-    <t>2021_pr_50</t>
-  </si>
-  <si>
-    <t>2021_su_50</t>
-  </si>
-  <si>
-    <t>2021_pr_51</t>
-  </si>
-  <si>
-    <t>2021_su_51</t>
-  </si>
-  <si>
     <t>football.jpg</t>
   </si>
   <si>
@@ -531,70 +225,160 @@
     <t>elephant_polo.jpg</t>
   </si>
   <si>
+    <t>volleyball.jpg</t>
+  </si>
+  <si>
+    <t>coin_1_rupee.jpg</t>
+  </si>
+  <si>
+    <t>mahakali_river.jpg</t>
+  </si>
+  <si>
+    <t>gandaki_river.jpg</t>
+  </si>
+  <si>
+    <t>koshi_river.jpg</t>
+  </si>
+  <si>
+    <t>narayani_river.jpg</t>
+  </si>
+  <si>
+    <t>karnali_river.jpg</t>
+  </si>
+  <si>
+    <t>half_mohar.jpg</t>
+  </si>
+  <si>
+    <t>moti_ram.jpg</t>
+  </si>
+  <si>
+    <t>laxmi_prasad_devkota.jpg</t>
+  </si>
+  <si>
+    <t>bhanu_bhakta_acharya.jpg</t>
+  </si>
+  <si>
+    <t>bhupi_sherchan.jpg</t>
+  </si>
+  <si>
+    <t>satya_mohan_joshi.jpg</t>
+  </si>
+  <si>
+    <t>2021_12</t>
+  </si>
+  <si>
+    <t>melina_rai.jpg</t>
+  </si>
+  <si>
+    <t>anamol_kc.jpg</t>
+  </si>
+  <si>
+    <t>jitu_nepal.jpg</t>
+  </si>
+  <si>
+    <t>priyanka_karki.jpg</t>
+  </si>
+  <si>
+    <t>Swastima-Khadka.jpg</t>
+  </si>
+  <si>
+    <t>gaurika_singh.jpg</t>
+  </si>
+  <si>
+    <t>2021_42</t>
+  </si>
+  <si>
+    <t>2021_13</t>
+  </si>
+  <si>
     <t>2021_14</t>
   </si>
   <si>
-    <t>volleyball.jpg</t>
-  </si>
-  <si>
-    <t>coin_1_rupee.jpg</t>
-  </si>
-  <si>
-    <t>2021_pr_52</t>
-  </si>
-  <si>
-    <t>2021_su_52</t>
-  </si>
-  <si>
-    <t>2021_pr_53</t>
-  </si>
-  <si>
-    <t>2021_su_53</t>
-  </si>
-  <si>
-    <t>2021_pr_54</t>
-  </si>
-  <si>
-    <t>2021_su_54</t>
-  </si>
-  <si>
-    <t>2021_pr_55</t>
-  </si>
-  <si>
-    <t>2021_su_55</t>
-  </si>
-  <si>
-    <t>2021_pr_56</t>
-  </si>
-  <si>
-    <t>2021_su_56</t>
-  </si>
-  <si>
-    <t>2021_pr_57</t>
-  </si>
-  <si>
-    <t>2021_su_57</t>
-  </si>
-  <si>
-    <t>2021_pr_58</t>
-  </si>
-  <si>
-    <t>2021_su_58</t>
-  </si>
-  <si>
-    <t>mahakali_river.jpg</t>
-  </si>
-  <si>
-    <t>gandaki_river.jpg</t>
-  </si>
-  <si>
-    <t>koshi_river.jpg</t>
-  </si>
-  <si>
-    <t>narayani_river.jpg</t>
-  </si>
-  <si>
-    <t>karnali_river.jpg</t>
+    <t>2021_15</t>
+  </si>
+  <si>
+    <t>2021_16</t>
+  </si>
+  <si>
+    <t>2021_17</t>
+  </si>
+  <si>
+    <t>2021_18</t>
+  </si>
+  <si>
+    <t>dipa_shri_niraula.jpg</t>
+  </si>
+  <si>
+    <t>rekha_thapa.jpg</t>
+  </si>
+  <si>
+    <t>rajesh_hamal.jpg</t>
+  </si>
+  <si>
+    <t>karishma_manandhar.jpg</t>
+  </si>
+  <si>
+    <t>sweta_khadka.jpg</t>
+  </si>
+  <si>
+    <t>shiva_shrestha.jpg</t>
+  </si>
+  <si>
+    <t>manisha_koirala.jpg</t>
+  </si>
+  <si>
+    <t>daya_ram_rai.jpg</t>
+  </si>
+  <si>
+    <t>bhuwan_kc.jpg</t>
+  </si>
+  <si>
+    <t>jhamak_ghimire.jpg</t>
+  </si>
+  <si>
+    <t>nisha_adhikari.jpg</t>
+  </si>
+  <si>
+    <t>dilip_rayamajhi.jpeg</t>
+  </si>
+  <si>
+    <t>dipak_raj_giri.jpg</t>
+  </si>
+  <si>
+    <t>bhagwan_koirala.jpg</t>
+  </si>
+  <si>
+    <t>sanduk_Ruit.jpg</t>
+  </si>
+  <si>
+    <t>gobinda_kc.jpg</t>
+  </si>
+  <si>
+    <t>puspa_basnet.jpg</t>
+  </si>
+  <si>
+    <t>anuradha_koirala.jpg</t>
+  </si>
+  <si>
+    <t>mahabir_pun.jpg</t>
+  </si>
+  <si>
+    <t>narayan_gopal.jpg</t>
+  </si>
+  <si>
+    <t>kali_prasad_baskota.jpg</t>
+  </si>
+  <si>
+    <t>anju_panta.jpg</t>
+  </si>
+  <si>
+    <t>bhakta_raj_acharya.jpg</t>
+  </si>
+  <si>
+    <t>bishnu_majhi.jpg</t>
+  </si>
+  <si>
+    <t>Ani_Choying_Drolma.jpg</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,11 +1232,13 @@
         <f>"2021"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
         <v>2021_01</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
+      <c r="D2" t="str">
+        <f>"2021_pr"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
+        <v>2021_pr_01</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"2021_su"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
+        <v>2021_su_01</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1467,18 +1253,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B59" si="0">"nrna"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="B3:B66" si="0">"nrna"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>nrna_02</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C59" si="1">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="C3:C66" si="1">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="2">"2021_pr"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <v>2021_pr_02</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="3">"2021_su"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <v>2021_su_02</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -1489,7 +1277,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A59" si="2">A3+1</f>
+        <f t="shared" ref="A4:A67" si="4">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -1500,11 +1288,13 @@
         <f t="shared" si="1"/>
         <v>2021_03</v>
       </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_03</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_03</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1515,7 +1305,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5" t="str">
@@ -1526,11 +1316,13 @@
         <f t="shared" si="1"/>
         <v>2021_04</v>
       </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_04</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_04</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1541,7 +1333,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6" t="str">
@@ -1552,11 +1344,13 @@
         <f t="shared" si="1"/>
         <v>2021_05</v>
       </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_05</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_05</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1567,7 +1361,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7" t="str">
@@ -1578,11 +1372,13 @@
         <f t="shared" si="1"/>
         <v>2021_06</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_06</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_06</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1593,7 +1389,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8" t="str">
@@ -1604,11 +1400,13 @@
         <f t="shared" si="1"/>
         <v>2021_07</v>
       </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_07</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_07</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1619,7 +1417,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9" t="str">
@@ -1630,11 +1428,13 @@
         <f t="shared" si="1"/>
         <v>2021_08</v>
       </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_08</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_08</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1645,7 +1445,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10" t="str">
@@ -1656,11 +1456,13 @@
         <f t="shared" si="1"/>
         <v>2021_09</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_09</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_09</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1671,7 +1473,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B11" t="str">
@@ -1682,11 +1484,13 @@
         <f t="shared" si="1"/>
         <v>2021_10</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_10</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_10</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1697,7 +1501,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B12" t="str">
@@ -1708,11 +1512,13 @@
         <f t="shared" si="1"/>
         <v>2021_11</v>
       </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_11</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_11</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1723,7 +1529,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B13" t="str">
@@ -1734,11 +1540,13 @@
         <f t="shared" si="1"/>
         <v>2021_12</v>
       </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_12</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_12</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1749,7 +1557,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B14" t="str">
@@ -1760,14 +1568,16 @@
         <f t="shared" si="1"/>
         <v>2021_13</v>
       </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_13</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_13</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1775,7 +1585,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B15" t="str">
@@ -1786,14 +1596,16 @@
         <f t="shared" si="1"/>
         <v>2021_14</v>
       </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_14</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_14</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1801,7 +1613,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B16" t="str">
@@ -1812,14 +1624,16 @@
         <f t="shared" si="1"/>
         <v>2021_15</v>
       </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_15</v>
+      </c>
+      <c r="F16" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1827,7 +1641,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B17" t="str">
@@ -1838,14 +1652,16 @@
         <f t="shared" si="1"/>
         <v>2021_16</v>
       </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_16</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_16</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1853,7 +1669,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B18" t="str">
@@ -1864,11 +1680,13 @@
         <f t="shared" si="1"/>
         <v>2021_17</v>
       </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_17</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_17</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -1879,7 +1697,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B19" t="str">
@@ -1890,11 +1708,13 @@
         <f t="shared" si="1"/>
         <v>2021_18</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_18</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -1905,7 +1725,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B20" t="str">
@@ -1916,11 +1736,13 @@
         <f t="shared" si="1"/>
         <v>2021_19</v>
       </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_19</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_19</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -1931,7 +1753,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B21" t="str">
@@ -1942,11 +1764,13 @@
         <f t="shared" si="1"/>
         <v>2021_20</v>
       </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_20</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_20</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
@@ -1957,7 +1781,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B22" t="str">
@@ -1968,11 +1792,13 @@
         <f t="shared" si="1"/>
         <v>2021_21</v>
       </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_21</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_21</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
@@ -1983,7 +1809,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B23" t="str">
@@ -1994,11 +1820,13 @@
         <f t="shared" si="1"/>
         <v>2021_22</v>
       </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_22</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_22</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
@@ -2009,7 +1837,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B24" t="str">
@@ -2020,11 +1848,13 @@
         <f t="shared" si="1"/>
         <v>2021_23</v>
       </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_23</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_23</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -2035,7 +1865,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B25" t="str">
@@ -2046,11 +1876,13 @@
         <f t="shared" si="1"/>
         <v>2021_24</v>
       </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>106</v>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_24</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_24</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -2061,7 +1893,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B26" t="str">
@@ -2072,11 +1904,13 @@
         <f t="shared" si="1"/>
         <v>2021_25</v>
       </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_25</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_25</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
@@ -2087,7 +1921,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B27" t="str">
@@ -2098,11 +1932,13 @@
         <f t="shared" si="1"/>
         <v>2021_26</v>
       </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_26</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_26</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -2113,7 +1949,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B28" t="str">
@@ -2124,11 +1960,13 @@
         <f t="shared" si="1"/>
         <v>2021_27</v>
       </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_27</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_27</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
@@ -2139,7 +1977,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B29" t="str">
@@ -2150,11 +1988,13 @@
         <f t="shared" si="1"/>
         <v>2021_28</v>
       </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" t="s">
-        <v>114</v>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_28</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_28</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
@@ -2165,7 +2005,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B30" t="str">
@@ -2176,11 +2016,13 @@
         <f t="shared" si="1"/>
         <v>2021_29</v>
       </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_29</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_29</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -2191,7 +2033,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B31" t="str">
@@ -2202,11 +2044,13 @@
         <f t="shared" si="1"/>
         <v>2021_30</v>
       </c>
-      <c r="D31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" t="s">
-        <v>118</v>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_30</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_30</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -2217,7 +2061,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B32" t="str">
@@ -2228,11 +2072,13 @@
         <f t="shared" si="1"/>
         <v>2021_31</v>
       </c>
-      <c r="D32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>120</v>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_31</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_31</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -2243,7 +2089,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" t="str">
@@ -2254,11 +2100,13 @@
         <f t="shared" si="1"/>
         <v>2021_32</v>
       </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_32</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_32</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -2269,7 +2117,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B34" t="str">
@@ -2280,11 +2128,13 @@
         <f t="shared" si="1"/>
         <v>2021_33</v>
       </c>
-      <c r="D34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>124</v>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_33</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_33</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
@@ -2295,7 +2145,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B35" t="str">
@@ -2306,11 +2156,13 @@
         <f t="shared" si="1"/>
         <v>2021_34</v>
       </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" t="s">
-        <v>126</v>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_34</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_34</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
@@ -2321,7 +2173,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B36" t="str">
@@ -2332,11 +2184,13 @@
         <f t="shared" si="1"/>
         <v>2021_35</v>
       </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_35</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_35</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
@@ -2347,7 +2201,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B37" t="str">
@@ -2358,11 +2212,13 @@
         <f t="shared" si="1"/>
         <v>2021_36</v>
       </c>
-      <c r="D37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" t="s">
-        <v>130</v>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_36</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_36</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -2373,7 +2229,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B38" t="str">
@@ -2384,11 +2240,13 @@
         <f t="shared" si="1"/>
         <v>2021_37</v>
       </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_37</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_37</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
@@ -2399,7 +2257,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B39" t="str">
@@ -2410,11 +2268,13 @@
         <f t="shared" si="1"/>
         <v>2021_38</v>
       </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
-        <v>134</v>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_38</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_38</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
@@ -2425,7 +2285,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B40" t="str">
@@ -2436,11 +2296,13 @@
         <f t="shared" si="1"/>
         <v>2021_39</v>
       </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>136</v>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_39</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_39</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
@@ -2451,7 +2313,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B41" t="str">
@@ -2462,11 +2324,13 @@
         <f t="shared" si="1"/>
         <v>2021_40</v>
       </c>
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" t="s">
-        <v>138</v>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_40</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_40</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -2477,7 +2341,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B42" t="str">
@@ -2488,11 +2352,13 @@
         <f t="shared" si="1"/>
         <v>2021_41</v>
       </c>
-      <c r="D42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" t="s">
-        <v>140</v>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_41</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_41</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
@@ -2503,7 +2369,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B43" t="str">
@@ -2514,11 +2380,13 @@
         <f t="shared" si="1"/>
         <v>2021_42</v>
       </c>
-      <c r="D43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" t="s">
-        <v>142</v>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_42</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_42</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
@@ -2529,7 +2397,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B44" t="str">
@@ -2540,22 +2408,24 @@
         <f t="shared" si="1"/>
         <v>2021_43</v>
       </c>
-      <c r="D44" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_43</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_43</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B45" t="str">
@@ -2566,22 +2436,24 @@
         <f t="shared" si="1"/>
         <v>2021_44</v>
       </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s">
-        <v>150</v>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_44</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_44</v>
       </c>
       <c r="F45" t="s">
         <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B46" t="str">
@@ -2592,22 +2464,24 @@
         <f t="shared" si="1"/>
         <v>2021_45</v>
       </c>
-      <c r="D46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" t="s">
-        <v>152</v>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_45</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_45</v>
       </c>
       <c r="F46" t="s">
         <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B47" t="str">
@@ -2618,22 +2492,24 @@
         <f t="shared" si="1"/>
         <v>2021_46</v>
       </c>
-      <c r="D47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" t="s">
-        <v>154</v>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_46</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_46</v>
       </c>
       <c r="F47" t="s">
         <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B48" t="str">
@@ -2644,22 +2520,24 @@
         <f t="shared" si="1"/>
         <v>2021_47</v>
       </c>
-      <c r="D48" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" t="s">
-        <v>156</v>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_47</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_47</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B49" t="str">
@@ -2670,22 +2548,24 @@
         <f t="shared" si="1"/>
         <v>2021_48</v>
       </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" t="s">
-        <v>158</v>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_48</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_48</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B50" t="str">
@@ -2696,22 +2576,24 @@
         <f t="shared" si="1"/>
         <v>2021_49</v>
       </c>
-      <c r="D50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" t="s">
-        <v>160</v>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_49</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_49</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B51" t="str">
@@ -2722,22 +2604,24 @@
         <f t="shared" si="1"/>
         <v>2021_50</v>
       </c>
-      <c r="D51" t="s">
-        <v>161</v>
-      </c>
-      <c r="E51" t="s">
-        <v>162</v>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_50</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_50</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B52" t="str">
@@ -2748,22 +2632,24 @@
         <f t="shared" si="1"/>
         <v>2021_51</v>
       </c>
-      <c r="D52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_51</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_51</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B53" t="str">
@@ -2774,22 +2660,24 @@
         <f t="shared" si="1"/>
         <v>2021_52</v>
       </c>
-      <c r="D53" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" t="s">
-        <v>174</v>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_52</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_52</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B54" t="str">
@@ -2800,22 +2688,24 @@
         <f t="shared" si="1"/>
         <v>2021_53</v>
       </c>
-      <c r="D54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_53</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_53</v>
       </c>
       <c r="F54" t="s">
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B55" t="str">
@@ -2826,22 +2716,24 @@
         <f t="shared" si="1"/>
         <v>2021_54</v>
       </c>
-      <c r="D55" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" t="s">
-        <v>178</v>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_54</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_54</v>
       </c>
       <c r="F55" t="s">
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B56" t="str">
@@ -2852,22 +2744,24 @@
         <f t="shared" si="1"/>
         <v>2021_55</v>
       </c>
-      <c r="D56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" t="s">
-        <v>180</v>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_55</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_55</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B57" t="str">
@@ -2878,22 +2772,24 @@
         <f t="shared" si="1"/>
         <v>2021_56</v>
       </c>
-      <c r="D57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" t="s">
-        <v>182</v>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_56</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_56</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B58" t="str">
@@ -2904,22 +2800,24 @@
         <f t="shared" si="1"/>
         <v>2021_57</v>
       </c>
-      <c r="D58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" t="s">
-        <v>184</v>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_57</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_57</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B59" t="str">
@@ -2930,17 +2828,1055 @@
         <f t="shared" si="1"/>
         <v>2021_58</v>
       </c>
-      <c r="D59" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" t="s">
-        <v>186</v>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_58</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_58</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_59</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_59</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_59</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_60</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_60</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_60</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_61</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_61</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_61</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_62</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_62</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_62</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_62</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_63</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_63</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_63</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_64</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_64</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_64</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_65</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>2021_65</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>2021_pr_65</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>2021_su_65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B96" si="5">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>nrna_66</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C96" si="6">"2021"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>2021_66</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D96" si="7">"2021_pr"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>2021_pr_66</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E96" si="8">"2021_su"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>2021_su_66</v>
+      </c>
+      <c r="F67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A96" si="9">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_67</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_67</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_67</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_67</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_68</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_68</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_68</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_69</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_69</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_69</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_70</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_70</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_70</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_70</v>
+      </c>
+      <c r="F71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_71</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_71</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_71</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_71</v>
+      </c>
+      <c r="F72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_72</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_72</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_72</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_72</v>
+      </c>
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_73</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_73</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_73</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_73</v>
+      </c>
+      <c r="F74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_74</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_74</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_74</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_74</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_75</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_75</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_75</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_75</v>
+      </c>
+      <c r="F76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_76</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_76</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_76</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_76</v>
+      </c>
+      <c r="F77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_77</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_77</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_77</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_77</v>
+      </c>
+      <c r="F78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_78</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_78</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_78</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_78</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_79</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_79</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_79</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_79</v>
+      </c>
+      <c r="F80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_80</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_80</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_80</v>
+      </c>
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_81</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_81</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_81</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_82</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_82</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_83</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_83</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_84</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_84</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_84</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_85</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_85</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_86</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_86</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_86</v>
+      </c>
+      <c r="F87" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_87</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_87</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_88</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_88</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_88</v>
+      </c>
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_89</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_89</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_89</v>
+      </c>
+      <c r="F90" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_90</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_90</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_91</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_91</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_91</v>
+      </c>
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_92</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_92</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_93</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_93</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_94</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_94</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_94</v>
+      </c>
+      <c r="F95" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_95</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_95</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>94</v>
+      </c>
+      <c r="G96" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
   <si>
     <t>user_id</t>
   </si>
@@ -366,19 +366,91 @@
     <t>narayan_gopal.jpg</t>
   </si>
   <si>
-    <t>kali_prasad_baskota.jpg</t>
-  </si>
-  <si>
     <t>anju_panta.jpg</t>
   </si>
   <si>
     <t>bhakta_raj_acharya.jpg</t>
   </si>
   <si>
-    <t>bishnu_majhi.jpg</t>
-  </si>
-  <si>
     <t>Ani_Choying_Drolma.jpg</t>
+  </si>
+  <si>
+    <t>bijaya_kumar.png</t>
+  </si>
+  <si>
+    <t>sudheer_sharma.jpg</t>
+  </si>
+  <si>
+    <t>amit_dhakal.jpg</t>
+  </si>
+  <si>
+    <t>kishor_shrestha.jpg</t>
+  </si>
+  <si>
+    <t>bidya_chapagai.jpg</t>
+  </si>
+  <si>
+    <t>suman_kharel.jpg</t>
+  </si>
+  <si>
+    <t>manoj_gajurel.jpg</t>
+  </si>
+  <si>
+    <t>kedar_ghimire_magne_budha.jpg</t>
+  </si>
+  <si>
+    <t>madan_krishna_shrestha.jpg</t>
+  </si>
+  <si>
+    <t>hari_bansa_acharya.jpg</t>
+  </si>
+  <si>
+    <t>Wilson-Bikram-Rai.jpg</t>
+  </si>
+  <si>
+    <t>Sitaram-Kattel.jpg</t>
+  </si>
+  <si>
+    <t>2021_31</t>
+  </si>
+  <si>
+    <t>2021_32</t>
+  </si>
+  <si>
+    <t>2021_33</t>
+  </si>
+  <si>
+    <t>2021_34</t>
+  </si>
+  <si>
+    <t>2021_35</t>
+  </si>
+  <si>
+    <t>2021_36</t>
+  </si>
+  <si>
+    <t>rajesh_payal_rai.jpg</t>
+  </si>
+  <si>
+    <t>shiva_pariyar.jpg</t>
+  </si>
+  <si>
+    <t>rita_thapa_magar.jpg</t>
+  </si>
+  <si>
+    <t>indira_joshi.jpg</t>
+  </si>
+  <si>
+    <t>kunti_moktan.jpg</t>
+  </si>
+  <si>
+    <t>pasupati_sharma.jpeg</t>
+  </si>
+  <si>
+    <t>bishnu_majhi.jpeg</t>
+  </si>
+  <si>
+    <t>kali_prasad_baskota.png</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,19 +3117,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B96" si="5">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="B67:B114" si="5">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C96" si="6">"2021"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="C67:C114" si="6">"2021"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_66</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D96" si="7">"2021_pr"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="D67:D114" si="7">"2021_pr"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_pr_66</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E96" si="8">"2021_su"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="E67:E114" si="8">"2021_su"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_su_66</v>
       </c>
       <c r="F67" t="s">
@@ -3069,7 +3141,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A96" si="9">A67+1</f>
+        <f t="shared" ref="A68:A114" si="9">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="str">
@@ -3680,7 +3752,7 @@
         <v>90</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3708,7 +3780,7 @@
         <v>91</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,7 +3808,7 @@
         <v>92</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3764,7 +3836,7 @@
         <v>93</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,7 +3864,7 @@
         <v>94</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,6 +3949,510 @@
       </c>
       <c r="G96" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_96</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_96</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_96</v>
+      </c>
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_97</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_97</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_97</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_98</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_98</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_98</v>
+      </c>
+      <c r="F99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_99</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_99</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_100</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_100</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_100</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_100</v>
+      </c>
+      <c r="F101" t="s">
+        <v>134</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_101</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_101</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_101</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_101</v>
+      </c>
+      <c r="F102" t="s">
+        <v>135</v>
+      </c>
+      <c r="G102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_102</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_102</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_102</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_102</v>
+      </c>
+      <c r="F103" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_103</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_103</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_103</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_103</v>
+      </c>
+      <c r="F104" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_104</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_104</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_104</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_105</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_105</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_105</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_105</v>
+      </c>
+      <c r="F106" t="s">
+        <v>133</v>
+      </c>
+      <c r="G106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_106</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_106</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_106</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_106</v>
+      </c>
+      <c r="F107" t="s">
+        <v>134</v>
+      </c>
+      <c r="G107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_107</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_107</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_107</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_107</v>
+      </c>
+      <c r="F108" t="s">
+        <v>135</v>
+      </c>
+      <c r="G108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_108</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_108</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_108</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_109</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_109</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_109</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_110</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_110</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_110</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_111</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_111</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_111</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_112</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_112</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_112</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_112</v>
+      </c>
+      <c r="F113" t="s">
+        <v>134</v>
+      </c>
+      <c r="G113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_113</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_113</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_113</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>135</v>
+      </c>
+      <c r="G114" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="global_candidacy" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$114</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1257,10 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1347,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="4">A3+1</f>
         <v>3</v>
@@ -1375,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1403,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1431,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1459,7 +1463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -1487,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -1515,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1543,7 +1547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1571,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1599,7 +1603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1627,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1655,7 +1659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1683,7 +1687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1711,7 +1715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1739,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1767,7 +1771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1795,7 +1799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1823,7 +1827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1851,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1879,7 +1883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1907,7 +1911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1935,7 +1939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1963,7 +1967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1991,7 +1995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -2019,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2047,7 +2051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2075,7 +2079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2103,7 +2107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2131,7 +2135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2159,7 +2163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2187,7 +2191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2215,7 +2219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2243,7 +2247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2271,7 +2275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2299,7 +2303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -2327,7 +2331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -2355,7 +2359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -2383,7 +2387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -2411,7 +2415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -2439,7 +2443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -2467,7 +2471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -2495,7 +2499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -2523,7 +2527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2551,7 +2555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -2579,7 +2583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -2607,7 +2611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -2635,7 +2639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -2663,7 +2667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -2691,7 +2695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -2719,7 +2723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -2747,7 +2751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -2775,7 +2779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -2803,7 +2807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -2831,7 +2835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -2859,7 +2863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -2887,7 +2891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -2915,7 +2919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -2971,7 +2975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -2999,7 +3003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -3027,7 +3031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3055,7 +3059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -3083,7 +3087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -3111,7 +3115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -3139,7 +3143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A114" si="9">A67+1</f>
         <v>67</v>
@@ -3167,7 +3171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -3195,7 +3199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -3223,7 +3227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -3279,7 +3283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -3335,7 +3339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -3363,7 +3367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -3391,7 +3395,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -3419,7 +3423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -3447,7 +3451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -3475,7 +3479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -3503,7 +3507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -3559,7 +3563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -3587,7 +3591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -3615,7 +3619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -3643,7 +3647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -3671,7 +3675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -3727,7 +3731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -3755,7 +3759,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -3783,7 +3787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -3811,7 +3815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -3839,7 +3843,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -3867,7 +3871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -3895,7 +3899,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -3923,7 +3927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -3951,7 +3955,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -3979,7 +3983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -4007,7 +4011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -4035,7 +4039,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -4063,7 +4067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -4091,7 +4095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="9"/>
         <v>101</v>
@@ -4119,7 +4123,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="9"/>
         <v>102</v>
@@ -4147,7 +4151,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="9"/>
         <v>103</v>
@@ -4175,7 +4179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="9"/>
         <v>104</v>
@@ -4203,7 +4207,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="9"/>
         <v>105</v>
@@ -4231,7 +4235,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="9"/>
         <v>106</v>
@@ -4259,7 +4263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="9"/>
         <v>107</v>
@@ -4287,7 +4291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="9"/>
         <v>108</v>
@@ -4315,7 +4319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="9"/>
         <v>109</v>
@@ -4343,7 +4347,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="9"/>
         <v>110</v>
@@ -4371,7 +4375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="9"/>
         <v>111</v>
@@ -4399,7 +4403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="9"/>
         <v>112</v>
@@ -4427,7 +4431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="9"/>
         <v>113</v>
@@ -4456,6 +4460,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G114">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2021_13"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
   <si>
     <t>user_id</t>
   </si>
@@ -454,6 +454,90 @@
   </si>
   <si>
     <t>kali_prasad_baskota.png</t>
+  </si>
+  <si>
+    <t>2021_19</t>
+  </si>
+  <si>
+    <t>2021_20</t>
+  </si>
+  <si>
+    <t>2021_21</t>
+  </si>
+  <si>
+    <t>2021_22</t>
+  </si>
+  <si>
+    <t>2021_23</t>
+  </si>
+  <si>
+    <t>2021_24</t>
+  </si>
+  <si>
+    <t>bhuwan_chanda.jpg</t>
+  </si>
+  <si>
+    <t>mithila_sharma.jpg</t>
+  </si>
+  <si>
+    <t>bhawani_rana.jpg</t>
+  </si>
+  <si>
+    <t>bandana_rana.jpg</t>
+  </si>
+  <si>
+    <t>raveena-desraj-shrestha.jpg</t>
+  </si>
+  <si>
+    <t>haridevi-koirala.jpg</t>
+  </si>
+  <si>
+    <t>yankila_sherpa.jpg</t>
+  </si>
+  <si>
+    <t>2021_25</t>
+  </si>
+  <si>
+    <t>2021_27</t>
+  </si>
+  <si>
+    <t>ranju_darshana1.jpg</t>
+  </si>
+  <si>
+    <t>Shrinkhala-Khatiwada.jpg</t>
+  </si>
+  <si>
+    <t>sapana_malla_pradhan.jpg</t>
+  </si>
+  <si>
+    <t>aruna_upreti.jpg</t>
+  </si>
+  <si>
+    <t>sharada_sharma.jpg</t>
+  </si>
+  <si>
+    <t>babita_basnet.jpg</t>
+  </si>
+  <si>
+    <t>nirmala_panta.jpg</t>
+  </si>
+  <si>
+    <t>ramesh_prasai.jpg</t>
+  </si>
+  <si>
+    <t>Phupu-Lhamu-Khatri.jpg</t>
+  </si>
+  <si>
+    <t>uma_singh.jpg</t>
+  </si>
+  <si>
+    <t>2021_43</t>
+  </si>
+  <si>
+    <t>2021_37</t>
+  </si>
+  <si>
+    <t>2021_38</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1323,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1351,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="4">A3+1</f>
         <v>3</v>
@@ -1379,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1407,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1435,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1463,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -1491,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -1519,7 +1602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1547,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1575,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1603,7 +1686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1631,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1659,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1687,7 +1770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1715,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1743,7 +1826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1771,7 +1854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1799,7 +1882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1827,7 +1910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1855,7 +1938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1883,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1911,7 +1994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1939,7 +2022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1967,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1995,7 +2078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -2023,7 +2106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2051,7 +2134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2079,7 +2162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2107,7 +2190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2135,7 +2218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2163,7 +2246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2191,7 +2274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2219,7 +2302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2247,7 +2330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2275,7 +2358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2303,7 +2386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -2331,7 +2414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -2359,7 +2442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -2387,7 +2470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -2415,7 +2498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -2443,7 +2526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -2471,7 +2554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -2499,7 +2582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -2527,7 +2610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2555,7 +2638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -2583,7 +2666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -2611,7 +2694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -2639,7 +2722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -2667,7 +2750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -2695,7 +2778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -2723,7 +2806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -2751,7 +2834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -2779,7 +2862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -2807,7 +2890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -2835,7 +2918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -2863,7 +2946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -2891,7 +2974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -2919,7 +3002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -2975,7 +3058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -3003,7 +3086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -3031,7 +3114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3059,7 +3142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -3087,7 +3170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -3115,25 +3198,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B114" si="5">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="B67:B130" si="5">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C114" si="6">"2021"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="C67:C130" si="6">"2021"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_66</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D114" si="7">"2021_pr"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="D67:D130" si="7">"2021_pr"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_pr_66</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E114" si="8">"2021_su"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="E67:E130" si="8">"2021_su"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>2021_su_66</v>
       </c>
       <c r="F67" t="s">
@@ -3143,9 +3226,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A114" si="9">A67+1</f>
+        <f t="shared" ref="A68:A131" si="9">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="str">
@@ -3171,7 +3254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -3199,7 +3282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -3227,7 +3310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -3249,7 +3332,7 @@
         <v>2021_su_70</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="G71" t="s">
         <v>87</v>
@@ -3283,7 +3366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -3339,7 +3422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -3367,7 +3450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -3395,7 +3478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -3423,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -3451,7 +3534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -3479,7 +3562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -3507,7 +3590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -3563,7 +3646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -3591,7 +3674,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -3619,7 +3702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -3647,7 +3730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -3675,7 +3758,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -3731,7 +3814,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -3759,7 +3842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -3787,7 +3870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -3815,7 +3898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -3843,7 +3926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -3871,7 +3954,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -3899,7 +3982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -3927,7 +4010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -3955,7 +4038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -3983,7 +4066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -4011,7 +4094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -4039,7 +4122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -4067,7 +4150,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -4095,7 +4178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="9"/>
         <v>101</v>
@@ -4123,7 +4206,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="9"/>
         <v>102</v>
@@ -4151,7 +4234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="9"/>
         <v>103</v>
@@ -4179,7 +4262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="9"/>
         <v>104</v>
@@ -4207,7 +4290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="9"/>
         <v>105</v>
@@ -4235,7 +4318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="9"/>
         <v>106</v>
@@ -4263,7 +4346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="9"/>
         <v>107</v>
@@ -4291,7 +4374,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="9"/>
         <v>108</v>
@@ -4319,7 +4402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="9"/>
         <v>109</v>
@@ -4347,7 +4430,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="9"/>
         <v>110</v>
@@ -4375,7 +4458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="9"/>
         <v>111</v>
@@ -4403,7 +4486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="9"/>
         <v>112</v>
@@ -4431,7 +4514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="9"/>
         <v>113</v>
@@ -4459,14 +4542,484 @@
         <v>140</v>
       </c>
     </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_114</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_114</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_114</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>144</v>
+      </c>
+      <c r="G115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_115</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_115</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_115</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_115</v>
+      </c>
+      <c r="F116" t="s">
+        <v>145</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_116</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_116</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_116</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_116</v>
+      </c>
+      <c r="F117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_117</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_117</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_117</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>147</v>
+      </c>
+      <c r="G118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_118</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_118</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_118</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>148</v>
+      </c>
+      <c r="G119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_119</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_119</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_119</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>149</v>
+      </c>
+      <c r="G120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_120</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_120</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_120</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>146</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_121</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_121</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_121</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>130</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_122</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_122</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_122</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_123</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_123</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_123</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_124</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_124</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_124</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>145</v>
+      </c>
+      <c r="G125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_125</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_125</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_125</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>146</v>
+      </c>
+      <c r="G126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_126</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_126</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_126</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_126</v>
+      </c>
+      <c r="F127" t="s">
+        <v>158</v>
+      </c>
+      <c r="G127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_127</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_127</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_127</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_127</v>
+      </c>
+      <c r="F128" t="s">
+        <v>170</v>
+      </c>
+      <c r="G128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_128</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_128</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_128</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_128</v>
+      </c>
+      <c r="F129" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="5"/>
+        <v>nrna_129</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="6"/>
+        <v>2021_129</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="7"/>
+        <v>2021_pr_129</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="8"/>
+        <v>2021_su_129</v>
+      </c>
+      <c r="F130" t="s">
+        <v>81</v>
+      </c>
+      <c r="G130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131" si="10">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>nrna_130</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131" si="11">"2021"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>2021_130</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131" si="12">"2021_pr"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>2021_pr_130</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131" si="13">"2021_su"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>2021_su_130</v>
+      </c>
+      <c r="F131" t="s">
+        <v>171</v>
+      </c>
+      <c r="G131" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G114">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2021_13"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G114"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="global_candidacy" sheetId="1" r:id="rId1"/>
     <sheet name="uebersicht" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$144</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="856">
   <si>
     <t>user_id</t>
   </si>
@@ -625,6 +626,1977 @@
   </si>
   <si>
     <t>2021_46</t>
+  </si>
+  <si>
+    <t>sandip_chhetri.jpg</t>
+  </si>
+  <si>
+    <t>nrna_01</t>
+  </si>
+  <si>
+    <t>Mt. Everest (Sagarmatha)</t>
+  </si>
+  <si>
+    <t>2021_pr_01</t>
+  </si>
+  <si>
+    <t>2021_su_01</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>nrna_02</t>
+  </si>
+  <si>
+    <t>Mt. Kanchenjunga</t>
+  </si>
+  <si>
+    <t>2021_pr_02</t>
+  </si>
+  <si>
+    <t>2021_su_02</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>nrna_03</t>
+  </si>
+  <si>
+    <t>Machhapuchhre</t>
+  </si>
+  <si>
+    <t>2021_pr_03</t>
+  </si>
+  <si>
+    <t>2021_su_03</t>
+  </si>
+  <si>
+    <t>Woman Vice President</t>
+  </si>
+  <si>
+    <t>nrna_04</t>
+  </si>
+  <si>
+    <t>Api Himal</t>
+  </si>
+  <si>
+    <t>2021_pr_04</t>
+  </si>
+  <si>
+    <t>2021_su_04</t>
+  </si>
+  <si>
+    <t>General Secretary</t>
+  </si>
+  <si>
+    <t>nrna_05</t>
+  </si>
+  <si>
+    <t>Kathmandu City</t>
+  </si>
+  <si>
+    <t>2021_pr_05</t>
+  </si>
+  <si>
+    <t>2021_su_05</t>
+  </si>
+  <si>
+    <t>nrna_06</t>
+  </si>
+  <si>
+    <t>Pokhara</t>
+  </si>
+  <si>
+    <t>2021_pr_06</t>
+  </si>
+  <si>
+    <t>2021_su_06</t>
+  </si>
+  <si>
+    <t>nrna_07</t>
+  </si>
+  <si>
+    <t>Humla Simikot</t>
+  </si>
+  <si>
+    <t>2021_pr_07</t>
+  </si>
+  <si>
+    <t>2021_su_07</t>
+  </si>
+  <si>
+    <t>nrna_08</t>
+  </si>
+  <si>
+    <t>Janakpur City</t>
+  </si>
+  <si>
+    <t>2021_pr_08</t>
+  </si>
+  <si>
+    <t>2021_su_08</t>
+  </si>
+  <si>
+    <t>Woman Secretary</t>
+  </si>
+  <si>
+    <t>nrna_09</t>
+  </si>
+  <si>
+    <t>Palpa City</t>
+  </si>
+  <si>
+    <t>2021_pr_09</t>
+  </si>
+  <si>
+    <t>2021_su_09</t>
+  </si>
+  <si>
+    <t>Women Joint Treasurer</t>
+  </si>
+  <si>
+    <t>nrna_10</t>
+  </si>
+  <si>
+    <t>Dadeldhura City</t>
+  </si>
+  <si>
+    <t>2021_pr_10</t>
+  </si>
+  <si>
+    <t>2021_su_10</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>nrna_11</t>
+  </si>
+  <si>
+    <t>Bhaktapur City</t>
+  </si>
+  <si>
+    <t>2021_pr_11</t>
+  </si>
+  <si>
+    <t>2021_su_11</t>
+  </si>
+  <si>
+    <t>nrna_12</t>
+  </si>
+  <si>
+    <t>Dharan City</t>
+  </si>
+  <si>
+    <t>2021_pr_12</t>
+  </si>
+  <si>
+    <t>2021_su_12</t>
+  </si>
+  <si>
+    <t>Regional Youth Deputy Coordinator Africa</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t>nrna_13</t>
+  </si>
+  <si>
+    <t>Dhangadi City</t>
+  </si>
+  <si>
+    <t>2021_pr_13</t>
+  </si>
+  <si>
+    <t>2021_su_13</t>
+  </si>
+  <si>
+    <t>Regional Youth Deputy Coordinator Europe</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>nrna_14</t>
+  </si>
+  <si>
+    <t>Biratnagar City</t>
+  </si>
+  <si>
+    <t>2021_pr_14</t>
+  </si>
+  <si>
+    <t>2021_su_14</t>
+  </si>
+  <si>
+    <t>Regional Youth Deputy Coordinator Americas</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>nrna_15</t>
+  </si>
+  <si>
+    <t>Jomsom City</t>
+  </si>
+  <si>
+    <t>2021_pr_15</t>
+  </si>
+  <si>
+    <t>2021_su_15</t>
+  </si>
+  <si>
+    <t>Regional Youth Deputy Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>nrna_16</t>
+  </si>
+  <si>
+    <t>Lalitpur City</t>
+  </si>
+  <si>
+    <t>2021_pr_16</t>
+  </si>
+  <si>
+    <t>2021_su_16</t>
+  </si>
+  <si>
+    <t>Regional Youth Deputy Coordinator Asia Pacific</t>
+  </si>
+  <si>
+    <t>Asia Pacific</t>
+  </si>
+  <si>
+    <t>nrna_17</t>
+  </si>
+  <si>
+    <t>Chitwan National Park</t>
+  </si>
+  <si>
+    <t>2021_pr_17</t>
+  </si>
+  <si>
+    <t>2021_su_17</t>
+  </si>
+  <si>
+    <t>nrna_18</t>
+  </si>
+  <si>
+    <t>Khaptad National Park</t>
+  </si>
+  <si>
+    <t>2021_pr_18</t>
+  </si>
+  <si>
+    <t>2021_su_18</t>
+  </si>
+  <si>
+    <t>nrna_19</t>
+  </si>
+  <si>
+    <t>Bardiya National Park</t>
+  </si>
+  <si>
+    <t>2021_pr_19</t>
+  </si>
+  <si>
+    <t>2021_su_19</t>
+  </si>
+  <si>
+    <t>nrna_20</t>
+  </si>
+  <si>
+    <t>Shivapuri Nagarjun National Park</t>
+  </si>
+  <si>
+    <t>2021_pr_20</t>
+  </si>
+  <si>
+    <t>2021_su_20</t>
+  </si>
+  <si>
+    <t>nrna_21</t>
+  </si>
+  <si>
+    <t>Chandra Giri Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_21</t>
+  </si>
+  <si>
+    <t>2021_su_21</t>
+  </si>
+  <si>
+    <t>nrna_22</t>
+  </si>
+  <si>
+    <t>Punn Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_22</t>
+  </si>
+  <si>
+    <t>2021_su_22</t>
+  </si>
+  <si>
+    <t>Youth Coordinator</t>
+  </si>
+  <si>
+    <t>nrna_23</t>
+  </si>
+  <si>
+    <t>Sarangkot Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_23</t>
+  </si>
+  <si>
+    <t>2021_su_23</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Europe</t>
+  </si>
+  <si>
+    <t>nrna_24</t>
+  </si>
+  <si>
+    <t>Bandipur Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_24</t>
+  </si>
+  <si>
+    <t>2021_su_24</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Americas</t>
+  </si>
+  <si>
+    <t>nrna_25</t>
+  </si>
+  <si>
+    <t>Ilam Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_25</t>
+  </si>
+  <si>
+    <t>2021_su_25</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>nrna_26</t>
+  </si>
+  <si>
+    <t>Chitlang Hill</t>
+  </si>
+  <si>
+    <t>2021_26</t>
+  </si>
+  <si>
+    <t>2021_pr_26</t>
+  </si>
+  <si>
+    <t>2021_su_26</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Asia Pacific</t>
+  </si>
+  <si>
+    <t>nrna_27</t>
+  </si>
+  <si>
+    <t>Nagarot  Hill</t>
+  </si>
+  <si>
+    <t>2021_pr_27</t>
+  </si>
+  <si>
+    <t>2021_su_27</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Middle East</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>nrna_28</t>
+  </si>
+  <si>
+    <t>Dulikhel Hill</t>
+  </si>
+  <si>
+    <t>2021_28</t>
+  </si>
+  <si>
+    <t>2021_pr_28</t>
+  </si>
+  <si>
+    <t>2021_su_28</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Africa</t>
+  </si>
+  <si>
+    <t>nrna_29</t>
+  </si>
+  <si>
+    <t>Rara Lake</t>
+  </si>
+  <si>
+    <t>2021_29</t>
+  </si>
+  <si>
+    <t>2021_pr_29</t>
+  </si>
+  <si>
+    <t>2021_su_29</t>
+  </si>
+  <si>
+    <t>nrna_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewa Lake </t>
+  </si>
+  <si>
+    <t>2021_30</t>
+  </si>
+  <si>
+    <t>2021_pr_30</t>
+  </si>
+  <si>
+    <t>2021_su_30</t>
+  </si>
+  <si>
+    <t>Woman Coordinator</t>
+  </si>
+  <si>
+    <t>nrna_31</t>
+  </si>
+  <si>
+    <t>Rupa Lake</t>
+  </si>
+  <si>
+    <t>2021_pr_31</t>
+  </si>
+  <si>
+    <t>2021_su_31</t>
+  </si>
+  <si>
+    <t>nrna_32</t>
+  </si>
+  <si>
+    <t>Tilicho Lake</t>
+  </si>
+  <si>
+    <t>2021_pr_32</t>
+  </si>
+  <si>
+    <t>2021_su_32</t>
+  </si>
+  <si>
+    <t>nrna_33</t>
+  </si>
+  <si>
+    <t>Ek Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_33</t>
+  </si>
+  <si>
+    <t>2021_su_33</t>
+  </si>
+  <si>
+    <t>Treasurer</t>
+  </si>
+  <si>
+    <t>nrna_34</t>
+  </si>
+  <si>
+    <t>5 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_34</t>
+  </si>
+  <si>
+    <t>2021_su_34</t>
+  </si>
+  <si>
+    <t>nrna_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25  Rupaya </t>
+  </si>
+  <si>
+    <t>2021_pr_35</t>
+  </si>
+  <si>
+    <t>2021_su_35</t>
+  </si>
+  <si>
+    <t>nrna_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Rupaya </t>
+  </si>
+  <si>
+    <t>2021_pr_36</t>
+  </si>
+  <si>
+    <t>2021_su_36</t>
+  </si>
+  <si>
+    <t>nrna_37</t>
+  </si>
+  <si>
+    <t>1000 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_37</t>
+  </si>
+  <si>
+    <t>2021_su_37</t>
+  </si>
+  <si>
+    <t>nrna_38</t>
+  </si>
+  <si>
+    <t>Coin 10 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_38</t>
+  </si>
+  <si>
+    <t>2021_su_38</t>
+  </si>
+  <si>
+    <t>Joint Treasurer</t>
+  </si>
+  <si>
+    <t>nrna_39</t>
+  </si>
+  <si>
+    <t>Coin 250 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_39</t>
+  </si>
+  <si>
+    <t>2021_su_39</t>
+  </si>
+  <si>
+    <t>nrna_40</t>
+  </si>
+  <si>
+    <t>Coin 500 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_40</t>
+  </si>
+  <si>
+    <t>2021_su_40</t>
+  </si>
+  <si>
+    <t>nrna_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin 5 Rupaya </t>
+  </si>
+  <si>
+    <t>2021_pr_41</t>
+  </si>
+  <si>
+    <t>2021_su_41</t>
+  </si>
+  <si>
+    <t>nrna_42</t>
+  </si>
+  <si>
+    <t>Coin 2 Rupaya</t>
+  </si>
+  <si>
+    <t>2021_pr_42</t>
+  </si>
+  <si>
+    <t>2021_su_42</t>
+  </si>
+  <si>
+    <t>nrna_43</t>
+  </si>
+  <si>
+    <t>Parijaat</t>
+  </si>
+  <si>
+    <t>2021_pr_43</t>
+  </si>
+  <si>
+    <t>2021_su_43</t>
+  </si>
+  <si>
+    <t>nrna_44</t>
+  </si>
+  <si>
+    <t>Pasang Lhamu Sherpa</t>
+  </si>
+  <si>
+    <t>2021_pr_44</t>
+  </si>
+  <si>
+    <t>2021_su_44</t>
+  </si>
+  <si>
+    <t>nrna_45</t>
+  </si>
+  <si>
+    <t>Sushila Karki</t>
+  </si>
+  <si>
+    <t>2021_pr_45</t>
+  </si>
+  <si>
+    <t>2021_su_45</t>
+  </si>
+  <si>
+    <t>nrna_46</t>
+  </si>
+  <si>
+    <t>Himani Shaha</t>
+  </si>
+  <si>
+    <t>2021_pr_46</t>
+  </si>
+  <si>
+    <t>2021_su_46</t>
+  </si>
+  <si>
+    <t>nrna_47</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>2021_47</t>
+  </si>
+  <si>
+    <t>2021_pr_47</t>
+  </si>
+  <si>
+    <t>2021_su_47</t>
+  </si>
+  <si>
+    <t>Youth Vice President</t>
+  </si>
+  <si>
+    <t>nrna_48</t>
+  </si>
+  <si>
+    <t>Kapardi</t>
+  </si>
+  <si>
+    <t>2021_pr_48</t>
+  </si>
+  <si>
+    <t>2021_su_48</t>
+  </si>
+  <si>
+    <t>nrna_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricket </t>
+  </si>
+  <si>
+    <t>2021_pr_49</t>
+  </si>
+  <si>
+    <t>2021_su_49</t>
+  </si>
+  <si>
+    <t>nrna_50</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>2021_50</t>
+  </si>
+  <si>
+    <t>2021_pr_50</t>
+  </si>
+  <si>
+    <t>2021_su_50</t>
+  </si>
+  <si>
+    <t>nrna_51</t>
+  </si>
+  <si>
+    <t>Elephant Polo</t>
+  </si>
+  <si>
+    <t>2021_51</t>
+  </si>
+  <si>
+    <t>2021_pr_51</t>
+  </si>
+  <si>
+    <t>2021_su_51</t>
+  </si>
+  <si>
+    <t>nrna_52</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>2021_52</t>
+  </si>
+  <si>
+    <t>2021_pr_52</t>
+  </si>
+  <si>
+    <t>2021_su_52</t>
+  </si>
+  <si>
+    <t>nrna_53</t>
+  </si>
+  <si>
+    <t>1 Rupaya Coin</t>
+  </si>
+  <si>
+    <t>2021_53</t>
+  </si>
+  <si>
+    <t>2021_pr_53</t>
+  </si>
+  <si>
+    <t>2021_su_53</t>
+  </si>
+  <si>
+    <t>nrna_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakali River </t>
+  </si>
+  <si>
+    <t>2021_54</t>
+  </si>
+  <si>
+    <t>2021_pr_54</t>
+  </si>
+  <si>
+    <t>2021_su_54</t>
+  </si>
+  <si>
+    <t>nrna_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapta Gandki River </t>
+  </si>
+  <si>
+    <t>2021_55</t>
+  </si>
+  <si>
+    <t>2021_pr_55</t>
+  </si>
+  <si>
+    <t>2021_su_55</t>
+  </si>
+  <si>
+    <t>nrna_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koshi River </t>
+  </si>
+  <si>
+    <t>2021_56</t>
+  </si>
+  <si>
+    <t>2021_pr_56</t>
+  </si>
+  <si>
+    <t>2021_su_56</t>
+  </si>
+  <si>
+    <t>nrna_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayani River </t>
+  </si>
+  <si>
+    <t>2021_57</t>
+  </si>
+  <si>
+    <t>2021_pr_57</t>
+  </si>
+  <si>
+    <t>2021_su_57</t>
+  </si>
+  <si>
+    <t>nrna_58</t>
+  </si>
+  <si>
+    <t>Karnali River</t>
+  </si>
+  <si>
+    <t>2021_58</t>
+  </si>
+  <si>
+    <t>2021_pr_58</t>
+  </si>
+  <si>
+    <t>2021_su_58</t>
+  </si>
+  <si>
+    <t>nrna_59</t>
+  </si>
+  <si>
+    <t>One and Half Mohar</t>
+  </si>
+  <si>
+    <t>2021_59</t>
+  </si>
+  <si>
+    <t>2021_pr_59</t>
+  </si>
+  <si>
+    <t>2021_su_59</t>
+  </si>
+  <si>
+    <t>nrna_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moti Ram Bhatta </t>
+  </si>
+  <si>
+    <t>2021_60</t>
+  </si>
+  <si>
+    <t>2021_pr_60</t>
+  </si>
+  <si>
+    <t>2021_su_60</t>
+  </si>
+  <si>
+    <t>nrna_61</t>
+  </si>
+  <si>
+    <t>Laxmi Prasad Devkota</t>
+  </si>
+  <si>
+    <t>2021_61</t>
+  </si>
+  <si>
+    <t>2021_pr_61</t>
+  </si>
+  <si>
+    <t>2021_su_61</t>
+  </si>
+  <si>
+    <t>nrna_62</t>
+  </si>
+  <si>
+    <t>Bhanu Bhakta Acharya</t>
+  </si>
+  <si>
+    <t>2021_62</t>
+  </si>
+  <si>
+    <t>2021_pr_62</t>
+  </si>
+  <si>
+    <t>2021_su_62</t>
+  </si>
+  <si>
+    <t>nrna_63</t>
+  </si>
+  <si>
+    <t>Bhupi Sherchan</t>
+  </si>
+  <si>
+    <t>2021_63</t>
+  </si>
+  <si>
+    <t>2021_pr_63</t>
+  </si>
+  <si>
+    <t>2021_su_63</t>
+  </si>
+  <si>
+    <t>nrna_64</t>
+  </si>
+  <si>
+    <t>Satya Mohan Joshi</t>
+  </si>
+  <si>
+    <t>2021_64</t>
+  </si>
+  <si>
+    <t>2021_pr_64</t>
+  </si>
+  <si>
+    <t>2021_su_64</t>
+  </si>
+  <si>
+    <t>nrna_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melina Rai </t>
+  </si>
+  <si>
+    <t>2021_65</t>
+  </si>
+  <si>
+    <t>2021_pr_65</t>
+  </si>
+  <si>
+    <t>2021_su_65</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>nrna_66</t>
+  </si>
+  <si>
+    <t>Anamol KC</t>
+  </si>
+  <si>
+    <t>2021_66</t>
+  </si>
+  <si>
+    <t>2021_pr_66</t>
+  </si>
+  <si>
+    <t>2021_su_66</t>
+  </si>
+  <si>
+    <t>nrna_67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jitu Nepal </t>
+  </si>
+  <si>
+    <t>2021_67</t>
+  </si>
+  <si>
+    <t>2021_pr_67</t>
+  </si>
+  <si>
+    <t>2021_su_67</t>
+  </si>
+  <si>
+    <t>nrna_68</t>
+  </si>
+  <si>
+    <t>Priyanka Karki</t>
+  </si>
+  <si>
+    <t>2021_68</t>
+  </si>
+  <si>
+    <t>2021_pr_68</t>
+  </si>
+  <si>
+    <t>2021_su_68</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Asia Pacific</t>
+  </si>
+  <si>
+    <t>nrna_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swastima Khadka </t>
+  </si>
+  <si>
+    <t>2021_69</t>
+  </si>
+  <si>
+    <t>2021_pr_69</t>
+  </si>
+  <si>
+    <t>2021_su_69</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Middle East</t>
+  </si>
+  <si>
+    <t>nrna_70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurika Singh </t>
+  </si>
+  <si>
+    <t>2021_70</t>
+  </si>
+  <si>
+    <t>2021_pr_70</t>
+  </si>
+  <si>
+    <t>2021_su_70</t>
+  </si>
+  <si>
+    <t>nrna_71</t>
+  </si>
+  <si>
+    <t>Dipashree Niraula</t>
+  </si>
+  <si>
+    <t>2021_71</t>
+  </si>
+  <si>
+    <t>2021_pr_71</t>
+  </si>
+  <si>
+    <t>2021_su_71</t>
+  </si>
+  <si>
+    <t>nrna_72</t>
+  </si>
+  <si>
+    <t>Rekha Thapa</t>
+  </si>
+  <si>
+    <t>2021_72</t>
+  </si>
+  <si>
+    <t>2021_pr_72</t>
+  </si>
+  <si>
+    <t>2021_su_72</t>
+  </si>
+  <si>
+    <t>nrna_73</t>
+  </si>
+  <si>
+    <t>Rajesh Hamal</t>
+  </si>
+  <si>
+    <t>2021_73</t>
+  </si>
+  <si>
+    <t>2021_pr_73</t>
+  </si>
+  <si>
+    <t>2021_su_73</t>
+  </si>
+  <si>
+    <t>nrna_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karishma Manandhar </t>
+  </si>
+  <si>
+    <t>2021_74</t>
+  </si>
+  <si>
+    <t>2021_pr_74</t>
+  </si>
+  <si>
+    <t>2021_su_74</t>
+  </si>
+  <si>
+    <t>nrna_75</t>
+  </si>
+  <si>
+    <t>Sandip Chhetri</t>
+  </si>
+  <si>
+    <t>2021_75</t>
+  </si>
+  <si>
+    <t>2021_pr_75</t>
+  </si>
+  <si>
+    <t>2021_su_75</t>
+  </si>
+  <si>
+    <t>nrna_76</t>
+  </si>
+  <si>
+    <t>2021_76</t>
+  </si>
+  <si>
+    <t>2021_pr_76</t>
+  </si>
+  <si>
+    <t>2021_su_76</t>
+  </si>
+  <si>
+    <t>nrna_77</t>
+  </si>
+  <si>
+    <t>2021_77</t>
+  </si>
+  <si>
+    <t>2021_pr_77</t>
+  </si>
+  <si>
+    <t>2021_su_77</t>
+  </si>
+  <si>
+    <t>nrna_78</t>
+  </si>
+  <si>
+    <t>2021_78</t>
+  </si>
+  <si>
+    <t>2021_pr_78</t>
+  </si>
+  <si>
+    <t>2021_su_78</t>
+  </si>
+  <si>
+    <t>nrna_79</t>
+  </si>
+  <si>
+    <t>2021_79</t>
+  </si>
+  <si>
+    <t>2021_pr_79</t>
+  </si>
+  <si>
+    <t>2021_su_79</t>
+  </si>
+  <si>
+    <t>nrna_80</t>
+  </si>
+  <si>
+    <t>2021_80</t>
+  </si>
+  <si>
+    <t>2021_pr_80</t>
+  </si>
+  <si>
+    <t>2021_su_80</t>
+  </si>
+  <si>
+    <t>nrna_81</t>
+  </si>
+  <si>
+    <t>2021_81</t>
+  </si>
+  <si>
+    <t>2021_pr_81</t>
+  </si>
+  <si>
+    <t>2021_su_81</t>
+  </si>
+  <si>
+    <t>nrna_82</t>
+  </si>
+  <si>
+    <t>2021_82</t>
+  </si>
+  <si>
+    <t>2021_pr_82</t>
+  </si>
+  <si>
+    <t>2021_su_82</t>
+  </si>
+  <si>
+    <t>nrna_83</t>
+  </si>
+  <si>
+    <t>2021_83</t>
+  </si>
+  <si>
+    <t>2021_pr_83</t>
+  </si>
+  <si>
+    <t>2021_su_83</t>
+  </si>
+  <si>
+    <t>nrna_84</t>
+  </si>
+  <si>
+    <t>2021_84</t>
+  </si>
+  <si>
+    <t>2021_pr_84</t>
+  </si>
+  <si>
+    <t>2021_su_84</t>
+  </si>
+  <si>
+    <t>nrna_85</t>
+  </si>
+  <si>
+    <t>2021_85</t>
+  </si>
+  <si>
+    <t>2021_pr_85</t>
+  </si>
+  <si>
+    <t>2021_su_85</t>
+  </si>
+  <si>
+    <t>nrna_86</t>
+  </si>
+  <si>
+    <t>2021_86</t>
+  </si>
+  <si>
+    <t>2021_pr_86</t>
+  </si>
+  <si>
+    <t>2021_su_86</t>
+  </si>
+  <si>
+    <t>nrna_87</t>
+  </si>
+  <si>
+    <t>2021_87</t>
+  </si>
+  <si>
+    <t>2021_pr_87</t>
+  </si>
+  <si>
+    <t>2021_su_87</t>
+  </si>
+  <si>
+    <t>nrna_88</t>
+  </si>
+  <si>
+    <t>2021_88</t>
+  </si>
+  <si>
+    <t>2021_pr_88</t>
+  </si>
+  <si>
+    <t>2021_su_88</t>
+  </si>
+  <si>
+    <t>nrna_89</t>
+  </si>
+  <si>
+    <t>2021_89</t>
+  </si>
+  <si>
+    <t>2021_pr_89</t>
+  </si>
+  <si>
+    <t>2021_su_89</t>
+  </si>
+  <si>
+    <t>nrna_90</t>
+  </si>
+  <si>
+    <t>2021_90</t>
+  </si>
+  <si>
+    <t>2021_pr_90</t>
+  </si>
+  <si>
+    <t>2021_su_90</t>
+  </si>
+  <si>
+    <t>nrna_91</t>
+  </si>
+  <si>
+    <t>2021_91</t>
+  </si>
+  <si>
+    <t>2021_pr_91</t>
+  </si>
+  <si>
+    <t>2021_su_91</t>
+  </si>
+  <si>
+    <t>nrna_92</t>
+  </si>
+  <si>
+    <t>2021_92</t>
+  </si>
+  <si>
+    <t>2021_pr_92</t>
+  </si>
+  <si>
+    <t>2021_su_92</t>
+  </si>
+  <si>
+    <t>nrna_93</t>
+  </si>
+  <si>
+    <t>2021_93</t>
+  </si>
+  <si>
+    <t>2021_pr_93</t>
+  </si>
+  <si>
+    <t>2021_su_93</t>
+  </si>
+  <si>
+    <t>nrna_94</t>
+  </si>
+  <si>
+    <t>2021_94</t>
+  </si>
+  <si>
+    <t>2021_pr_94</t>
+  </si>
+  <si>
+    <t>2021_su_94</t>
+  </si>
+  <si>
+    <t>nrna_95</t>
+  </si>
+  <si>
+    <t>2021_95</t>
+  </si>
+  <si>
+    <t>2021_pr_95</t>
+  </si>
+  <si>
+    <t>2021_su_95</t>
+  </si>
+  <si>
+    <t>nrna_96</t>
+  </si>
+  <si>
+    <t>2021_96</t>
+  </si>
+  <si>
+    <t>2021_pr_96</t>
+  </si>
+  <si>
+    <t>2021_su_96</t>
+  </si>
+  <si>
+    <t>Regional Deputy Coordinator Europe</t>
+  </si>
+  <si>
+    <t>nrna_97</t>
+  </si>
+  <si>
+    <t>2021_97</t>
+  </si>
+  <si>
+    <t>2021_pr_97</t>
+  </si>
+  <si>
+    <t>2021_su_97</t>
+  </si>
+  <si>
+    <t>Regional Deputy  Coordinator Americas</t>
+  </si>
+  <si>
+    <t>nrna_98</t>
+  </si>
+  <si>
+    <t>2021_98</t>
+  </si>
+  <si>
+    <t>2021_pr_98</t>
+  </si>
+  <si>
+    <t>2021_su_98</t>
+  </si>
+  <si>
+    <t>Regional Deputy Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>nrna_99</t>
+  </si>
+  <si>
+    <t>2021_99</t>
+  </si>
+  <si>
+    <t>2021_pr_99</t>
+  </si>
+  <si>
+    <t>2021_su_99</t>
+  </si>
+  <si>
+    <t>Regional Deputy Coordinator Asia Pacific</t>
+  </si>
+  <si>
+    <t>nrna_100</t>
+  </si>
+  <si>
+    <t>2021_100</t>
+  </si>
+  <si>
+    <t>2021_pr_100</t>
+  </si>
+  <si>
+    <t>2021_su_100</t>
+  </si>
+  <si>
+    <t>Regional Deputy Coordinator Middle East</t>
+  </si>
+  <si>
+    <t>nrna_101</t>
+  </si>
+  <si>
+    <t>2021_101</t>
+  </si>
+  <si>
+    <t>2021_pr_101</t>
+  </si>
+  <si>
+    <t>2021_su_101</t>
+  </si>
+  <si>
+    <t>Regional Deputy Coordinator Africa</t>
+  </si>
+  <si>
+    <t>nrna_102</t>
+  </si>
+  <si>
+    <t>2021_102</t>
+  </si>
+  <si>
+    <t>2021_pr_102</t>
+  </si>
+  <si>
+    <t>2021_su_102</t>
+  </si>
+  <si>
+    <t>nrna_103</t>
+  </si>
+  <si>
+    <t>2021_103</t>
+  </si>
+  <si>
+    <t>2021_pr_103</t>
+  </si>
+  <si>
+    <t>2021_su_103</t>
+  </si>
+  <si>
+    <t>nrna_104</t>
+  </si>
+  <si>
+    <t>2021_104</t>
+  </si>
+  <si>
+    <t>2021_pr_104</t>
+  </si>
+  <si>
+    <t>2021_su_104</t>
+  </si>
+  <si>
+    <t>nrna_105</t>
+  </si>
+  <si>
+    <t>2021_105</t>
+  </si>
+  <si>
+    <t>2021_pr_105</t>
+  </si>
+  <si>
+    <t>2021_su_105</t>
+  </si>
+  <si>
+    <t>nrna_106</t>
+  </si>
+  <si>
+    <t>2021_106</t>
+  </si>
+  <si>
+    <t>2021_pr_106</t>
+  </si>
+  <si>
+    <t>2021_su_106</t>
+  </si>
+  <si>
+    <t>nrna_107</t>
+  </si>
+  <si>
+    <t>2021_107</t>
+  </si>
+  <si>
+    <t>2021_pr_107</t>
+  </si>
+  <si>
+    <t>2021_su_107</t>
+  </si>
+  <si>
+    <t>nrna_108</t>
+  </si>
+  <si>
+    <t>2021_108</t>
+  </si>
+  <si>
+    <t>2021_pr_108</t>
+  </si>
+  <si>
+    <t>2021_su_108</t>
+  </si>
+  <si>
+    <t>nrna_109</t>
+  </si>
+  <si>
+    <t>2021_109</t>
+  </si>
+  <si>
+    <t>2021_pr_109</t>
+  </si>
+  <si>
+    <t>2021_su_109</t>
+  </si>
+  <si>
+    <t>nrna_110</t>
+  </si>
+  <si>
+    <t>2021_110</t>
+  </si>
+  <si>
+    <t>2021_pr_110</t>
+  </si>
+  <si>
+    <t>2021_su_110</t>
+  </si>
+  <si>
+    <t>nrna_111</t>
+  </si>
+  <si>
+    <t>2021_111</t>
+  </si>
+  <si>
+    <t>2021_pr_111</t>
+  </si>
+  <si>
+    <t>2021_su_111</t>
+  </si>
+  <si>
+    <t>nrna_112</t>
+  </si>
+  <si>
+    <t>2021_112</t>
+  </si>
+  <si>
+    <t>2021_pr_112</t>
+  </si>
+  <si>
+    <t>2021_su_112</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Africa</t>
+  </si>
+  <si>
+    <t>nrna_113</t>
+  </si>
+  <si>
+    <t>2021_113</t>
+  </si>
+  <si>
+    <t>2021_pr_113</t>
+  </si>
+  <si>
+    <t>2021_su_113</t>
+  </si>
+  <si>
+    <t>nrna_114</t>
+  </si>
+  <si>
+    <t>2021_114</t>
+  </si>
+  <si>
+    <t>2021_pr_114</t>
+  </si>
+  <si>
+    <t>2021_su_114</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Europe</t>
+  </si>
+  <si>
+    <t>nrna_115</t>
+  </si>
+  <si>
+    <t>2021_115</t>
+  </si>
+  <si>
+    <t>2021_pr_115</t>
+  </si>
+  <si>
+    <t>2021_su_115</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Americas</t>
+  </si>
+  <si>
+    <t>nrna_116</t>
+  </si>
+  <si>
+    <t>2021_116</t>
+  </si>
+  <si>
+    <t>2021_pr_116</t>
+  </si>
+  <si>
+    <t>2021_su_116</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>nrna_117</t>
+  </si>
+  <si>
+    <t>2021_117</t>
+  </si>
+  <si>
+    <t>2021_pr_117</t>
+  </si>
+  <si>
+    <t>2021_su_117</t>
+  </si>
+  <si>
+    <t>nrna_118</t>
+  </si>
+  <si>
+    <t>2021_118</t>
+  </si>
+  <si>
+    <t>2021_pr_118</t>
+  </si>
+  <si>
+    <t>2021_su_118</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Middle East</t>
+  </si>
+  <si>
+    <t>nrna_119</t>
+  </si>
+  <si>
+    <t>2021_119</t>
+  </si>
+  <si>
+    <t>2021_pr_119</t>
+  </si>
+  <si>
+    <t>2021_su_119</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Africa</t>
+  </si>
+  <si>
+    <t>nrna_120</t>
+  </si>
+  <si>
+    <t>2021_120</t>
+  </si>
+  <si>
+    <t>2021_pr_120</t>
+  </si>
+  <si>
+    <t>2021_su_120</t>
+  </si>
+  <si>
+    <t>nrna_121</t>
+  </si>
+  <si>
+    <t>2021_121</t>
+  </si>
+  <si>
+    <t>2021_pr_121</t>
+  </si>
+  <si>
+    <t>2021_su_121</t>
+  </si>
+  <si>
+    <t>nrna_122</t>
+  </si>
+  <si>
+    <t>2021_122</t>
+  </si>
+  <si>
+    <t>2021_pr_122</t>
+  </si>
+  <si>
+    <t>2021_su_122</t>
+  </si>
+  <si>
+    <t>nrna_123</t>
+  </si>
+  <si>
+    <t>2021_123</t>
+  </si>
+  <si>
+    <t>2021_pr_123</t>
+  </si>
+  <si>
+    <t>2021_su_123</t>
+  </si>
+  <si>
+    <t>nrna_124</t>
+  </si>
+  <si>
+    <t>2021_124</t>
+  </si>
+  <si>
+    <t>2021_pr_124</t>
+  </si>
+  <si>
+    <t>2021_su_124</t>
+  </si>
+  <si>
+    <t>nrna_125</t>
+  </si>
+  <si>
+    <t>2021_125</t>
+  </si>
+  <si>
+    <t>2021_pr_125</t>
+  </si>
+  <si>
+    <t>2021_su_125</t>
+  </si>
+  <si>
+    <t>Regional Women Coordinator Asia Pacific</t>
+  </si>
+  <si>
+    <t>nrna_126</t>
+  </si>
+  <si>
+    <t>2021_126</t>
+  </si>
+  <si>
+    <t>2021_pr_126</t>
+  </si>
+  <si>
+    <t>2021_su_126</t>
+  </si>
+  <si>
+    <t>Regional Youth Coordinator Oceania</t>
+  </si>
+  <si>
+    <t>nrna_127</t>
+  </si>
+  <si>
+    <t>2021_127</t>
+  </si>
+  <si>
+    <t>2021_pr_127</t>
+  </si>
+  <si>
+    <t>2021_su_127</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Europe</t>
+  </si>
+  <si>
+    <t>nrna_128</t>
+  </si>
+  <si>
+    <t>2021_128</t>
+  </si>
+  <si>
+    <t>2021_pr_128</t>
+  </si>
+  <si>
+    <t>2021_su_128</t>
+  </si>
+  <si>
+    <t>Regional Youth Coordinator Europe</t>
+  </si>
+  <si>
+    <t>nrna_129</t>
+  </si>
+  <si>
+    <t>2021_129</t>
+  </si>
+  <si>
+    <t>2021_pr_129</t>
+  </si>
+  <si>
+    <t>2021_su_129</t>
+  </si>
+  <si>
+    <t>nrna_130</t>
+  </si>
+  <si>
+    <t>2021_130</t>
+  </si>
+  <si>
+    <t>2021_pr_130</t>
+  </si>
+  <si>
+    <t>2021_su_130</t>
+  </si>
+  <si>
+    <t>Regional Women Deputy Coordinator Americas</t>
+  </si>
+  <si>
+    <t>nrna_131</t>
+  </si>
+  <si>
+    <t>2021_131</t>
+  </si>
+  <si>
+    <t>2021_pr_131</t>
+  </si>
+  <si>
+    <t>2021_su_131</t>
+  </si>
+  <si>
+    <t>nrna_132</t>
+  </si>
+  <si>
+    <t>2021_132</t>
+  </si>
+  <si>
+    <t>2021_pr_132</t>
+  </si>
+  <si>
+    <t>2021_su_132</t>
+  </si>
+  <si>
+    <t>nrna_133</t>
+  </si>
+  <si>
+    <t>2021_133</t>
+  </si>
+  <si>
+    <t>2021_pr_133</t>
+  </si>
+  <si>
+    <t>2021_su_133</t>
+  </si>
+  <si>
+    <t>nrna_134</t>
+  </si>
+  <si>
+    <t>2021_134</t>
+  </si>
+  <si>
+    <t>2021_pr_134</t>
+  </si>
+  <si>
+    <t>2021_su_134</t>
+  </si>
+  <si>
+    <t>nrna_135</t>
+  </si>
+  <si>
+    <t>2021_135</t>
+  </si>
+  <si>
+    <t>2021_pr_135</t>
+  </si>
+  <si>
+    <t>2021_su_135</t>
+  </si>
+  <si>
+    <t>nrna_136</t>
+  </si>
+  <si>
+    <t>2021_136</t>
+  </si>
+  <si>
+    <t>2021_pr_136</t>
+  </si>
+  <si>
+    <t>2021_su_136</t>
+  </si>
+  <si>
+    <t>nrna_137</t>
+  </si>
+  <si>
+    <t>2021_137</t>
+  </si>
+  <si>
+    <t>2021_pr_137</t>
+  </si>
+  <si>
+    <t>2021_su_137</t>
+  </si>
+  <si>
+    <t>nrna_138</t>
+  </si>
+  <si>
+    <t>2021_138</t>
+  </si>
+  <si>
+    <t>2021_pr_138</t>
+  </si>
+  <si>
+    <t>2021_su_138</t>
+  </si>
+  <si>
+    <t>nrna_139</t>
+  </si>
+  <si>
+    <t>2021_139</t>
+  </si>
+  <si>
+    <t>2021_pr_139</t>
+  </si>
+  <si>
+    <t>2021_su_139</t>
+  </si>
+  <si>
+    <t>nrna_140</t>
+  </si>
+  <si>
+    <t>2021_140</t>
+  </si>
+  <si>
+    <t>2021_pr_140</t>
+  </si>
+  <si>
+    <t>2021_su_140</t>
+  </si>
+  <si>
+    <t>nrna_141</t>
+  </si>
+  <si>
+    <t>2021_141</t>
+  </si>
+  <si>
+    <t>2021_pr_141</t>
+  </si>
+  <si>
+    <t>2021_su_141</t>
+  </si>
+  <si>
+    <t>nrna_142</t>
+  </si>
+  <si>
+    <t>2021_142</t>
+  </si>
+  <si>
+    <t>2021_pr_142</t>
+  </si>
+  <si>
+    <t>2021_su_142</t>
+  </si>
+  <si>
+    <t>nrna_143</t>
+  </si>
+  <si>
+    <t>2021_143</t>
+  </si>
+  <si>
+    <t>2021_pr_143</t>
+  </si>
+  <si>
+    <t>2021_su_143</t>
+  </si>
+  <si>
+    <t>nrna_144</t>
+  </si>
+  <si>
+    <t>2021_144</t>
+  </si>
+  <si>
+    <t>2021_pr_144</t>
+  </si>
+  <si>
+    <t>2021_su_144</t>
   </si>
 </sst>
 </file>
@@ -948,7 +2920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1063,6 +3035,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1108,11 +3095,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4472,11 +6460,14 @@
           <cell r="B145" t="str">
             <v>nrna_144</v>
           </cell>
+          <cell r="C145" t="str">
+            <v>Sandip Chhetri</v>
+          </cell>
           <cell r="D145" t="str">
             <v>test144@test.de</v>
           </cell>
           <cell r="E145" t="str">
-            <v>Oceania</v>
+            <v>Americas</v>
           </cell>
           <cell r="F145">
             <v>12345709</v>
@@ -5695,11 +7686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5731,7 +7721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5758,7 +7748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5786,7 +7776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="4">A3+1</f>
         <v>3</v>
@@ -5814,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5842,7 +7832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5870,7 +7860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5898,7 +7888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5926,7 +7916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5954,7 +7944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -5982,7 +7972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6010,7 +8000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6038,7 +8028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6178,7 +8168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -6206,7 +8196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -6234,7 +8224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -6262,7 +8252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -6290,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -6318,7 +8308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -6346,7 +8336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -6374,7 +8364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -6402,7 +8392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -6430,7 +8420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -6458,7 +8448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -6486,7 +8476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -6514,7 +8504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -6542,7 +8532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -6570,7 +8560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -6598,7 +8588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -6626,7 +8616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -6654,7 +8644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -6682,7 +8672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -6710,7 +8700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -6738,7 +8728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -6766,7 +8756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -6794,7 +8784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -6822,7 +8812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -6850,7 +8840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -6878,7 +8868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -6906,7 +8896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -6934,7 +8924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -6962,7 +8952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -6990,7 +8980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -7018,7 +9008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -7046,7 +9036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -7074,7 +9064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -7102,7 +9092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -7130,7 +9120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -7158,7 +9148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -7186,7 +9176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -7214,7 +9204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -7242,7 +9232,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -7270,7 +9260,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -7298,7 +9288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -7326,7 +9316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -7354,7 +9344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -7382,7 +9372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -7410,7 +9400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -7438,7 +9428,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -7466,7 +9456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -7494,7 +9484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -7522,7 +9512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -7550,7 +9540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -7578,7 +9568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A132" si="9">A67+1</f>
         <v>67</v>
@@ -7606,7 +9596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -7634,7 +9624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -7662,7 +9652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -7690,7 +9680,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -7718,7 +9708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -7746,7 +9736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -7768,13 +9758,13 @@
         <v>2021_su_73</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -7802,7 +9792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -7830,7 +9820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -7858,7 +9848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -7886,7 +9876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -7914,7 +9904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -7942,7 +9932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -7970,7 +9960,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="9"/>
         <v>81</v>
@@ -7998,7 +9988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -8026,7 +10016,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -8054,7 +10044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -8082,7 +10072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -8110,7 +10100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -8138,7 +10128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="9"/>
         <v>87</v>
@@ -8166,7 +10156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -8194,7 +10184,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -8222,7 +10212,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -8250,7 +10240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -8278,7 +10268,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -8306,7 +10296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -8334,7 +10324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -8362,7 +10352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -8390,7 +10380,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -8418,7 +10408,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -8446,7 +10436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -8474,7 +10464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -8502,7 +10492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -8530,7 +10520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="9"/>
         <v>101</v>
@@ -8558,7 +10548,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="9"/>
         <v>102</v>
@@ -8586,7 +10576,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="9"/>
         <v>103</v>
@@ -8614,7 +10604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="9"/>
         <v>104</v>
@@ -8642,7 +10632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="9"/>
         <v>105</v>
@@ -8670,7 +10660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="9"/>
         <v>106</v>
@@ -8698,7 +10688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="9"/>
         <v>107</v>
@@ -8726,7 +10716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="9"/>
         <v>108</v>
@@ -8754,7 +10744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="9"/>
         <v>109</v>
@@ -8776,13 +10766,13 @@
         <v>2021_su_109</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G110" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="9"/>
         <v>110</v>
@@ -8810,7 +10800,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="9"/>
         <v>111</v>
@@ -8866,7 +10856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="9"/>
         <v>113</v>
@@ -8894,7 +10884,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="9"/>
         <v>114</v>
@@ -8922,7 +10912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="9"/>
         <v>115</v>
@@ -8950,7 +10940,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="9"/>
         <v>116</v>
@@ -8978,7 +10968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="9"/>
         <v>117</v>
@@ -9006,7 +10996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="9"/>
         <v>118</v>
@@ -9034,7 +11024,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="9"/>
         <v>119</v>
@@ -9062,7 +11052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="9"/>
         <v>120</v>
@@ -9090,7 +11080,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="9"/>
         <v>121</v>
@@ -9118,7 +11108,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="9"/>
         <v>122</v>
@@ -9146,7 +11136,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="9"/>
         <v>123</v>
@@ -9174,7 +11164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="9"/>
         <v>124</v>
@@ -9202,7 +11192,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="9"/>
         <v>125</v>
@@ -9230,7 +11220,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="9"/>
         <v>126</v>
@@ -9258,7 +11248,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="9"/>
         <v>127</v>
@@ -9286,7 +11276,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="9"/>
         <v>128</v>
@@ -9314,7 +11304,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="9"/>
         <v>129</v>
@@ -9342,7 +11332,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="9"/>
         <v>130</v>
@@ -9370,25 +11360,25 @@
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B144" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="B132:B145" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>nrna_131</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C144" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="C132:C145" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_131</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D144" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="D132:D145" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_pr_131</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E144" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="E132:E145" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_su_131</v>
       </c>
       <c r="F132" t="s">
@@ -9398,9 +11388,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A144" si="14">A132+1</f>
+        <f t="shared" ref="A133:A145" si="14">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -9426,7 +11416,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="14"/>
         <v>133</v>
@@ -9454,7 +11444,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="14"/>
         <v>134</v>
@@ -9482,7 +11472,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="14"/>
         <v>135</v>
@@ -9510,7 +11500,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="14"/>
         <v>136</v>
@@ -9538,7 +11528,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="14"/>
         <v>137</v>
@@ -9566,7 +11556,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="14"/>
         <v>138</v>
@@ -9594,7 +11584,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="14"/>
         <v>139</v>
@@ -9622,7 +11612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="14"/>
         <v>140</v>
@@ -9650,7 +11640,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="14"/>
         <v>141</v>
@@ -9678,7 +11668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="14"/>
         <v>142</v>
@@ -9706,7 +11696,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="14"/>
         <v>143</v>
@@ -9734,14 +11724,36 @@
         <v>191</v>
       </c>
     </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_144</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_144</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_144</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_144</v>
+      </c>
+      <c r="F145" t="s">
+        <v>45</v>
+      </c>
+      <c r="G145" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G144">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2021_42"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G144"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9751,23 +11763,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G56" sqref="A1:K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -13140,11 +15152,11 @@
       </c>
       <c r="F74" t="str">
         <f>global_candidacy!F74</f>
-        <v>2021_13</v>
+        <v>2021_04</v>
       </c>
       <c r="G74" t="str">
         <f>VLOOKUP(F74,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Coordinator Europe</v>
+        <v>Youth Vice President</v>
       </c>
       <c r="H74" t="str">
         <f>global_candidacy!G74</f>
@@ -13156,11 +15168,11 @@
       </c>
       <c r="J74" s="1">
         <f>VLOOKUP($F74,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
         <f>VLOOKUP($F74,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Europe</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -13214,9 +15226,9 @@
         <f>global_candidacy!B76</f>
         <v>nrna_75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="str">
         <f>VLOOKUP($A76,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C76" t="str">
         <f>global_candidacy!C76</f>
@@ -13260,9 +15272,9 @@
         <f>global_candidacy!B77</f>
         <v>nrna_76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="str">
         <f>VLOOKUP($A77,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C77" t="str">
         <f>global_candidacy!C77</f>
@@ -13306,9 +15318,9 @@
         <f>global_candidacy!B78</f>
         <v>nrna_77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="str">
         <f>VLOOKUP($A78,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C78" t="str">
         <f>global_candidacy!C78</f>
@@ -13352,9 +15364,9 @@
         <f>global_candidacy!B79</f>
         <v>nrna_78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="str">
         <f>VLOOKUP($A79,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C79" t="str">
         <f>global_candidacy!C79</f>
@@ -13398,9 +15410,9 @@
         <f>global_candidacy!B80</f>
         <v>nrna_79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="str">
         <f>VLOOKUP($A80,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C80" t="str">
         <f>global_candidacy!C80</f>
@@ -13444,9 +15456,9 @@
         <f>global_candidacy!B81</f>
         <v>nrna_80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="str">
         <f>VLOOKUP($A81,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C81" t="str">
         <f>global_candidacy!C81</f>
@@ -13490,9 +15502,9 @@
         <f>global_candidacy!B82</f>
         <v>nrna_81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="str">
         <f>VLOOKUP($A82,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C82" t="str">
         <f>global_candidacy!C82</f>
@@ -13536,9 +15548,9 @@
         <f>global_candidacy!B83</f>
         <v>nrna_82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="str">
         <f>VLOOKUP($A83,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C83" t="str">
         <f>global_candidacy!C83</f>
@@ -13582,9 +15594,9 @@
         <f>global_candidacy!B84</f>
         <v>nrna_83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="str">
         <f>VLOOKUP($A84,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C84" t="str">
         <f>global_candidacy!C84</f>
@@ -13628,9 +15640,9 @@
         <f>global_candidacy!B85</f>
         <v>nrna_84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="str">
         <f>VLOOKUP($A85,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C85" t="str">
         <f>global_candidacy!C85</f>
@@ -13674,9 +15686,9 @@
         <f>global_candidacy!B86</f>
         <v>nrna_85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="str">
         <f>VLOOKUP($A86,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C86" t="str">
         <f>global_candidacy!C86</f>
@@ -13720,9 +15732,9 @@
         <f>global_candidacy!B87</f>
         <v>nrna_86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="str">
         <f>VLOOKUP($A87,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C87" t="str">
         <f>global_candidacy!C87</f>
@@ -13766,9 +15778,9 @@
         <f>global_candidacy!B88</f>
         <v>nrna_87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="str">
         <f>VLOOKUP($A88,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C88" t="str">
         <f>global_candidacy!C88</f>
@@ -13812,9 +15824,9 @@
         <f>global_candidacy!B89</f>
         <v>nrna_88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="str">
         <f>VLOOKUP($A89,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C89" t="str">
         <f>global_candidacy!C89</f>
@@ -13858,9 +15870,9 @@
         <f>global_candidacy!B90</f>
         <v>nrna_89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="str">
         <f>VLOOKUP($A90,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C90" t="str">
         <f>global_candidacy!C90</f>
@@ -13904,9 +15916,9 @@
         <f>global_candidacy!B91</f>
         <v>nrna_90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="str">
         <f>VLOOKUP($A91,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C91" t="str">
         <f>global_candidacy!C91</f>
@@ -13950,9 +15962,9 @@
         <f>global_candidacy!B92</f>
         <v>nrna_91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="str">
         <f>VLOOKUP($A92,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C92" t="str">
         <f>global_candidacy!C92</f>
@@ -13996,9 +16008,9 @@
         <f>global_candidacy!B93</f>
         <v>nrna_92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="str">
         <f>VLOOKUP($A93,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C93" t="str">
         <f>global_candidacy!C93</f>
@@ -14042,9 +16054,9 @@
         <f>global_candidacy!B94</f>
         <v>nrna_93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="str">
         <f>VLOOKUP($A94,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C94" t="str">
         <f>global_candidacy!C94</f>
@@ -14088,9 +16100,9 @@
         <f>global_candidacy!B95</f>
         <v>nrna_94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="str">
         <f>VLOOKUP($A95,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C95" t="str">
         <f>global_candidacy!C95</f>
@@ -14134,9 +16146,9 @@
         <f>global_candidacy!B96</f>
         <v>nrna_95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="str">
         <f>VLOOKUP($A96,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C96" t="str">
         <f>global_candidacy!C96</f>
@@ -14180,9 +16192,9 @@
         <f>global_candidacy!B97</f>
         <v>nrna_96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="str">
         <f>VLOOKUP($A97,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C97" t="str">
         <f>global_candidacy!C97</f>
@@ -14226,9 +16238,9 @@
         <f>global_candidacy!B98</f>
         <v>nrna_97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="str">
         <f>VLOOKUP($A98,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C98" t="str">
         <f>global_candidacy!C98</f>
@@ -14272,9 +16284,9 @@
         <f>global_candidacy!B99</f>
         <v>nrna_98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="str">
         <f>VLOOKUP($A99,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C99" t="str">
         <f>global_candidacy!C99</f>
@@ -14318,9 +16330,9 @@
         <f>global_candidacy!B100</f>
         <v>nrna_99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="str">
         <f>VLOOKUP($A100,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>0</v>
+        <v>Sandip Chhetri</v>
       </c>
       <c r="C100" t="str">
         <f>global_candidacy!C100</f>
@@ -14796,11 +16808,11 @@
       </c>
       <c r="F110" t="str">
         <f>global_candidacy!F110</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G110" t="str">
         <f>VLOOKUP(F110,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H110" t="str">
         <f>global_candidacy!G110</f>
@@ -14812,11 +16824,11 @@
       </c>
       <c r="J110" s="1">
         <f>VLOOKUP($F110,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1" t="str">
         <f>VLOOKUP($F110,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -16384,49 +18396,49 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" t="str">
         <f>global_candidacy!B145</f>
-        <v>0</v>
-      </c>
-      <c r="B145" t="e">
+        <v>nrna_144</v>
+      </c>
+      <c r="B145" t="str">
         <f>VLOOKUP($A145,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C145">
+        <v>Biratnagar City</v>
+      </c>
+      <c r="C145" t="str">
         <f>global_candidacy!C145</f>
-        <v>0</v>
-      </c>
-      <c r="D145">
+        <v>2021_144</v>
+      </c>
+      <c r="D145" t="str">
         <f>global_candidacy!D145</f>
-        <v>0</v>
-      </c>
-      <c r="E145">
+        <v>2021_pr_144</v>
+      </c>
+      <c r="E145" t="str">
         <f>global_candidacy!E145</f>
-        <v>0</v>
-      </c>
-      <c r="F145">
+        <v>2021_su_144</v>
+      </c>
+      <c r="F145" t="str">
         <f>global_candidacy!F145</f>
-        <v>0</v>
-      </c>
-      <c r="G145" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G145" t="str">
         <f>VLOOKUP(F145,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H145">
+        <v>Treasurer</v>
+      </c>
+      <c r="H145" t="str">
         <f>global_candidacy!G145</f>
-        <v>0</v>
-      </c>
-      <c r="I145" s="1" t="e">
+        <v>sandip_chhetri.jpg</v>
+      </c>
+      <c r="I145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J145" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K145" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -20264,5 +22276,5127 @@
   </sheetData>
   <autoFilter ref="A1:K229"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I104" s="2">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" s="2">
+        <v>3</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I112" s="2">
+        <v>3</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I117" s="2">
+        <v>2</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I118" s="2">
+        <v>2</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I139" s="2">
+        <v>1</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I142" s="2">
+        <v>1</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I145" s="2">
+        <v>1</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:K229">
+    <sortCondition ref="F2:F229"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="global_candidacy" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="857">
   <si>
     <t>user_id</t>
   </si>
@@ -2597,6 +2597,9 @@
   </si>
   <si>
     <t>2021_su_144</t>
+  </si>
+  <si>
+    <t>gautama-buddha.jpg</t>
   </si>
 </sst>
 </file>
@@ -6479,6 +6482,29 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>nrna_145</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>Gautam Buddha</v>
+          </cell>
+          <cell r="D146" t="str">
+            <v>test145@test.de</v>
+          </cell>
+          <cell r="E146" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F146">
+            <v>12345710</v>
+          </cell>
+          <cell r="G146" t="str">
+            <v>nrna_145</v>
+          </cell>
+          <cell r="H146">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -7686,10 +7712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11366,19 +11392,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B145" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="B132:B146" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>nrna_131</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C145" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="C132:C146" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_131</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D145" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="D132:D146" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_pr_131</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E145" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="E132:E146" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_su_131</v>
       </c>
       <c r="F132" t="s">
@@ -11390,7 +11416,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A145" si="14">A132+1</f>
+        <f t="shared" ref="A133:A146" si="14">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -11750,6 +11776,34 @@
       </c>
       <c r="G145" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_145</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_145</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_145</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_145</v>
+      </c>
+      <c r="F146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -15228,7 +15282,7 @@
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP($A76,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C76" t="str">
         <f>global_candidacy!C76</f>
@@ -15274,7 +15328,7 @@
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP($A77,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C77" t="str">
         <f>global_candidacy!C77</f>
@@ -15320,7 +15374,7 @@
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP($A78,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C78" t="str">
         <f>global_candidacy!C78</f>
@@ -15366,7 +15420,7 @@
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP($A79,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C79" t="str">
         <f>global_candidacy!C79</f>
@@ -15412,7 +15466,7 @@
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP($A80,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C80" t="str">
         <f>global_candidacy!C80</f>
@@ -15458,7 +15512,7 @@
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP($A81,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C81" t="str">
         <f>global_candidacy!C81</f>
@@ -15504,7 +15558,7 @@
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP($A82,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C82" t="str">
         <f>global_candidacy!C82</f>
@@ -15550,7 +15604,7 @@
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP($A83,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C83" t="str">
         <f>global_candidacy!C83</f>
@@ -15596,7 +15650,7 @@
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP($A84,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C84" t="str">
         <f>global_candidacy!C84</f>
@@ -15642,7 +15696,7 @@
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP($A85,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C85" t="str">
         <f>global_candidacy!C85</f>
@@ -15688,7 +15742,7 @@
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP($A86,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C86" t="str">
         <f>global_candidacy!C86</f>
@@ -15734,7 +15788,7 @@
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP($A87,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C87" t="str">
         <f>global_candidacy!C87</f>
@@ -15780,7 +15834,7 @@
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP($A88,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C88" t="str">
         <f>global_candidacy!C88</f>
@@ -15826,7 +15880,7 @@
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP($A89,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C89" t="str">
         <f>global_candidacy!C89</f>
@@ -15872,7 +15926,7 @@
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP($A90,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C90" t="str">
         <f>global_candidacy!C90</f>
@@ -15918,7 +15972,7 @@
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP($A91,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C91" t="str">
         <f>global_candidacy!C91</f>
@@ -15964,7 +16018,7 @@
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP($A92,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C92" t="str">
         <f>global_candidacy!C92</f>
@@ -16010,7 +16064,7 @@
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP($A93,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C93" t="str">
         <f>global_candidacy!C93</f>
@@ -16056,7 +16110,7 @@
       </c>
       <c r="B94" t="str">
         <f>VLOOKUP($A94,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C94" t="str">
         <f>global_candidacy!C94</f>
@@ -16102,7 +16156,7 @@
       </c>
       <c r="B95" t="str">
         <f>VLOOKUP($A95,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C95" t="str">
         <f>global_candidacy!C95</f>
@@ -16148,7 +16202,7 @@
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP($A96,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C96" t="str">
         <f>global_candidacy!C96</f>
@@ -16194,7 +16248,7 @@
       </c>
       <c r="B97" t="str">
         <f>VLOOKUP($A97,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C97" t="str">
         <f>global_candidacy!C97</f>
@@ -16240,7 +16294,7 @@
       </c>
       <c r="B98" t="str">
         <f>VLOOKUP($A98,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C98" t="str">
         <f>global_candidacy!C98</f>
@@ -16286,7 +16340,7 @@
       </c>
       <c r="B99" t="str">
         <f>VLOOKUP($A99,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C99" t="str">
         <f>global_candidacy!C99</f>
@@ -16332,7 +16386,7 @@
       </c>
       <c r="B100" t="str">
         <f>VLOOKUP($A100,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sandip Chhetri</v>
+        <v>Gautam Buddha</v>
       </c>
       <c r="C100" t="str">
         <f>global_candidacy!C100</f>
@@ -18442,49 +18496,49 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" t="str">
         <f>global_candidacy!B146</f>
-        <v>0</v>
-      </c>
-      <c r="B146" t="e">
+        <v>nrna_145</v>
+      </c>
+      <c r="B146" t="str">
         <f>VLOOKUP($A146,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C146">
+        <v>Biratnagar City</v>
+      </c>
+      <c r="C146" t="str">
         <f>global_candidacy!C146</f>
-        <v>0</v>
-      </c>
-      <c r="D146">
+        <v>2021_145</v>
+      </c>
+      <c r="D146" t="str">
         <f>global_candidacy!D146</f>
-        <v>0</v>
-      </c>
-      <c r="E146">
+        <v>2021_pr_145</v>
+      </c>
+      <c r="E146" t="str">
         <f>global_candidacy!E146</f>
-        <v>0</v>
-      </c>
-      <c r="F146">
+        <v>2021_su_145</v>
+      </c>
+      <c r="F146" t="str">
         <f>global_candidacy!F146</f>
-        <v>0</v>
-      </c>
-      <c r="G146" t="e">
+        <v>2021_01</v>
+      </c>
+      <c r="G146" t="str">
         <f>VLOOKUP(F146,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H146">
+        <v>President</v>
+      </c>
+      <c r="H146" t="str">
         <f>global_candidacy!G146</f>
-        <v>0</v>
-      </c>
-      <c r="I146" s="1" t="e">
+        <v>gautama-buddha.jpg</v>
+      </c>
+      <c r="I146" s="1">
         <f>VLOOKUP($F146,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J146" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1">
         <f>VLOOKUP($F146,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K146" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
         <f>VLOOKUP($F146,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -22284,7 +22338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -21,7 +21,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">uebersicht!$A$1:$K$229</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="883">
   <si>
     <t>user_id</t>
   </si>
@@ -2600,6 +2600,84 @@
   </si>
   <si>
     <t>gautama-buddha.jpg</t>
+  </si>
+  <si>
+    <t>sita_janaki.jpg</t>
+  </si>
+  <si>
+    <t>nirmal_purja.jpg</t>
+  </si>
+  <si>
+    <t>prabal_gurung.png</t>
+  </si>
+  <si>
+    <t>ram_baran_yadav.jpg</t>
+  </si>
+  <si>
+    <t>mukesh_kayastha.jpg</t>
+  </si>
+  <si>
+    <t>bal_krishna_acharya.jpg</t>
+  </si>
+  <si>
+    <t>mt-lhotse.jpg</t>
+  </si>
+  <si>
+    <t>mt_makalu.jpg</t>
+  </si>
+  <si>
+    <t>foksundo_lake.jpeg</t>
+  </si>
+  <si>
+    <t>dhurmus_suntali_foundation.jpg</t>
+  </si>
+  <si>
+    <t>binod_chaudhary.jpg</t>
+  </si>
+  <si>
+    <t>anil_keshari_shah.jpg</t>
+  </si>
+  <si>
+    <t>kul_man_ghising.jpg</t>
+  </si>
+  <si>
+    <t>ram_kuamri_jhakri.jpg</t>
+  </si>
+  <si>
+    <t>Yogesh-Bhattarai.jpg</t>
+  </si>
+  <si>
+    <t>gagan_thapa.jpg</t>
+  </si>
+  <si>
+    <t>sandeep-lamichhane.jpg</t>
+  </si>
+  <si>
+    <t>province_01.jpg</t>
+  </si>
+  <si>
+    <t>province_02.jpg</t>
+  </si>
+  <si>
+    <t>province_03.png</t>
+  </si>
+  <si>
+    <t>province_04.jpg</t>
+  </si>
+  <si>
+    <t>province_05.jpg</t>
+  </si>
+  <si>
+    <t>province_06.jpg</t>
+  </si>
+  <si>
+    <t>province_07.jpg</t>
+  </si>
+  <si>
+    <t>barsha_man_pun.jpeg</t>
+  </si>
+  <si>
+    <t>ambica_shrestha.jpg</t>
   </si>
 </sst>
 </file>
@@ -3175,7 +3253,7 @@
             <v>nrna_01</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Mt. Everest (Sagarmatha)</v>
+            <v>Mt. Everest (8848.86 M)</v>
           </cell>
           <cell r="D2" t="str">
             <v>test1@test.de</v>
@@ -3198,7 +3276,7 @@
             <v>nrna_02</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Mt. Kanchenjunga</v>
+            <v>Mt. Kanchenjunga (8586M)</v>
           </cell>
           <cell r="D3" t="str">
             <v>test2@test.de</v>
@@ -4210,7 +4288,7 @@
             <v>nrna_46</v>
           </cell>
           <cell r="C47" t="str">
-            <v>Himani Shaha</v>
+            <v xml:space="preserve">Himani Shaha </v>
           </cell>
           <cell r="D47" t="str">
             <v>test46@test.de</v>
@@ -6502,6 +6580,604 @@
             <v>nrna_145</v>
           </cell>
           <cell r="H146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>nrna_146</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>Princes Janaki (Sita)</v>
+          </cell>
+          <cell r="D147" t="str">
+            <v>test146@test.de</v>
+          </cell>
+          <cell r="E147" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F147">
+            <v>12345710</v>
+          </cell>
+          <cell r="G147" t="str">
+            <v>nrna_146</v>
+          </cell>
+          <cell r="H147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>nrna_147</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>Nirmal Purja</v>
+          </cell>
+          <cell r="D148" t="str">
+            <v>test147@test.de</v>
+          </cell>
+          <cell r="E148" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F148">
+            <v>12345710</v>
+          </cell>
+          <cell r="G148" t="str">
+            <v>nrna_147</v>
+          </cell>
+          <cell r="H148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>nrna_148</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>Prabal Gurung</v>
+          </cell>
+          <cell r="D149" t="str">
+            <v>test148@test.de</v>
+          </cell>
+          <cell r="E149" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F149">
+            <v>12345710</v>
+          </cell>
+          <cell r="G149" t="str">
+            <v>nrna_148</v>
+          </cell>
+          <cell r="H149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>nrna_149</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>Dr. Ram Baran Yadav</v>
+          </cell>
+          <cell r="D150" t="str">
+            <v>test149@test.de</v>
+          </cell>
+          <cell r="E150" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F150">
+            <v>12345710</v>
+          </cell>
+          <cell r="G150" t="str">
+            <v>nrna_149</v>
+          </cell>
+          <cell r="H150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>nrna_150</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>Mukesh Kayastha (living Marytr of Nepal)</v>
+          </cell>
+          <cell r="D151" t="str">
+            <v>test150@test.de</v>
+          </cell>
+          <cell r="E151" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F151">
+            <v>12345710</v>
+          </cell>
+          <cell r="G151" t="str">
+            <v>nrna_150</v>
+          </cell>
+          <cell r="H151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>nrna_151</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>Bal Krishna Acharya</v>
+          </cell>
+          <cell r="D152" t="str">
+            <v>test151@test.de</v>
+          </cell>
+          <cell r="E152" t="str">
+            <v>Europe</v>
+          </cell>
+          <cell r="F152">
+            <v>12345710</v>
+          </cell>
+          <cell r="G152" t="str">
+            <v>nrna_151</v>
+          </cell>
+          <cell r="H152">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>nrna_152</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>MT. LHOTSE (8516 M)</v>
+          </cell>
+          <cell r="D153" t="str">
+            <v>test152@test.de</v>
+          </cell>
+          <cell r="E153" t="str">
+            <v>Europe</v>
+          </cell>
+          <cell r="F153">
+            <v>12345711</v>
+          </cell>
+          <cell r="G153" t="str">
+            <v>nrna_152</v>
+          </cell>
+          <cell r="H153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>nrna_153</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>MT.  Makalu (8463 M)</v>
+          </cell>
+          <cell r="D154" t="str">
+            <v>test153@test.de</v>
+          </cell>
+          <cell r="E154" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F154">
+            <v>12345711</v>
+          </cell>
+          <cell r="G154" t="str">
+            <v>nrna_153</v>
+          </cell>
+          <cell r="H154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>nrna_154</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>Phoksundo Lake</v>
+          </cell>
+          <cell r="D155" t="str">
+            <v>test154@test.de</v>
+          </cell>
+          <cell r="E155" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F155">
+            <v>12345712</v>
+          </cell>
+          <cell r="G155" t="str">
+            <v>nrna_154</v>
+          </cell>
+          <cell r="H155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>nrna_155</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>Dhurmus Suntali Foundation</v>
+          </cell>
+          <cell r="D156" t="str">
+            <v>test155@test.de</v>
+          </cell>
+          <cell r="E156" t="str">
+            <v>Europe</v>
+          </cell>
+          <cell r="F156">
+            <v>12345712</v>
+          </cell>
+          <cell r="G156" t="str">
+            <v>nrna_155</v>
+          </cell>
+          <cell r="H156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>nrna_156</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>Binod Chaudhary</v>
+          </cell>
+          <cell r="D157" t="str">
+            <v>test156@test.de</v>
+          </cell>
+          <cell r="E157" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F157">
+            <v>12345712</v>
+          </cell>
+          <cell r="G157" t="str">
+            <v>nrna_156</v>
+          </cell>
+          <cell r="H157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>nrna_157</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>Anil Keshari Shah</v>
+          </cell>
+          <cell r="D158" t="str">
+            <v>test157@test.de</v>
+          </cell>
+          <cell r="E158" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F158">
+            <v>12345712</v>
+          </cell>
+          <cell r="G158" t="str">
+            <v>nrna_157</v>
+          </cell>
+          <cell r="H158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>nrna_158</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v xml:space="preserve">Kulman Ghising </v>
+          </cell>
+          <cell r="D159" t="str">
+            <v>test158@test.de</v>
+          </cell>
+          <cell r="E159" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F159">
+            <v>12345712</v>
+          </cell>
+          <cell r="G159" t="str">
+            <v>nrna_158</v>
+          </cell>
+          <cell r="H159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>nrna_159</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>Ram Kumari Jhakri</v>
+          </cell>
+          <cell r="D160" t="str">
+            <v>test159@test.de</v>
+          </cell>
+          <cell r="E160" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F160">
+            <v>12345712</v>
+          </cell>
+          <cell r="G160" t="str">
+            <v>nrna_159</v>
+          </cell>
+          <cell r="H160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>nrna_160</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>Yogesh Kumar Bhattarai</v>
+          </cell>
+          <cell r="D161" t="str">
+            <v>test160@test.de</v>
+          </cell>
+          <cell r="E161" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F161">
+            <v>12345712</v>
+          </cell>
+          <cell r="G161" t="str">
+            <v>nrna_160</v>
+          </cell>
+          <cell r="H161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>nrna_161</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>Gangan Kumar Thapa</v>
+          </cell>
+          <cell r="D162" t="str">
+            <v>test161@test.de</v>
+          </cell>
+          <cell r="E162" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F162">
+            <v>12345712</v>
+          </cell>
+          <cell r="G162" t="str">
+            <v>nrna_161</v>
+          </cell>
+          <cell r="H162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>nrna_162</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>Sandeep Lamichhane</v>
+          </cell>
+          <cell r="D163" t="str">
+            <v>test162@test.de</v>
+          </cell>
+          <cell r="E163" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F163">
+            <v>12345712</v>
+          </cell>
+          <cell r="G163" t="str">
+            <v>nrna_162</v>
+          </cell>
+          <cell r="H163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>nrna_163</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v xml:space="preserve">Pradesh 1 </v>
+          </cell>
+          <cell r="D164" t="str">
+            <v>test163@test.de</v>
+          </cell>
+          <cell r="E164" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F164">
+            <v>12345713</v>
+          </cell>
+          <cell r="G164" t="str">
+            <v>nrna_163</v>
+          </cell>
+          <cell r="H164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>nrna_164</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>Pradesh 2</v>
+          </cell>
+          <cell r="D165" t="str">
+            <v>test164@test.de</v>
+          </cell>
+          <cell r="E165" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F165">
+            <v>12345714</v>
+          </cell>
+          <cell r="G165" t="str">
+            <v>nrna_164</v>
+          </cell>
+          <cell r="H165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>nrna_165</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>Pradesh 3</v>
+          </cell>
+          <cell r="D166" t="str">
+            <v>test165@test.de</v>
+          </cell>
+          <cell r="E166" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F166">
+            <v>12345715</v>
+          </cell>
+          <cell r="G166" t="str">
+            <v>nrna_165</v>
+          </cell>
+          <cell r="H166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>nrna_166</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>Pradesh 4</v>
+          </cell>
+          <cell r="D167" t="str">
+            <v>test166@test.de</v>
+          </cell>
+          <cell r="E167" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F167">
+            <v>12345716</v>
+          </cell>
+          <cell r="G167" t="str">
+            <v>nrna_166</v>
+          </cell>
+          <cell r="H167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>nrna_167</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>Pradesh 5</v>
+          </cell>
+          <cell r="D168" t="str">
+            <v>test167@test.de</v>
+          </cell>
+          <cell r="E168" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F168">
+            <v>12345717</v>
+          </cell>
+          <cell r="G168" t="str">
+            <v>nrna_167</v>
+          </cell>
+          <cell r="H168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>nrna_168</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>Pradesh 6</v>
+          </cell>
+          <cell r="D169" t="str">
+            <v>test168@test.de</v>
+          </cell>
+          <cell r="E169" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F169">
+            <v>12345718</v>
+          </cell>
+          <cell r="G169" t="str">
+            <v>nrna_168</v>
+          </cell>
+          <cell r="H169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>nrna_169</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>Pradesh 7</v>
+          </cell>
+          <cell r="D170" t="str">
+            <v>test169@test.de</v>
+          </cell>
+          <cell r="E170" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F170">
+            <v>12345719</v>
+          </cell>
+          <cell r="G170" t="str">
+            <v>nrna_169</v>
+          </cell>
+          <cell r="H170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>nrna_170</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>Barsha Man Pun</v>
+          </cell>
+          <cell r="D171" t="str">
+            <v>test170@test.de</v>
+          </cell>
+          <cell r="E171" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F171">
+            <v>12345719</v>
+          </cell>
+          <cell r="G171" t="str">
+            <v>nrna_170</v>
+          </cell>
+          <cell r="H171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>nrna_171</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>Ambika Shrestha</v>
+          </cell>
+          <cell r="D172" t="str">
+            <v>test171@test.de</v>
+          </cell>
+          <cell r="E172" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F172">
+            <v>12345719</v>
+          </cell>
+          <cell r="G172" t="str">
+            <v>nrna_171</v>
+          </cell>
+          <cell r="H172">
             <v>0</v>
           </cell>
         </row>
@@ -6547,7 +7223,7 @@
             <v>-</v>
           </cell>
           <cell r="E3">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="F3">
             <v>1</v>
@@ -7441,6 +8117,23 @@
           </cell>
           <cell r="G49" t="str">
             <v>Afria</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>2021_49</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Patron Council member</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="E50">
+            <v>7</v>
+          </cell>
+          <cell r="F50">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -7712,10 +8405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7768,7 +8461,7 @@
         <v>2021_su_01</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -7796,7 +8489,7 @@
         <v>2021_su_02</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -7824,7 +8517,7 @@
         <v>2021_su_03</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -7852,7 +8545,7 @@
         <v>2021_su_04</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -7880,7 +8573,7 @@
         <v>2021_su_05</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -7908,7 +8601,7 @@
         <v>2021_su_06</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -7936,7 +8629,7 @@
         <v>2021_su_07</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -7964,7 +8657,7 @@
         <v>2021_su_08</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -7992,7 +8685,7 @@
         <v>2021_su_09</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -8020,7 +8713,7 @@
         <v>2021_su_10</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -8048,7 +8741,7 @@
         <v>2021_su_11</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -8216,7 +8909,7 @@
         <v>2021_su_17</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -8244,7 +8937,7 @@
         <v>2021_su_18</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
@@ -8272,7 +8965,7 @@
         <v>2021_su_19</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -8300,7 +8993,7 @@
         <v>2021_su_20</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -8328,7 +9021,7 @@
         <v>2021_su_21</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -8356,7 +9049,7 @@
         <v>2021_su_22</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -8580,7 +9273,7 @@
         <v>2021_su_30</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -8608,7 +9301,7 @@
         <v>2021_su_31</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>57</v>
@@ -8636,7 +9329,7 @@
         <v>2021_su_32</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>43</v>
@@ -8664,7 +9357,7 @@
         <v>2021_su_33</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -8692,7 +9385,7 @@
         <v>2021_su_34</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -8720,7 +9413,7 @@
         <v>2021_su_35</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
         <v>50</v>
@@ -8748,7 +9441,7 @@
         <v>2021_su_36</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -8776,7 +9469,7 @@
         <v>2021_su_37</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -8804,7 +9497,7 @@
         <v>2021_su_38</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -8832,7 +9525,7 @@
         <v>2021_su_39</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
         <v>53</v>
@@ -8860,7 +9553,7 @@
         <v>2021_su_40</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G41" t="s">
         <v>54</v>
@@ -8888,7 +9581,7 @@
         <v>2021_su_41</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
         <v>55</v>
@@ -8916,7 +9609,7 @@
         <v>2021_su_42</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
         <v>56</v>
@@ -8972,7 +9665,7 @@
         <v>2021_su_44</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
         <v>59</v>
@@ -9000,7 +9693,7 @@
         <v>2021_su_45</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
         <v>61</v>
@@ -9028,7 +9721,7 @@
         <v>2021_su_46</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
         <v>62</v>
@@ -9056,7 +9749,7 @@
         <v>2021_su_47</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G48" t="s">
         <v>63</v>
@@ -9084,7 +9777,7 @@
         <v>2021_su_48</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G49" t="s">
         <v>64</v>
@@ -9112,7 +9805,7 @@
         <v>2021_su_49</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G50" t="s">
         <v>65</v>
@@ -9140,7 +9833,7 @@
         <v>2021_su_50</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G51" t="s">
         <v>66</v>
@@ -9168,7 +9861,7 @@
         <v>2021_su_51</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G52" t="s">
         <v>67</v>
@@ -9196,7 +9889,7 @@
         <v>2021_su_52</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G53" t="s">
         <v>68</v>
@@ -9224,7 +9917,7 @@
         <v>2021_su_53</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G54" t="s">
         <v>69</v>
@@ -9252,7 +9945,7 @@
         <v>2021_su_54</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
         <v>70</v>
@@ -9280,7 +9973,7 @@
         <v>2021_su_55</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
         <v>71</v>
@@ -9308,7 +10001,7 @@
         <v>2021_su_56</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
         <v>72</v>
@@ -9336,7 +10029,7 @@
         <v>2021_su_57</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
         <v>73</v>
@@ -9364,7 +10057,7 @@
         <v>2021_su_58</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
         <v>74</v>
@@ -9392,7 +10085,7 @@
         <v>2021_su_59</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>75</v>
@@ -9420,7 +10113,7 @@
         <v>2021_su_60</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G61" t="s">
         <v>76</v>
@@ -9448,7 +10141,7 @@
         <v>2021_su_61</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -9476,7 +10169,7 @@
         <v>2021_su_62</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G63" t="s">
         <v>78</v>
@@ -9504,7 +10197,7 @@
         <v>2021_su_63</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G64" t="s">
         <v>79</v>
@@ -9532,7 +10225,7 @@
         <v>2021_su_64</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
         <v>80</v>
@@ -9588,7 +10281,7 @@
         <v>2021_su_66</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
@@ -9616,7 +10309,7 @@
         <v>2021_su_67</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -9756,7 +10449,7 @@
         <v>2021_su_72</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s">
         <v>96</v>
@@ -9784,7 +10477,7 @@
         <v>2021_su_73</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -9896,7 +10589,7 @@
         <v>2021_su_77</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
         <v>101</v>
@@ -10008,7 +10701,7 @@
         <v>2021_su_81</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
         <v>108</v>
@@ -10064,7 +10757,7 @@
         <v>2021_su_83</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
         <v>110</v>
@@ -10092,7 +10785,7 @@
         <v>2021_su_84</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G85" t="s">
         <v>111</v>
@@ -10120,7 +10813,7 @@
         <v>2021_su_85</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
         <v>112</v>
@@ -10148,7 +10841,7 @@
         <v>2021_su_86</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
         <v>113</v>
@@ -10176,7 +10869,7 @@
         <v>2021_su_87</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G88" t="s">
         <v>114</v>
@@ -10428,7 +11121,7 @@
         <v>2021_su_96</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>118</v>
@@ -10652,7 +11345,7 @@
         <v>2021_su_104</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>126</v>
@@ -10680,7 +11373,7 @@
         <v>2021_su_105</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>127</v>
@@ -11016,7 +11709,7 @@
         <v>2021_su_117</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G118" t="s">
         <v>152</v>
@@ -11044,7 +11737,7 @@
         <v>2021_su_118</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G119" t="s">
         <v>154</v>
@@ -11128,7 +11821,7 @@
         <v>2021_su_121</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G122" t="s">
         <v>159</v>
@@ -11184,7 +11877,7 @@
         <v>2021_su_123</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G124" t="s">
         <v>161</v>
@@ -11352,7 +12045,7 @@
         <v>2021_su_129</v>
       </c>
       <c r="F130" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G130" t="s">
         <v>165</v>
@@ -11392,19 +12085,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B146" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="B132:B172" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>nrna_131</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C146" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="C132:C172" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_131</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D146" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="D132:D172" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_pr_131</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E146" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="E132:E172" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_su_131</v>
       </c>
       <c r="F132" t="s">
@@ -11416,7 +12109,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A146" si="14">A132+1</f>
+        <f t="shared" ref="A133:A172" si="14">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -11716,7 +12409,7 @@
         <v>2021_su_142</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="G143" t="s">
         <v>190</v>
@@ -11744,7 +12437,7 @@
         <v>2021_su_143</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G144" t="s">
         <v>191</v>
@@ -11772,7 +12465,7 @@
         <v>2021_su_144</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="G145" t="s">
         <v>199</v>
@@ -11806,8 +12499,736 @@
         <v>856</v>
       </c>
     </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_146</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_146</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_146</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_146</v>
+      </c>
+      <c r="F147" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="14"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_147</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_147</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_147</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_147</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_148</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_148</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_148</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_148</v>
+      </c>
+      <c r="F149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_149</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_149</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_149</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_149</v>
+      </c>
+      <c r="F150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_150</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_150</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_150</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_150</v>
+      </c>
+      <c r="F151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_151</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_151</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_151</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_151</v>
+      </c>
+      <c r="F152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_152</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_152</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_152</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_152</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_153</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_153</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_153</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_153</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_154</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_154</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_154</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_154</v>
+      </c>
+      <c r="F155" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="14"/>
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_155</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_155</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_155</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_155</v>
+      </c>
+      <c r="F156" t="s">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="14"/>
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_156</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_156</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_156</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_156</v>
+      </c>
+      <c r="F157" t="s">
+        <v>51</v>
+      </c>
+      <c r="G157" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_157</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_157</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_157</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_157</v>
+      </c>
+      <c r="F158" t="s">
+        <v>51</v>
+      </c>
+      <c r="G158" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_158</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_158</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_158</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_158</v>
+      </c>
+      <c r="F159" t="s">
+        <v>51</v>
+      </c>
+      <c r="G159" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="14"/>
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_159</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_159</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_159</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_159</v>
+      </c>
+      <c r="F160" t="s">
+        <v>81</v>
+      </c>
+      <c r="G160" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_160</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_160</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_160</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_160</v>
+      </c>
+      <c r="F161" t="s">
+        <v>81</v>
+      </c>
+      <c r="G161" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="14"/>
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_161</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_161</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_161</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_161</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+      <c r="G162" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_162</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_162</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_162</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_162</v>
+      </c>
+      <c r="F163" t="s">
+        <v>81</v>
+      </c>
+      <c r="G163" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_163</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_163</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_163</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_163</v>
+      </c>
+      <c r="F164" t="s">
+        <v>45</v>
+      </c>
+      <c r="G164" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_164</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_164</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_164</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_164</v>
+      </c>
+      <c r="F165" t="s">
+        <v>45</v>
+      </c>
+      <c r="G165" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_165</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_165</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_165</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_165</v>
+      </c>
+      <c r="F166" t="s">
+        <v>45</v>
+      </c>
+      <c r="G166" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="14"/>
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_166</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_166</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_166</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_166</v>
+      </c>
+      <c r="F167" t="s">
+        <v>45</v>
+      </c>
+      <c r="G167" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_167</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_167</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_167</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_167</v>
+      </c>
+      <c r="F168" t="s">
+        <v>45</v>
+      </c>
+      <c r="G168" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_168</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_168</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_168</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_168</v>
+      </c>
+      <c r="F169" t="s">
+        <v>45</v>
+      </c>
+      <c r="G169" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_169</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_169</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_169</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_169</v>
+      </c>
+      <c r="F170" t="s">
+        <v>45</v>
+      </c>
+      <c r="G170" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_170</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_170</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_170</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_170</v>
+      </c>
+      <c r="F171" t="s">
+        <v>81</v>
+      </c>
+      <c r="G171" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_171</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_171</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_171</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_171</v>
+      </c>
+      <c r="F172" t="s">
+        <v>189</v>
+      </c>
+      <c r="G172" t="s">
+        <v>882</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G144"/>
+  <autoFilter ref="A1:G172"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11817,8 +13238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G56" sqref="A1:K229"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11829,7 +13250,7 @@
     <col min="4" max="4" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
@@ -11878,7 +13299,7 @@
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP($A2,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Mt. Everest (Sagarmatha)</v>
+        <v>Mt. Everest (8848.86 M)</v>
       </c>
       <c r="C2" t="str">
         <f>global_candidacy!C2</f>
@@ -11894,11 +13315,11 @@
       </c>
       <c r="F2" t="str">
         <f>global_candidacy!F2</f>
-        <v>2021_01</v>
+        <v>2021_06</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(F2,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>President</v>
+        <v>Secretary</v>
       </c>
       <c r="H2" t="str">
         <f>global_candidacy!G2</f>
@@ -11906,7 +13327,7 @@
       </c>
       <c r="I2" s="1">
         <f>VLOOKUP($F2,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
         <f>VLOOKUP($F2,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -11924,7 +13345,7 @@
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP($A3,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Mt. Kanchenjunga</v>
+        <v>Mt. Kanchenjunga (8586M)</v>
       </c>
       <c r="C3" t="str">
         <f>global_candidacy!C3</f>
@@ -11940,11 +13361,11 @@
       </c>
       <c r="F3" t="str">
         <f>global_candidacy!F3</f>
-        <v>2021_02</v>
+        <v>2021_06</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(F3,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Vice President</v>
+        <v>Secretary</v>
       </c>
       <c r="H3" t="str">
         <f>global_candidacy!G3</f>
@@ -11952,7 +13373,7 @@
       </c>
       <c r="I3" s="1">
         <f>VLOOKUP($F3,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
         <f>VLOOKUP($F3,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -11986,11 +13407,11 @@
       </c>
       <c r="F4" t="str">
         <f>global_candidacy!F4</f>
-        <v>2021_03</v>
+        <v>2021_06</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(F4,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Vice President</v>
+        <v>Secretary</v>
       </c>
       <c r="H4" t="str">
         <f>global_candidacy!G4</f>
@@ -11998,7 +13419,7 @@
       </c>
       <c r="I4" s="1">
         <f>VLOOKUP($F4,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
         <f>VLOOKUP($F4,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -12032,11 +13453,11 @@
       </c>
       <c r="F5" t="str">
         <f>global_candidacy!F5</f>
-        <v>2021_05</v>
+        <v>2021_06</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(F5,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Secretary</v>
       </c>
       <c r="H5" t="str">
         <f>global_candidacy!G5</f>
@@ -12044,7 +13465,7 @@
       </c>
       <c r="I5" s="1">
         <f>VLOOKUP($F5,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
         <f>VLOOKUP($F5,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -12078,11 +13499,11 @@
       </c>
       <c r="F6" t="str">
         <f>global_candidacy!F6</f>
-        <v>2021_01</v>
+        <v>2021_48</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(F6,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H6" t="str">
         <f>global_candidacy!G6</f>
@@ -12094,11 +13515,11 @@
       </c>
       <c r="J6" s="1">
         <f>VLOOKUP($F6,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="str">
         <f>VLOOKUP($F6,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12124,11 +13545,11 @@
       </c>
       <c r="F7" t="str">
         <f>global_candidacy!F7</f>
-        <v>2021_02</v>
+        <v>2021_48</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(F7,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H7" t="str">
         <f>global_candidacy!G7</f>
@@ -12136,15 +13557,15 @@
       </c>
       <c r="I7" s="1">
         <f>VLOOKUP($F7,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <f>VLOOKUP($F7,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="str">
         <f>VLOOKUP($F7,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12170,11 +13591,11 @@
       </c>
       <c r="F8" t="str">
         <f>global_candidacy!F8</f>
-        <v>2021_03</v>
+        <v>2021_48</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(F8,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H8" t="str">
         <f>global_candidacy!G8</f>
@@ -12186,11 +13607,11 @@
       </c>
       <c r="J8" s="1">
         <f>VLOOKUP($F8,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="str">
         <f>VLOOKUP($F8,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12216,11 +13637,11 @@
       </c>
       <c r="F9" t="str">
         <f>global_candidacy!F9</f>
-        <v>2021_07</v>
+        <v>2021_48</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(F9,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H9" t="str">
         <f>global_candidacy!G9</f>
@@ -12232,11 +13653,11 @@
       </c>
       <c r="J9" s="1">
         <f>VLOOKUP($F9,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="str">
         <f>VLOOKUP($F9,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12262,11 +13683,11 @@
       </c>
       <c r="F10" t="str">
         <f>global_candidacy!F10</f>
-        <v>2021_10</v>
+        <v>2021_48</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(F10,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Women Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H10" t="str">
         <f>global_candidacy!G10</f>
@@ -12278,11 +13699,11 @@
       </c>
       <c r="J10" s="1">
         <f>VLOOKUP($F10,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="str">
         <f>VLOOKUP($F10,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12308,11 +13729,11 @@
       </c>
       <c r="F11" t="str">
         <f>global_candidacy!F11</f>
-        <v>2021_06</v>
+        <v>2021_48</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(F11,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H11" t="str">
         <f>global_candidacy!G11</f>
@@ -12320,15 +13741,15 @@
       </c>
       <c r="I11" s="1">
         <f>VLOOKUP($F11,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <f>VLOOKUP($F11,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="str">
         <f>VLOOKUP($F11,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12354,11 +13775,11 @@
       </c>
       <c r="F12" t="str">
         <f>global_candidacy!F12</f>
-        <v>2021_05</v>
+        <v>2021_48</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(F12,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H12" t="str">
         <f>global_candidacy!G12</f>
@@ -12370,11 +13791,11 @@
       </c>
       <c r="J12" s="1">
         <f>VLOOKUP($F12,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="str">
         <f>VLOOKUP($F12,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12522,7 +13943,7 @@
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP($A16,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Jomsom City</v>
+        <v>Dr. Ram Baran Yadav</v>
       </c>
       <c r="C16" t="str">
         <f>global_candidacy!C16</f>
@@ -12568,7 +13989,7 @@
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP($A17,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Lalitpur City</v>
+        <v>Ram Kumari Jhakri</v>
       </c>
       <c r="C17" t="str">
         <f>global_candidacy!C17</f>
@@ -12614,7 +14035,7 @@
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP($A18,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Chitwan National Park</v>
+        <v>Pradesh 7</v>
       </c>
       <c r="C18" t="str">
         <f>global_candidacy!C18</f>
@@ -12630,11 +14051,11 @@
       </c>
       <c r="F18" t="str">
         <f>global_candidacy!F18</f>
-        <v>2021_01</v>
+        <v>2021_48</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(F18,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H18" t="str">
         <f>global_candidacy!G18</f>
@@ -12646,11 +14067,11 @@
       </c>
       <c r="J18" s="1">
         <f>VLOOKUP($F18,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="str">
         <f>VLOOKUP($F18,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -12660,7 +14081,7 @@
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP($A19,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Khaptad National Park</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C19" t="str">
         <f>global_candidacy!C19</f>
@@ -12676,11 +14097,11 @@
       </c>
       <c r="F19" t="str">
         <f>global_candidacy!F19</f>
-        <v>2021_02</v>
+        <v>2021_48</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(F19,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H19" t="str">
         <f>global_candidacy!G19</f>
@@ -12688,15 +14109,15 @@
       </c>
       <c r="I19" s="1">
         <f>VLOOKUP($F19,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f>VLOOKUP($F19,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="str">
         <f>VLOOKUP($F19,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -12706,7 +14127,7 @@
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP($A20,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Bardiya National Park</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C20" t="str">
         <f>global_candidacy!C20</f>
@@ -12722,11 +14143,11 @@
       </c>
       <c r="F20" t="str">
         <f>global_candidacy!F20</f>
-        <v>2021_06</v>
+        <v>2021_48</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(F20,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H20" t="str">
         <f>global_candidacy!G20</f>
@@ -12734,15 +14155,15 @@
       </c>
       <c r="I20" s="1">
         <f>VLOOKUP($F20,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <f>VLOOKUP($F20,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="str">
         <f>VLOOKUP($F20,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -12752,7 +14173,7 @@
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP($A21,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Shivapuri Nagarjun National Park</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C21" t="str">
         <f>global_candidacy!C21</f>
@@ -12768,11 +14189,11 @@
       </c>
       <c r="F21" t="str">
         <f>global_candidacy!F21</f>
-        <v>2021_05</v>
+        <v>2021_48</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(F21,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H21" t="str">
         <f>global_candidacy!G21</f>
@@ -12784,11 +14205,11 @@
       </c>
       <c r="J21" s="1">
         <f>VLOOKUP($F21,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="str">
         <f>VLOOKUP($F21,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -12798,7 +14219,7 @@
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP($A22,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Chandra Giri Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C22" t="str">
         <f>global_candidacy!C22</f>
@@ -12814,11 +14235,11 @@
       </c>
       <c r="F22" t="str">
         <f>global_candidacy!F22</f>
-        <v>2021_06</v>
+        <v>2021_48</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(F22,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H22" t="str">
         <f>global_candidacy!G22</f>
@@ -12826,15 +14247,15 @@
       </c>
       <c r="I22" s="1">
         <f>VLOOKUP($F22,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <f>VLOOKUP($F22,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="str">
         <f>VLOOKUP($F22,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -12844,7 +14265,7 @@
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP($A23,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Punn Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C23" t="str">
         <f>global_candidacy!C23</f>
@@ -12860,11 +14281,11 @@
       </c>
       <c r="F23" t="str">
         <f>global_candidacy!F23</f>
-        <v>2021_12</v>
+        <v>2021_48</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(F23,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Coordinator</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H23" t="str">
         <f>global_candidacy!G23</f>
@@ -12876,11 +14297,11 @@
       </c>
       <c r="J23" s="1">
         <f>VLOOKUP($F23,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="str">
         <f>VLOOKUP($F23,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -12890,7 +14311,7 @@
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP($A24,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sarangkot Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C24" t="str">
         <f>global_candidacy!C24</f>
@@ -12936,7 +14357,7 @@
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP($A25,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Bandipur Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C25" t="str">
         <f>global_candidacy!C25</f>
@@ -12982,7 +14403,7 @@
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP($A26,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Ilam Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C26" t="str">
         <f>global_candidacy!C26</f>
@@ -13028,7 +14449,7 @@
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP($A27,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Chitlang Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C27" t="str">
         <f>global_candidacy!C27</f>
@@ -13074,7 +14495,7 @@
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP($A28,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Nagarot  Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C28" t="str">
         <f>global_candidacy!C28</f>
@@ -13120,7 +14541,7 @@
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP($A29,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Dulikhel Hill</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C29" t="str">
         <f>global_candidacy!C29</f>
@@ -13166,7 +14587,7 @@
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP($A30,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Rara Lake</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C30" t="str">
         <f>global_candidacy!C30</f>
@@ -13212,7 +14633,7 @@
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP($A31,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Fewa Lake </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C31" t="str">
         <f>global_candidacy!C31</f>
@@ -13228,11 +14649,11 @@
       </c>
       <c r="F31" t="str">
         <f>global_candidacy!F31</f>
-        <v>2021_11</v>
+        <v>2021_07</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(F31,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Coordinator</v>
+        <v>Woman Secretary</v>
       </c>
       <c r="H31" t="str">
         <f>global_candidacy!G31</f>
@@ -13258,7 +14679,7 @@
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP($A32,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Rupa Lake</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C32" t="str">
         <f>global_candidacy!C32</f>
@@ -13274,11 +14695,11 @@
       </c>
       <c r="F32" t="str">
         <f>global_candidacy!F32</f>
-        <v>2021_11</v>
+        <v>2021_07</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(F32,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Coordinator</v>
+        <v>Woman Secretary</v>
       </c>
       <c r="H32" t="str">
         <f>global_candidacy!G32</f>
@@ -13304,7 +14725,7 @@
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP($A33,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Tilicho Lake</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C33" t="str">
         <f>global_candidacy!C33</f>
@@ -13320,11 +14741,11 @@
       </c>
       <c r="F33" t="str">
         <f>global_candidacy!F33</f>
-        <v>2021_10</v>
+        <v>2021_07</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(F33,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Women Joint Treasurer</v>
+        <v>Woman Secretary</v>
       </c>
       <c r="H33" t="str">
         <f>global_candidacy!G33</f>
@@ -13350,7 +14771,7 @@
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP($A34,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Ek Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C34" t="str">
         <f>global_candidacy!C34</f>
@@ -13366,11 +14787,11 @@
       </c>
       <c r="F34" t="str">
         <f>global_candidacy!F34</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(F34,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H34" t="str">
         <f>global_candidacy!G34</f>
@@ -13382,11 +14803,11 @@
       </c>
       <c r="J34" s="1">
         <f>VLOOKUP($F34,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="str">
         <f>VLOOKUP($F34,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -13396,7 +14817,7 @@
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP($A35,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>5 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C35" t="str">
         <f>global_candidacy!C35</f>
@@ -13412,11 +14833,11 @@
       </c>
       <c r="F35" t="str">
         <f>global_candidacy!F35</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(F35,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H35" t="str">
         <f>global_candidacy!G35</f>
@@ -13428,11 +14849,11 @@
       </c>
       <c r="J35" s="1">
         <f>VLOOKUP($F35,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="str">
         <f>VLOOKUP($F35,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -13442,7 +14863,7 @@
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP($A36,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">25  Rupaya </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C36" t="str">
         <f>global_candidacy!C36</f>
@@ -13458,11 +14879,11 @@
       </c>
       <c r="F36" t="str">
         <f>global_candidacy!F36</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(F36,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H36" t="str">
         <f>global_candidacy!G36</f>
@@ -13474,11 +14895,11 @@
       </c>
       <c r="J36" s="1">
         <f>VLOOKUP($F36,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="str">
         <f>VLOOKUP($F36,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -13488,7 +14909,7 @@
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP($A37,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">50 Rupaya </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C37" t="str">
         <f>global_candidacy!C37</f>
@@ -13504,11 +14925,11 @@
       </c>
       <c r="F37" t="str">
         <f>global_candidacy!F37</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(F37,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H37" t="str">
         <f>global_candidacy!G37</f>
@@ -13520,11 +14941,11 @@
       </c>
       <c r="J37" s="1">
         <f>VLOOKUP($F37,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="str">
         <f>VLOOKUP($F37,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -13534,7 +14955,7 @@
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP($A38,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>1000 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C38" t="str">
         <f>global_candidacy!C38</f>
@@ -13550,11 +14971,11 @@
       </c>
       <c r="F38" t="str">
         <f>global_candidacy!F38</f>
-        <v>2021_08</v>
+        <v>2021_09</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(F38,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Joint Treasurer</v>
       </c>
       <c r="H38" t="str">
         <f>global_candidacy!G38</f>
@@ -13580,7 +15001,7 @@
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP($A39,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Coin 10 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C39" t="str">
         <f>global_candidacy!C39</f>
@@ -13596,11 +15017,11 @@
       </c>
       <c r="F39" t="str">
         <f>global_candidacy!F39</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(F39,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H39" t="str">
         <f>global_candidacy!G39</f>
@@ -13612,11 +15033,11 @@
       </c>
       <c r="J39" s="1">
         <f>VLOOKUP($F39,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="str">
         <f>VLOOKUP($F39,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -13626,7 +15047,7 @@
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP($A40,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Coin 250 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C40" t="str">
         <f>global_candidacy!C40</f>
@@ -13642,11 +15063,11 @@
       </c>
       <c r="F40" t="str">
         <f>global_candidacy!F40</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(F40,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H40" t="str">
         <f>global_candidacy!G40</f>
@@ -13658,11 +15079,11 @@
       </c>
       <c r="J40" s="1">
         <f>VLOOKUP($F40,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="str">
         <f>VLOOKUP($F40,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -13672,7 +15093,7 @@
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP($A41,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Coin 500 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C41" t="str">
         <f>global_candidacy!C41</f>
@@ -13688,11 +15109,11 @@
       </c>
       <c r="F41" t="str">
         <f>global_candidacy!F41</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(F41,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H41" t="str">
         <f>global_candidacy!G41</f>
@@ -13704,11 +15125,11 @@
       </c>
       <c r="J41" s="1">
         <f>VLOOKUP($F41,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="str">
         <f>VLOOKUP($F41,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -13718,7 +15139,7 @@
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP($A42,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Coin 5 Rupaya </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C42" t="str">
         <f>global_candidacy!C42</f>
@@ -13734,11 +15155,11 @@
       </c>
       <c r="F42" t="str">
         <f>global_candidacy!F42</f>
-        <v>2021_09</v>
+        <v>2021_10</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(F42,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Women Joint Treasurer</v>
       </c>
       <c r="H42" t="str">
         <f>global_candidacy!G42</f>
@@ -13764,7 +15185,7 @@
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP($A43,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Coin 2 Rupaya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C43" t="str">
         <f>global_candidacy!C43</f>
@@ -13780,11 +15201,11 @@
       </c>
       <c r="F43" t="str">
         <f>global_candidacy!F43</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G43" t="str">
         <f>VLOOKUP(F43,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H43" t="str">
         <f>global_candidacy!G43</f>
@@ -13796,11 +15217,11 @@
       </c>
       <c r="J43" s="1">
         <f>VLOOKUP($F43,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="str">
         <f>VLOOKUP($F43,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -13810,7 +15231,7 @@
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP($A44,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Parijaat</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C44" t="str">
         <f>global_candidacy!C44</f>
@@ -13856,7 +15277,7 @@
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP($A45,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Pasang Lhamu Sherpa</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C45" t="str">
         <f>global_candidacy!C45</f>
@@ -13872,11 +15293,11 @@
       </c>
       <c r="F45" t="str">
         <f>global_candidacy!F45</f>
-        <v>2021_07</v>
+        <v>2021_03</v>
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(F45,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Secretary</v>
+        <v>Woman Vice President</v>
       </c>
       <c r="H45" t="str">
         <f>global_candidacy!G45</f>
@@ -13902,7 +15323,7 @@
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP($A46,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Sushila Karki</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C46" t="str">
         <f>global_candidacy!C46</f>
@@ -13918,11 +15339,11 @@
       </c>
       <c r="F46" t="str">
         <f>global_candidacy!F46</f>
-        <v>2021_03</v>
+        <v>2021_02</v>
       </c>
       <c r="G46" t="str">
         <f>VLOOKUP(F46,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Vice President</v>
+        <v>Vice President</v>
       </c>
       <c r="H46" t="str">
         <f>global_candidacy!G46</f>
@@ -13930,7 +15351,7 @@
       </c>
       <c r="I46" s="1">
         <f>VLOOKUP($F46,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" s="1">
         <f>VLOOKUP($F46,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -13948,7 +15369,7 @@
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP($A47,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Himani Shaha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C47" t="str">
         <f>global_candidacy!C47</f>
@@ -13964,11 +15385,11 @@
       </c>
       <c r="F47" t="str">
         <f>global_candidacy!F47</f>
-        <v>2021_11</v>
+        <v>2021_10</v>
       </c>
       <c r="G47" t="str">
         <f>VLOOKUP(F47,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Coordinator</v>
+        <v>Women Joint Treasurer</v>
       </c>
       <c r="H47" t="str">
         <f>global_candidacy!G47</f>
@@ -13994,7 +15415,7 @@
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP($A48,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Football</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C48" t="str">
         <f>global_candidacy!C48</f>
@@ -14010,11 +15431,11 @@
       </c>
       <c r="F48" t="str">
         <f>global_candidacy!F48</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G48" t="str">
         <f>VLOOKUP(F48,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H48" t="str">
         <f>global_candidacy!G48</f>
@@ -14026,11 +15447,11 @@
       </c>
       <c r="J48" s="1">
         <f>VLOOKUP($F48,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="str">
         <f>VLOOKUP($F48,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -14040,7 +15461,7 @@
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP($A49,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Kapardi</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C49" t="str">
         <f>global_candidacy!C49</f>
@@ -14056,11 +15477,11 @@
       </c>
       <c r="F49" t="str">
         <f>global_candidacy!F49</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G49" t="str">
         <f>VLOOKUP(F49,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H49" t="str">
         <f>global_candidacy!G49</f>
@@ -14072,11 +15493,11 @@
       </c>
       <c r="J49" s="1">
         <f>VLOOKUP($F49,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="str">
         <f>VLOOKUP($F49,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -14086,7 +15507,7 @@
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP($A50,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Cricket </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C50" t="str">
         <f>global_candidacy!C50</f>
@@ -14102,11 +15523,11 @@
       </c>
       <c r="F50" t="str">
         <f>global_candidacy!F50</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G50" t="str">
         <f>VLOOKUP(F50,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H50" t="str">
         <f>global_candidacy!G50</f>
@@ -14118,11 +15539,11 @@
       </c>
       <c r="J50" s="1">
         <f>VLOOKUP($F50,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="str">
         <f>VLOOKUP($F50,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -14132,7 +15553,7 @@
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP($A51,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Basketball</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C51" t="str">
         <f>global_candidacy!C51</f>
@@ -14148,11 +15569,11 @@
       </c>
       <c r="F51" t="str">
         <f>global_candidacy!F51</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G51" t="str">
         <f>VLOOKUP(F51,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H51" t="str">
         <f>global_candidacy!G51</f>
@@ -14164,11 +15585,11 @@
       </c>
       <c r="J51" s="1">
         <f>VLOOKUP($F51,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="str">
         <f>VLOOKUP($F51,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -14178,7 +15599,7 @@
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP($A52,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Elephant Polo</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C52" t="str">
         <f>global_candidacy!C52</f>
@@ -14194,11 +15615,11 @@
       </c>
       <c r="F52" t="str">
         <f>global_candidacy!F52</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(F52,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H52" t="str">
         <f>global_candidacy!G52</f>
@@ -14210,11 +15631,11 @@
       </c>
       <c r="J52" s="1">
         <f>VLOOKUP($F52,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="str">
         <f>VLOOKUP($F52,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -14224,7 +15645,7 @@
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP($A53,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Volleyball</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C53" t="str">
         <f>global_candidacy!C53</f>
@@ -14240,11 +15661,11 @@
       </c>
       <c r="F53" t="str">
         <f>global_candidacy!F53</f>
-        <v>2021_04</v>
+        <v>2021_48</v>
       </c>
       <c r="G53" t="str">
         <f>VLOOKUP(F53,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H53" t="str">
         <f>global_candidacy!G53</f>
@@ -14256,11 +15677,11 @@
       </c>
       <c r="J53" s="1">
         <f>VLOOKUP($F53,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="str">
         <f>VLOOKUP($F53,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -14270,7 +15691,7 @@
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP($A54,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>1 Rupaya Coin</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C54" t="str">
         <f>global_candidacy!C54</f>
@@ -14286,11 +15707,11 @@
       </c>
       <c r="F54" t="str">
         <f>global_candidacy!F54</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(F54,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H54" t="str">
         <f>global_candidacy!G54</f>
@@ -14302,11 +15723,11 @@
       </c>
       <c r="J54" s="1">
         <f>VLOOKUP($F54,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="str">
         <f>VLOOKUP($F54,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -14316,7 +15737,7 @@
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP($A55,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Mahakali River </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C55" t="str">
         <f>global_candidacy!C55</f>
@@ -14332,11 +15753,11 @@
       </c>
       <c r="F55" t="str">
         <f>global_candidacy!F55</f>
-        <v>2021_06</v>
+        <v>2021_13</v>
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(F55,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Regional Coordinator Europe</v>
       </c>
       <c r="H55" t="str">
         <f>global_candidacy!G55</f>
@@ -14344,15 +15765,15 @@
       </c>
       <c r="I55" s="1">
         <f>VLOOKUP($F55,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1">
         <f>VLOOKUP($F55,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="str">
         <f>VLOOKUP($F55,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -14362,7 +15783,7 @@
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP($A56,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Sapta Gandki River </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C56" t="str">
         <f>global_candidacy!C56</f>
@@ -14378,11 +15799,11 @@
       </c>
       <c r="F56" t="str">
         <f>global_candidacy!F56</f>
-        <v>2021_05</v>
+        <v>2021_13</v>
       </c>
       <c r="G56" t="str">
         <f>VLOOKUP(F56,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Regional Coordinator Europe</v>
       </c>
       <c r="H56" t="str">
         <f>global_candidacy!G56</f>
@@ -14394,11 +15815,11 @@
       </c>
       <c r="J56" s="1">
         <f>VLOOKUP($F56,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="str">
         <f>VLOOKUP($F56,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -14408,7 +15829,7 @@
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP($A57,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Koshi River </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C57" t="str">
         <f>global_candidacy!C57</f>
@@ -14424,11 +15845,11 @@
       </c>
       <c r="F57" t="str">
         <f>global_candidacy!F57</f>
-        <v>2021_02</v>
+        <v>2021_13</v>
       </c>
       <c r="G57" t="str">
         <f>VLOOKUP(F57,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Vice President</v>
+        <v>Regional Coordinator Europe</v>
       </c>
       <c r="H57" t="str">
         <f>global_candidacy!G57</f>
@@ -14436,15 +15857,15 @@
       </c>
       <c r="I57" s="1">
         <f>VLOOKUP($F57,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <f>VLOOKUP($F57,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="str">
         <f>VLOOKUP($F57,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -14454,7 +15875,7 @@
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP($A58,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Narayani River </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C58" t="str">
         <f>global_candidacy!C58</f>
@@ -14470,11 +15891,11 @@
       </c>
       <c r="F58" t="str">
         <f>global_candidacy!F58</f>
-        <v>2021_07</v>
+        <v>2021_13</v>
       </c>
       <c r="G58" t="str">
         <f>VLOOKUP(F58,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Secretary</v>
+        <v>Regional Coordinator Europe</v>
       </c>
       <c r="H58" t="str">
         <f>global_candidacy!G58</f>
@@ -14486,11 +15907,11 @@
       </c>
       <c r="J58" s="1">
         <f>VLOOKUP($F58,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="str">
         <f>VLOOKUP($F58,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -14500,7 +15921,7 @@
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP($A59,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Karnali River</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C59" t="str">
         <f>global_candidacy!C59</f>
@@ -14516,11 +15937,11 @@
       </c>
       <c r="F59" t="str">
         <f>global_candidacy!F59</f>
-        <v>2021_01</v>
+        <v>2021_48</v>
       </c>
       <c r="G59" t="str">
         <f>VLOOKUP(F59,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H59" t="str">
         <f>global_candidacy!G59</f>
@@ -14532,11 +15953,11 @@
       </c>
       <c r="J59" s="1">
         <f>VLOOKUP($F59,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="str">
         <f>VLOOKUP($F59,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -14546,7 +15967,7 @@
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP($A60,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>One and Half Mohar</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C60" t="str">
         <f>global_candidacy!C60</f>
@@ -14562,11 +15983,11 @@
       </c>
       <c r="F60" t="str">
         <f>global_candidacy!F60</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G60" t="str">
         <f>VLOOKUP(F60,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H60" t="str">
         <f>global_candidacy!G60</f>
@@ -14578,11 +15999,11 @@
       </c>
       <c r="J60" s="1">
         <f>VLOOKUP($F60,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="str">
         <f>VLOOKUP($F60,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -14592,7 +16013,7 @@
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP($A61,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Moti Ram Bhatta </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C61" t="str">
         <f>global_candidacy!C61</f>
@@ -14608,11 +16029,11 @@
       </c>
       <c r="F61" t="str">
         <f>global_candidacy!F61</f>
-        <v>2021_10</v>
+        <v>2021_48</v>
       </c>
       <c r="G61" t="str">
         <f>VLOOKUP(F61,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Women Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H61" t="str">
         <f>global_candidacy!G61</f>
@@ -14624,11 +16045,11 @@
       </c>
       <c r="J61" s="1">
         <f>VLOOKUP($F61,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="str">
         <f>VLOOKUP($F61,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -14638,7 +16059,7 @@
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP($A62,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Laxmi Prasad Devkota</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C62" t="str">
         <f>global_candidacy!C62</f>
@@ -14654,11 +16075,11 @@
       </c>
       <c r="F62" t="str">
         <f>global_candidacy!F62</f>
-        <v>2021_05</v>
+        <v>2021_48</v>
       </c>
       <c r="G62" t="str">
         <f>VLOOKUP(F62,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H62" t="str">
         <f>global_candidacy!G62</f>
@@ -14670,11 +16091,11 @@
       </c>
       <c r="J62" s="1">
         <f>VLOOKUP($F62,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="str">
         <f>VLOOKUP($F62,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -14684,7 +16105,7 @@
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP($A63,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Bhanu Bhakta Acharya</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C63" t="str">
         <f>global_candidacy!C63</f>
@@ -14700,11 +16121,11 @@
       </c>
       <c r="F63" t="str">
         <f>global_candidacy!F63</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G63" t="str">
         <f>VLOOKUP(F63,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H63" t="str">
         <f>global_candidacy!G63</f>
@@ -14716,11 +16137,11 @@
       </c>
       <c r="J63" s="1">
         <f>VLOOKUP($F63,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="str">
         <f>VLOOKUP($F63,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -14730,7 +16151,7 @@
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP($A64,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Bhupi Sherchan</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C64" t="str">
         <f>global_candidacy!C64</f>
@@ -14746,11 +16167,11 @@
       </c>
       <c r="F64" t="str">
         <f>global_candidacy!F64</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G64" t="str">
         <f>VLOOKUP(F64,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H64" t="str">
         <f>global_candidacy!G64</f>
@@ -14762,11 +16183,11 @@
       </c>
       <c r="J64" s="1">
         <f>VLOOKUP($F64,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="str">
         <f>VLOOKUP($F64,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -14776,7 +16197,7 @@
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP($A65,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Satya Mohan Joshi</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C65" t="str">
         <f>global_candidacy!C65</f>
@@ -14792,11 +16213,11 @@
       </c>
       <c r="F65" t="str">
         <f>global_candidacy!F65</f>
-        <v>2021_17</v>
+        <v>2021_02</v>
       </c>
       <c r="G65" t="str">
         <f>VLOOKUP(F65,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Coordinator Middle East</v>
+        <v>Vice President</v>
       </c>
       <c r="H65" t="str">
         <f>global_candidacy!G65</f>
@@ -14804,15 +16225,15 @@
       </c>
       <c r="I65" s="1">
         <f>VLOOKUP($F65,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" s="1">
         <f>VLOOKUP($F65,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
         <f>VLOOKUP($F65,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Middle East</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -14822,7 +16243,7 @@
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP($A66,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Melina Rai </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C66" t="str">
         <f>global_candidacy!C66</f>
@@ -14868,7 +16289,7 @@
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP($A67,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Anamol KC</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C67" t="str">
         <f>global_candidacy!C67</f>
@@ -14884,11 +16305,11 @@
       </c>
       <c r="F67" t="str">
         <f>global_candidacy!F67</f>
-        <v>2021_12</v>
+        <v>2021_48</v>
       </c>
       <c r="G67" t="str">
         <f>VLOOKUP(F67,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Coordinator</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H67" t="str">
         <f>global_candidacy!G67</f>
@@ -14900,11 +16321,11 @@
       </c>
       <c r="J67" s="1">
         <f>VLOOKUP($F67,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="str">
         <f>VLOOKUP($F67,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -14914,7 +16335,7 @@
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP($A68,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Jitu Nepal </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C68" t="str">
         <f>global_candidacy!C68</f>
@@ -14930,11 +16351,11 @@
       </c>
       <c r="F68" t="str">
         <f>global_candidacy!F68</f>
-        <v>2021_12</v>
+        <v>2021_48</v>
       </c>
       <c r="G68" t="str">
         <f>VLOOKUP(F68,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Coordinator</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H68" t="str">
         <f>global_candidacy!G68</f>
@@ -14946,11 +16367,11 @@
       </c>
       <c r="J68" s="1">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="str">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -14960,7 +16381,7 @@
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP($A69,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Priyanka Karki</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C69" t="str">
         <f>global_candidacy!C69</f>
@@ -15006,7 +16427,7 @@
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP($A70,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Swastima Khadka </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C70" t="str">
         <f>global_candidacy!C70</f>
@@ -15052,7 +16473,7 @@
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP($A71,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Gaurika Singh </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C71" t="str">
         <f>global_candidacy!C71</f>
@@ -15098,7 +16519,7 @@
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP($A72,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Dipashree Niraula</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C72" t="str">
         <f>global_candidacy!C72</f>
@@ -15144,7 +16565,7 @@
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP($A73,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Rekha Thapa</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C73" t="str">
         <f>global_candidacy!C73</f>
@@ -15160,11 +16581,11 @@
       </c>
       <c r="F73" t="str">
         <f>global_candidacy!F73</f>
-        <v>2021_14</v>
+        <v>2021_12</v>
       </c>
       <c r="G73" t="str">
         <f>VLOOKUP(F73,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Coordinator Americas</v>
+        <v>Youth Coordinator</v>
       </c>
       <c r="H73" t="str">
         <f>global_candidacy!G73</f>
@@ -15176,11 +16597,11 @@
       </c>
       <c r="J73" s="1">
         <f>VLOOKUP($F73,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
         <f>VLOOKUP($F73,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Americas</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -15190,7 +16611,7 @@
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP($A74,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Rajesh Hamal</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C74" t="str">
         <f>global_candidacy!C74</f>
@@ -15206,11 +16627,11 @@
       </c>
       <c r="F74" t="str">
         <f>global_candidacy!F74</f>
-        <v>2021_04</v>
+        <v>2021_05</v>
       </c>
       <c r="G74" t="str">
         <f>VLOOKUP(F74,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>General Secretary</v>
       </c>
       <c r="H74" t="str">
         <f>global_candidacy!G74</f>
@@ -15236,7 +16657,7 @@
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP($A75,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v xml:space="preserve">Karishma Manandhar </v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C75" t="str">
         <f>global_candidacy!C75</f>
@@ -15282,7 +16703,7 @@
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP($A76,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C76" t="str">
         <f>global_candidacy!C76</f>
@@ -15328,7 +16749,7 @@
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP($A77,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C77" t="str">
         <f>global_candidacy!C77</f>
@@ -15374,7 +16795,7 @@
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP($A78,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C78" t="str">
         <f>global_candidacy!C78</f>
@@ -15390,11 +16811,11 @@
       </c>
       <c r="F78" t="str">
         <f>global_candidacy!F78</f>
-        <v>2021_10</v>
+        <v>2021_04</v>
       </c>
       <c r="G78" t="str">
         <f>VLOOKUP(F78,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Women Joint Treasurer</v>
+        <v>Youth Vice President</v>
       </c>
       <c r="H78" t="str">
         <f>global_candidacy!G78</f>
@@ -15420,7 +16841,7 @@
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP($A79,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C79" t="str">
         <f>global_candidacy!C79</f>
@@ -15466,7 +16887,7 @@
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP($A80,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C80" t="str">
         <f>global_candidacy!C80</f>
@@ -15512,7 +16933,7 @@
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP($A81,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C81" t="str">
         <f>global_candidacy!C81</f>
@@ -15558,7 +16979,7 @@
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP($A82,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C82" t="str">
         <f>global_candidacy!C82</f>
@@ -15574,11 +16995,11 @@
       </c>
       <c r="F82" t="str">
         <f>global_candidacy!F82</f>
-        <v>2021_05</v>
+        <v>2021_02</v>
       </c>
       <c r="G82" t="str">
         <f>VLOOKUP(F82,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>General Secretary</v>
+        <v>Vice President</v>
       </c>
       <c r="H82" t="str">
         <f>global_candidacy!G82</f>
@@ -15586,7 +17007,7 @@
       </c>
       <c r="I82" s="1">
         <f>VLOOKUP($F82,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1">
         <f>VLOOKUP($F82,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -15604,7 +17025,7 @@
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP($A83,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C83" t="str">
         <f>global_candidacy!C83</f>
@@ -15632,7 +17053,7 @@
       </c>
       <c r="I83" s="1">
         <f>VLOOKUP($F83,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83" s="1">
         <f>VLOOKUP($F83,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -15650,7 +17071,7 @@
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP($A84,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C84" t="str">
         <f>global_candidacy!C84</f>
@@ -15666,11 +17087,11 @@
       </c>
       <c r="F84" t="str">
         <f>global_candidacy!F84</f>
-        <v>2021_06</v>
+        <v>2021_02</v>
       </c>
       <c r="G84" t="str">
         <f>VLOOKUP(F84,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Vice President</v>
       </c>
       <c r="H84" t="str">
         <f>global_candidacy!G84</f>
@@ -15678,7 +17099,7 @@
       </c>
       <c r="I84" s="1">
         <f>VLOOKUP($F84,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" s="1">
         <f>VLOOKUP($F84,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -15696,7 +17117,7 @@
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP($A85,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C85" t="str">
         <f>global_candidacy!C85</f>
@@ -15712,11 +17133,11 @@
       </c>
       <c r="F85" t="str">
         <f>global_candidacy!F85</f>
-        <v>2021_16</v>
+        <v>2021_11</v>
       </c>
       <c r="G85" t="str">
         <f>VLOOKUP(F85,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Coordinator Asia Pacific</v>
+        <v>Woman Coordinator</v>
       </c>
       <c r="H85" t="str">
         <f>global_candidacy!G85</f>
@@ -15728,11 +17149,11 @@
       </c>
       <c r="J85" s="1">
         <f>VLOOKUP($F85,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
         <f>VLOOKUP($F85,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Asia Pacific</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -15742,7 +17163,7 @@
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP($A86,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C86" t="str">
         <f>global_candidacy!C86</f>
@@ -15758,11 +17179,11 @@
       </c>
       <c r="F86" t="str">
         <f>global_candidacy!F86</f>
-        <v>2021_17</v>
+        <v>2021_11</v>
       </c>
       <c r="G86" t="str">
         <f>VLOOKUP(F86,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Coordinator Middle East</v>
+        <v>Woman Coordinator</v>
       </c>
       <c r="H86" t="str">
         <f>global_candidacy!G86</f>
@@ -15774,11 +17195,11 @@
       </c>
       <c r="J86" s="1">
         <f>VLOOKUP($F86,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
         <f>VLOOKUP($F86,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Middle East</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -15788,7 +17209,7 @@
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP($A87,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C87" t="str">
         <f>global_candidacy!C87</f>
@@ -15804,11 +17225,11 @@
       </c>
       <c r="F87" t="str">
         <f>global_candidacy!F87</f>
-        <v>2021_04</v>
+        <v>2021_02</v>
       </c>
       <c r="G87" t="str">
         <f>VLOOKUP(F87,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Vice President</v>
+        <v>Vice President</v>
       </c>
       <c r="H87" t="str">
         <f>global_candidacy!G87</f>
@@ -15816,7 +17237,7 @@
       </c>
       <c r="I87" s="1">
         <f>VLOOKUP($F87,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" s="1">
         <f>VLOOKUP($F87,[2]global_posts!$B$2:$G$100,5,1)</f>
@@ -15834,7 +17255,7 @@
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP($A88,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C88" t="str">
         <f>global_candidacy!C88</f>
@@ -15850,11 +17271,11 @@
       </c>
       <c r="F88" t="str">
         <f>global_candidacy!F88</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G88" t="str">
         <f>VLOOKUP(F88,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H88" t="str">
         <f>global_candidacy!G88</f>
@@ -15866,11 +17287,11 @@
       </c>
       <c r="J88" s="1">
         <f>VLOOKUP($F88,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="str">
         <f>VLOOKUP($F88,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -15880,7 +17301,7 @@
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP($A89,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C89" t="str">
         <f>global_candidacy!C89</f>
@@ -15926,7 +17347,7 @@
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP($A90,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C90" t="str">
         <f>global_candidacy!C90</f>
@@ -15972,7 +17393,7 @@
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP($A91,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C91" t="str">
         <f>global_candidacy!C91</f>
@@ -16018,7 +17439,7 @@
       </c>
       <c r="B92" t="str">
         <f>VLOOKUP($A92,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C92" t="str">
         <f>global_candidacy!C92</f>
@@ -16064,7 +17485,7 @@
       </c>
       <c r="B93" t="str">
         <f>VLOOKUP($A93,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C93" t="str">
         <f>global_candidacy!C93</f>
@@ -16110,7 +17531,7 @@
       </c>
       <c r="B94" t="str">
         <f>VLOOKUP($A94,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C94" t="str">
         <f>global_candidacy!C94</f>
@@ -16156,7 +17577,7 @@
       </c>
       <c r="B95" t="str">
         <f>VLOOKUP($A95,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C95" t="str">
         <f>global_candidacy!C95</f>
@@ -16202,7 +17623,7 @@
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP($A96,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C96" t="str">
         <f>global_candidacy!C96</f>
@@ -16248,7 +17669,7 @@
       </c>
       <c r="B97" t="str">
         <f>VLOOKUP($A97,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C97" t="str">
         <f>global_candidacy!C97</f>
@@ -16264,11 +17685,11 @@
       </c>
       <c r="F97" t="str">
         <f>global_candidacy!F97</f>
-        <v>2021_31</v>
+        <v>2021_05</v>
       </c>
       <c r="G97" t="str">
         <f>VLOOKUP(F97,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Deputy Coordinator Europe</v>
+        <v>General Secretary</v>
       </c>
       <c r="H97" t="str">
         <f>global_candidacy!G97</f>
@@ -16276,15 +17697,15 @@
       </c>
       <c r="I97" s="1">
         <f>VLOOKUP($F97,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" s="1">
         <f>VLOOKUP($F97,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
         <f>VLOOKUP($F97,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Europe</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -16294,7 +17715,7 @@
       </c>
       <c r="B98" t="str">
         <f>VLOOKUP($A98,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C98" t="str">
         <f>global_candidacy!C98</f>
@@ -16340,7 +17761,7 @@
       </c>
       <c r="B99" t="str">
         <f>VLOOKUP($A99,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C99" t="str">
         <f>global_candidacy!C99</f>
@@ -16386,7 +17807,7 @@
       </c>
       <c r="B100" t="str">
         <f>VLOOKUP($A100,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>Gautam Buddha</v>
+        <v>Ambika Shrestha</v>
       </c>
       <c r="C100" t="str">
         <f>global_candidacy!C100</f>
@@ -16632,11 +18053,11 @@
       </c>
       <c r="F105" t="str">
         <f>global_candidacy!F105</f>
-        <v>2021_33</v>
+        <v>2021_05</v>
       </c>
       <c r="G105" t="str">
         <f>VLOOKUP(F105,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Deputy Coordinator Oceania</v>
+        <v>General Secretary</v>
       </c>
       <c r="H105" t="str">
         <f>global_candidacy!G105</f>
@@ -16644,15 +18065,15 @@
       </c>
       <c r="I105" s="1">
         <f>VLOOKUP($F105,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" s="1">
         <f>VLOOKUP($F105,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
         <f>VLOOKUP($F105,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Oceania</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -16678,11 +18099,11 @@
       </c>
       <c r="F106" t="str">
         <f>global_candidacy!F106</f>
-        <v>2021_09</v>
+        <v>2021_05</v>
       </c>
       <c r="G106" t="str">
         <f>VLOOKUP(F106,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Joint Treasurer</v>
+        <v>General Secretary</v>
       </c>
       <c r="H106" t="str">
         <f>global_candidacy!G106</f>
@@ -17230,11 +18651,11 @@
       </c>
       <c r="F118" t="str">
         <f>global_candidacy!F118</f>
-        <v>2021_08</v>
+        <v>2021_09</v>
       </c>
       <c r="G118" t="str">
         <f>VLOOKUP(F118,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Joint Treasurer</v>
       </c>
       <c r="H118" t="str">
         <f>global_candidacy!G118</f>
@@ -17276,11 +18697,11 @@
       </c>
       <c r="F119" t="str">
         <f>global_candidacy!F119</f>
-        <v>2021_23</v>
+        <v>2021_10</v>
       </c>
       <c r="G119" t="str">
         <f>VLOOKUP(F119,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Women Coordinator Middle East</v>
+        <v>Women Joint Treasurer</v>
       </c>
       <c r="H119" t="str">
         <f>global_candidacy!G119</f>
@@ -17292,11 +18713,11 @@
       </c>
       <c r="J119" s="1">
         <f>VLOOKUP($F119,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K119" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
         <f>VLOOKUP($F119,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Middle East</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -17414,11 +18835,11 @@
       </c>
       <c r="F122" t="str">
         <f>global_candidacy!F122</f>
-        <v>2021_31</v>
+        <v>2021_12</v>
       </c>
       <c r="G122" t="str">
         <f>VLOOKUP(F122,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Deputy Coordinator Europe</v>
+        <v>Youth Coordinator</v>
       </c>
       <c r="H122" t="str">
         <f>global_candidacy!G122</f>
@@ -17426,15 +18847,15 @@
       </c>
       <c r="I122" s="1">
         <f>VLOOKUP($F122,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" s="1">
         <f>VLOOKUP($F122,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
         <f>VLOOKUP($F122,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Europe</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -17506,11 +18927,11 @@
       </c>
       <c r="F124" t="str">
         <f>global_candidacy!F124</f>
-        <v>2021_07</v>
+        <v>2021_11</v>
       </c>
       <c r="G124" t="str">
         <f>VLOOKUP(F124,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Woman Secretary</v>
+        <v>Woman Coordinator</v>
       </c>
       <c r="H124" t="str">
         <f>global_candidacy!G124</f>
@@ -17782,11 +19203,11 @@
       </c>
       <c r="F130" t="str">
         <f>global_candidacy!F130</f>
-        <v>2021_12</v>
+        <v>2021_48</v>
       </c>
       <c r="G130" t="str">
         <f>VLOOKUP(F130,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Youth Coordinator</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H130" t="str">
         <f>global_candidacy!G130</f>
@@ -17798,11 +19219,11 @@
       </c>
       <c r="J130" s="1">
         <f>VLOOKUP($F130,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1" t="str">
         <f>VLOOKUP($F130,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -17878,7 +19299,7 @@
       </c>
       <c r="G132" t="str">
         <f>VLOOKUP(F132,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H132" t="str">
         <f>global_candidacy!G132</f>
@@ -17886,15 +19307,15 @@
       </c>
       <c r="I132" s="1">
         <f>VLOOKUP($F132,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J132" s="1">
         <f>VLOOKUP($F132,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K132" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1">
         <f>VLOOKUP($F132,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -17924,7 +19345,7 @@
       </c>
       <c r="G133" t="str">
         <f>VLOOKUP(F133,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H133" t="str">
         <f>global_candidacy!G133</f>
@@ -17932,15 +19353,15 @@
       </c>
       <c r="I133" s="1">
         <f>VLOOKUP($F133,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J133" s="1">
         <f>VLOOKUP($F133,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K133" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1">
         <f>VLOOKUP($F133,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -17970,7 +19391,7 @@
       </c>
       <c r="G134" t="str">
         <f>VLOOKUP(F134,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H134" t="str">
         <f>global_candidacy!G134</f>
@@ -17978,15 +19399,15 @@
       </c>
       <c r="I134" s="1">
         <f>VLOOKUP($F134,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1">
         <f>VLOOKUP($F134,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K134" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
         <f>VLOOKUP($F134,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -18016,7 +19437,7 @@
       </c>
       <c r="G135" t="str">
         <f>VLOOKUP(F135,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H135" t="str">
         <f>global_candidacy!G135</f>
@@ -18024,15 +19445,15 @@
       </c>
       <c r="I135" s="1">
         <f>VLOOKUP($F135,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J135" s="1">
         <f>VLOOKUP($F135,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K135" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K135" s="1">
         <f>VLOOKUP($F135,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -18062,7 +19483,7 @@
       </c>
       <c r="G136" t="str">
         <f>VLOOKUP(F136,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H136" t="str">
         <f>global_candidacy!G136</f>
@@ -18070,15 +19491,15 @@
       </c>
       <c r="I136" s="1">
         <f>VLOOKUP($F136,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J136" s="1">
         <f>VLOOKUP($F136,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K136" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1">
         <f>VLOOKUP($F136,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -18108,7 +19529,7 @@
       </c>
       <c r="G137" t="str">
         <f>VLOOKUP(F137,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H137" t="str">
         <f>global_candidacy!G137</f>
@@ -18116,15 +19537,15 @@
       </c>
       <c r="I137" s="1">
         <f>VLOOKUP($F137,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J137" s="1">
         <f>VLOOKUP($F137,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K137" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1">
         <f>VLOOKUP($F137,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -18154,7 +19575,7 @@
       </c>
       <c r="G138" t="str">
         <f>VLOOKUP(F138,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Patron Council member</v>
       </c>
       <c r="H138" t="str">
         <f>global_candidacy!G138</f>
@@ -18162,15 +19583,15 @@
       </c>
       <c r="I138" s="1">
         <f>VLOOKUP($F138,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J138" s="1">
         <f>VLOOKUP($F138,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K138" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1">
         <f>VLOOKUP($F138,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>Afria</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -18380,11 +19801,11 @@
       </c>
       <c r="F143" t="str">
         <f>global_candidacy!F143</f>
-        <v>2021_02</v>
+        <v>2021_48</v>
       </c>
       <c r="G143" t="str">
         <f>VLOOKUP(F143,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Vice President</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H143" t="str">
         <f>global_candidacy!G143</f>
@@ -18392,15 +19813,15 @@
       </c>
       <c r="I143" s="1">
         <f>VLOOKUP($F143,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" s="1">
         <f>VLOOKUP($F143,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1" t="str">
         <f>VLOOKUP($F143,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -18426,11 +19847,11 @@
       </c>
       <c r="F144" t="str">
         <f>global_candidacy!F144</f>
-        <v>2021_06</v>
+        <v>2021_48</v>
       </c>
       <c r="G144" t="str">
         <f>VLOOKUP(F144,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Secretary</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H144" t="str">
         <f>global_candidacy!G144</f>
@@ -18438,15 +19859,15 @@
       </c>
       <c r="I144" s="1">
         <f>VLOOKUP($F144,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" s="1">
         <f>VLOOKUP($F144,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1" t="str">
         <f>VLOOKUP($F144,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -18472,11 +19893,11 @@
       </c>
       <c r="F145" t="str">
         <f>global_candidacy!F145</f>
-        <v>2021_08</v>
+        <v>2021_48</v>
       </c>
       <c r="G145" t="str">
         <f>VLOOKUP(F145,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H145" t="str">
         <f>global_candidacy!G145</f>
@@ -18488,11 +19909,11 @@
       </c>
       <c r="J145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1" t="str">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -18542,1199 +19963,1199 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" t="str">
         <f>global_candidacy!B147</f>
-        <v>0</v>
-      </c>
-      <c r="B147" t="e">
+        <v>nrna_146</v>
+      </c>
+      <c r="B147" t="str">
         <f>VLOOKUP($A147,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C147">
+        <v>Biratnagar City</v>
+      </c>
+      <c r="C147" t="str">
         <f>global_candidacy!C147</f>
-        <v>0</v>
-      </c>
-      <c r="D147">
+        <v>2021_146</v>
+      </c>
+      <c r="D147" t="str">
         <f>global_candidacy!D147</f>
-        <v>0</v>
-      </c>
-      <c r="E147">
+        <v>2021_pr_146</v>
+      </c>
+      <c r="E147" t="str">
         <f>global_candidacy!E147</f>
-        <v>0</v>
-      </c>
-      <c r="F147">
+        <v>2021_su_146</v>
+      </c>
+      <c r="F147" t="str">
         <f>global_candidacy!F147</f>
-        <v>0</v>
-      </c>
-      <c r="G147" t="e">
+        <v>2021_03</v>
+      </c>
+      <c r="G147" t="str">
         <f>VLOOKUP(F147,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H147">
+        <v>Woman Vice President</v>
+      </c>
+      <c r="H147" t="str">
         <f>global_candidacy!G147</f>
-        <v>0</v>
-      </c>
-      <c r="I147" s="1" t="e">
+        <v>sita_janaki.jpg</v>
+      </c>
+      <c r="I147" s="1">
         <f>VLOOKUP($F147,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J147" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1">
         <f>VLOOKUP($F147,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K147" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K147" s="1">
         <f>VLOOKUP($F147,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" t="str">
         <f>global_candidacy!B148</f>
-        <v>0</v>
-      </c>
-      <c r="B148" t="e">
+        <v>nrna_147</v>
+      </c>
+      <c r="B148" t="str">
         <f>VLOOKUP($A148,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C148">
+        <v>Biratnagar City</v>
+      </c>
+      <c r="C148" t="str">
         <f>global_candidacy!C148</f>
-        <v>0</v>
-      </c>
-      <c r="D148">
+        <v>2021_147</v>
+      </c>
+      <c r="D148" t="str">
         <f>global_candidacy!D148</f>
-        <v>0</v>
-      </c>
-      <c r="E148">
+        <v>2021_pr_147</v>
+      </c>
+      <c r="E148" t="str">
         <f>global_candidacy!E148</f>
-        <v>0</v>
-      </c>
-      <c r="F148">
+        <v>2021_su_147</v>
+      </c>
+      <c r="F148" t="str">
         <f>global_candidacy!F148</f>
-        <v>0</v>
-      </c>
-      <c r="G148" t="e">
+        <v>2021_04</v>
+      </c>
+      <c r="G148" t="str">
         <f>VLOOKUP(F148,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H148">
+        <v>Youth Vice President</v>
+      </c>
+      <c r="H148" t="str">
         <f>global_candidacy!G148</f>
-        <v>0</v>
-      </c>
-      <c r="I148" s="1" t="e">
+        <v>nirmal_purja.jpg</v>
+      </c>
+      <c r="I148" s="1">
         <f>VLOOKUP($F148,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J148" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J148" s="1">
         <f>VLOOKUP($F148,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K148" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1">
         <f>VLOOKUP($F148,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" t="str">
         <f>global_candidacy!B149</f>
-        <v>0</v>
-      </c>
-      <c r="B149" t="e">
+        <v>nrna_148</v>
+      </c>
+      <c r="B149" t="str">
         <f>VLOOKUP($A149,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C149">
+        <v>Prabal Gurung</v>
+      </c>
+      <c r="C149" t="str">
         <f>global_candidacy!C149</f>
-        <v>0</v>
-      </c>
-      <c r="D149">
+        <v>2021_148</v>
+      </c>
+      <c r="D149" t="str">
         <f>global_candidacy!D149</f>
-        <v>0</v>
-      </c>
-      <c r="E149">
+        <v>2021_pr_148</v>
+      </c>
+      <c r="E149" t="str">
         <f>global_candidacy!E149</f>
-        <v>0</v>
-      </c>
-      <c r="F149">
+        <v>2021_su_148</v>
+      </c>
+      <c r="F149" t="str">
         <f>global_candidacy!F149</f>
-        <v>0</v>
-      </c>
-      <c r="G149" t="e">
+        <v>2021_04</v>
+      </c>
+      <c r="G149" t="str">
         <f>VLOOKUP(F149,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H149">
+        <v>Youth Vice President</v>
+      </c>
+      <c r="H149" t="str">
         <f>global_candidacy!G149</f>
-        <v>0</v>
-      </c>
-      <c r="I149" s="1" t="e">
+        <v>prabal_gurung.png</v>
+      </c>
+      <c r="I149" s="1">
         <f>VLOOKUP($F149,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J149" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J149" s="1">
         <f>VLOOKUP($F149,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K149" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1">
         <f>VLOOKUP($F149,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" t="str">
         <f>global_candidacy!B150</f>
-        <v>0</v>
-      </c>
-      <c r="B150" t="e">
+        <v>nrna_149</v>
+      </c>
+      <c r="B150" t="str">
         <f>VLOOKUP($A150,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C150">
+        <v>Dr. Ram Baran Yadav</v>
+      </c>
+      <c r="C150" t="str">
         <f>global_candidacy!C150</f>
-        <v>0</v>
-      </c>
-      <c r="D150">
+        <v>2021_149</v>
+      </c>
+      <c r="D150" t="str">
         <f>global_candidacy!D150</f>
-        <v>0</v>
-      </c>
-      <c r="E150">
+        <v>2021_pr_149</v>
+      </c>
+      <c r="E150" t="str">
         <f>global_candidacy!E150</f>
-        <v>0</v>
-      </c>
-      <c r="F150">
+        <v>2021_su_149</v>
+      </c>
+      <c r="F150" t="str">
         <f>global_candidacy!F150</f>
-        <v>0</v>
-      </c>
-      <c r="G150" t="e">
+        <v>2021_02</v>
+      </c>
+      <c r="G150" t="str">
         <f>VLOOKUP(F150,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H150">
+        <v>Vice President</v>
+      </c>
+      <c r="H150" t="str">
         <f>global_candidacy!G150</f>
-        <v>0</v>
-      </c>
-      <c r="I150" s="1" t="e">
+        <v>ram_baran_yadav.jpg</v>
+      </c>
+      <c r="I150" s="1">
         <f>VLOOKUP($F150,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J150" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="J150" s="1">
         <f>VLOOKUP($F150,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K150" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
         <f>VLOOKUP($F150,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" t="str">
         <f>global_candidacy!B151</f>
-        <v>0</v>
-      </c>
-      <c r="B151" t="e">
+        <v>nrna_150</v>
+      </c>
+      <c r="B151" t="str">
         <f>VLOOKUP($A151,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C151">
+        <v>Mukesh Kayastha (living Marytr of Nepal)</v>
+      </c>
+      <c r="C151" t="str">
         <f>global_candidacy!C151</f>
-        <v>0</v>
-      </c>
-      <c r="D151">
+        <v>2021_150</v>
+      </c>
+      <c r="D151" t="str">
         <f>global_candidacy!D151</f>
-        <v>0</v>
-      </c>
-      <c r="E151">
+        <v>2021_pr_150</v>
+      </c>
+      <c r="E151" t="str">
         <f>global_candidacy!E151</f>
-        <v>0</v>
-      </c>
-      <c r="F151">
+        <v>2021_su_150</v>
+      </c>
+      <c r="F151" t="str">
         <f>global_candidacy!F151</f>
-        <v>0</v>
-      </c>
-      <c r="G151" t="e">
+        <v>2021_02</v>
+      </c>
+      <c r="G151" t="str">
         <f>VLOOKUP(F151,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H151">
+        <v>Vice President</v>
+      </c>
+      <c r="H151" t="str">
         <f>global_candidacy!G151</f>
-        <v>0</v>
-      </c>
-      <c r="I151" s="1" t="e">
+        <v>mukesh_kayastha.jpg</v>
+      </c>
+      <c r="I151" s="1">
         <f>VLOOKUP($F151,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J151" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="J151" s="1">
         <f>VLOOKUP($F151,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K151" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
         <f>VLOOKUP($F151,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" t="str">
         <f>global_candidacy!B152</f>
-        <v>0</v>
-      </c>
-      <c r="B152" t="e">
+        <v>nrna_151</v>
+      </c>
+      <c r="B152" t="str">
         <f>VLOOKUP($A152,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C152">
+        <v>Bal Krishna Acharya</v>
+      </c>
+      <c r="C152" t="str">
         <f>global_candidacy!C152</f>
-        <v>0</v>
-      </c>
-      <c r="D152">
+        <v>2021_151</v>
+      </c>
+      <c r="D152" t="str">
         <f>global_candidacy!D152</f>
-        <v>0</v>
-      </c>
-      <c r="E152">
+        <v>2021_pr_151</v>
+      </c>
+      <c r="E152" t="str">
         <f>global_candidacy!E152</f>
-        <v>0</v>
-      </c>
-      <c r="F152">
+        <v>2021_su_151</v>
+      </c>
+      <c r="F152" t="str">
         <f>global_candidacy!F152</f>
-        <v>0</v>
-      </c>
-      <c r="G152" t="e">
+        <v>2021_04</v>
+      </c>
+      <c r="G152" t="str">
         <f>VLOOKUP(F152,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H152">
+        <v>Youth Vice President</v>
+      </c>
+      <c r="H152" t="str">
         <f>global_candidacy!G152</f>
-        <v>0</v>
-      </c>
-      <c r="I152" s="1" t="e">
+        <v>bal_krishna_acharya.jpg</v>
+      </c>
+      <c r="I152" s="1">
         <f>VLOOKUP($F152,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J152" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
         <f>VLOOKUP($F152,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K152" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
         <f>VLOOKUP($F152,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" t="str">
         <f>global_candidacy!B153</f>
-        <v>0</v>
-      </c>
-      <c r="B153" t="e">
+        <v>nrna_152</v>
+      </c>
+      <c r="B153" t="str">
         <f>VLOOKUP($A153,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C153">
+        <v>MT. LHOTSE (8516 M)</v>
+      </c>
+      <c r="C153" t="str">
         <f>global_candidacy!C153</f>
-        <v>0</v>
-      </c>
-      <c r="D153">
+        <v>2021_152</v>
+      </c>
+      <c r="D153" t="str">
         <f>global_candidacy!D153</f>
-        <v>0</v>
-      </c>
-      <c r="E153">
+        <v>2021_pr_152</v>
+      </c>
+      <c r="E153" t="str">
         <f>global_candidacy!E153</f>
-        <v>0</v>
-      </c>
-      <c r="F153">
+        <v>2021_su_152</v>
+      </c>
+      <c r="F153" t="str">
         <f>global_candidacy!F153</f>
-        <v>0</v>
-      </c>
-      <c r="G153" t="e">
+        <v>2021_06</v>
+      </c>
+      <c r="G153" t="str">
         <f>VLOOKUP(F153,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H153">
+        <v>Secretary</v>
+      </c>
+      <c r="H153" t="str">
         <f>global_candidacy!G153</f>
-        <v>0</v>
-      </c>
-      <c r="I153" s="1" t="e">
+        <v>mt-lhotse.jpg</v>
+      </c>
+      <c r="I153" s="1">
         <f>VLOOKUP($F153,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J153" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="J153" s="1">
         <f>VLOOKUP($F153,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K153" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1">
         <f>VLOOKUP($F153,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" t="str">
         <f>global_candidacy!B154</f>
-        <v>0</v>
-      </c>
-      <c r="B154" t="e">
+        <v>nrna_153</v>
+      </c>
+      <c r="B154" t="str">
         <f>VLOOKUP($A154,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C154">
+        <v>MT.  Makalu (8463 M)</v>
+      </c>
+      <c r="C154" t="str">
         <f>global_candidacy!C154</f>
-        <v>0</v>
-      </c>
-      <c r="D154">
+        <v>2021_153</v>
+      </c>
+      <c r="D154" t="str">
         <f>global_candidacy!D154</f>
-        <v>0</v>
-      </c>
-      <c r="E154">
+        <v>2021_pr_153</v>
+      </c>
+      <c r="E154" t="str">
         <f>global_candidacy!E154</f>
-        <v>0</v>
-      </c>
-      <c r="F154">
+        <v>2021_su_153</v>
+      </c>
+      <c r="F154" t="str">
         <f>global_candidacy!F154</f>
-        <v>0</v>
-      </c>
-      <c r="G154" t="e">
+        <v>2021_06</v>
+      </c>
+      <c r="G154" t="str">
         <f>VLOOKUP(F154,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H154">
+        <v>Secretary</v>
+      </c>
+      <c r="H154" t="str">
         <f>global_candidacy!G154</f>
-        <v>0</v>
-      </c>
-      <c r="I154" s="1" t="e">
+        <v>mt_makalu.jpg</v>
+      </c>
+      <c r="I154" s="1">
         <f>VLOOKUP($F154,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J154" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="J154" s="1">
         <f>VLOOKUP($F154,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K154" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1">
         <f>VLOOKUP($F154,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" t="str">
         <f>global_candidacy!B155</f>
-        <v>0</v>
-      </c>
-      <c r="B155" t="e">
+        <v>nrna_154</v>
+      </c>
+      <c r="B155" t="str">
         <f>VLOOKUP($A155,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C155">
+        <v>Phoksundo Lake</v>
+      </c>
+      <c r="C155" t="str">
         <f>global_candidacy!C155</f>
-        <v>0</v>
-      </c>
-      <c r="D155">
+        <v>2021_154</v>
+      </c>
+      <c r="D155" t="str">
         <f>global_candidacy!D155</f>
-        <v>0</v>
-      </c>
-      <c r="E155">
+        <v>2021_pr_154</v>
+      </c>
+      <c r="E155" t="str">
         <f>global_candidacy!E155</f>
-        <v>0</v>
-      </c>
-      <c r="F155">
+        <v>2021_su_154</v>
+      </c>
+      <c r="F155" t="str">
         <f>global_candidacy!F155</f>
-        <v>0</v>
-      </c>
-      <c r="G155" t="e">
+        <v>2021_07</v>
+      </c>
+      <c r="G155" t="str">
         <f>VLOOKUP(F155,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H155">
+        <v>Woman Secretary</v>
+      </c>
+      <c r="H155" t="str">
         <f>global_candidacy!G155</f>
-        <v>0</v>
-      </c>
-      <c r="I155" s="1" t="e">
+        <v>foksundo_lake.jpeg</v>
+      </c>
+      <c r="I155" s="1">
         <f>VLOOKUP($F155,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J155" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
         <f>VLOOKUP($F155,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K155" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K155" s="1">
         <f>VLOOKUP($F155,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" t="str">
         <f>global_candidacy!B156</f>
-        <v>0</v>
-      </c>
-      <c r="B156" t="e">
+        <v>nrna_155</v>
+      </c>
+      <c r="B156" t="str">
         <f>VLOOKUP($A156,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C156">
+        <v>Dhurmus Suntali Foundation</v>
+      </c>
+      <c r="C156" t="str">
         <f>global_candidacy!C156</f>
-        <v>0</v>
-      </c>
-      <c r="D156">
+        <v>2021_155</v>
+      </c>
+      <c r="D156" t="str">
         <f>global_candidacy!D156</f>
-        <v>0</v>
-      </c>
-      <c r="E156">
+        <v>2021_pr_155</v>
+      </c>
+      <c r="E156" t="str">
         <f>global_candidacy!E156</f>
-        <v>0</v>
-      </c>
-      <c r="F156">
+        <v>2021_su_155</v>
+      </c>
+      <c r="F156" t="str">
         <f>global_candidacy!F156</f>
-        <v>0</v>
-      </c>
-      <c r="G156" t="e">
+        <v>2021_09</v>
+      </c>
+      <c r="G156" t="str">
         <f>VLOOKUP(F156,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H156">
+        <v>Joint Treasurer</v>
+      </c>
+      <c r="H156" t="str">
         <f>global_candidacy!G156</f>
-        <v>0</v>
-      </c>
-      <c r="I156" s="1" t="e">
+        <v>dhurmus_suntali_foundation.jpg</v>
+      </c>
+      <c r="I156" s="1">
         <f>VLOOKUP($F156,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J156" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J156" s="1">
         <f>VLOOKUP($F156,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K156" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1">
         <f>VLOOKUP($F156,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" t="str">
         <f>global_candidacy!B157</f>
-        <v>0</v>
-      </c>
-      <c r="B157" t="e">
+        <v>nrna_156</v>
+      </c>
+      <c r="B157" t="str">
         <f>VLOOKUP($A157,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C157">
+        <v>Binod Chaudhary</v>
+      </c>
+      <c r="C157" t="str">
         <f>global_candidacy!C157</f>
-        <v>0</v>
-      </c>
-      <c r="D157">
+        <v>2021_156</v>
+      </c>
+      <c r="D157" t="str">
         <f>global_candidacy!D157</f>
-        <v>0</v>
-      </c>
-      <c r="E157">
+        <v>2021_pr_156</v>
+      </c>
+      <c r="E157" t="str">
         <f>global_candidacy!E157</f>
-        <v>0</v>
-      </c>
-      <c r="F157">
+        <v>2021_su_156</v>
+      </c>
+      <c r="F157" t="str">
         <f>global_candidacy!F157</f>
-        <v>0</v>
-      </c>
-      <c r="G157" t="e">
+        <v>2021_09</v>
+      </c>
+      <c r="G157" t="str">
         <f>VLOOKUP(F157,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H157">
+        <v>Joint Treasurer</v>
+      </c>
+      <c r="H157" t="str">
         <f>global_candidacy!G157</f>
-        <v>0</v>
-      </c>
-      <c r="I157" s="1" t="e">
+        <v>binod_chaudhary.jpg</v>
+      </c>
+      <c r="I157" s="1">
         <f>VLOOKUP($F157,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J157" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
         <f>VLOOKUP($F157,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K157" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K157" s="1">
         <f>VLOOKUP($F157,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" t="str">
         <f>global_candidacy!B158</f>
-        <v>0</v>
-      </c>
-      <c r="B158" t="e">
+        <v>nrna_157</v>
+      </c>
+      <c r="B158" t="str">
         <f>VLOOKUP($A158,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C158">
+        <v>Anil Keshari Shah</v>
+      </c>
+      <c r="C158" t="str">
         <f>global_candidacy!C158</f>
-        <v>0</v>
-      </c>
-      <c r="D158">
+        <v>2021_157</v>
+      </c>
+      <c r="D158" t="str">
         <f>global_candidacy!D158</f>
-        <v>0</v>
-      </c>
-      <c r="E158">
+        <v>2021_pr_157</v>
+      </c>
+      <c r="E158" t="str">
         <f>global_candidacy!E158</f>
-        <v>0</v>
-      </c>
-      <c r="F158">
+        <v>2021_su_157</v>
+      </c>
+      <c r="F158" t="str">
         <f>global_candidacy!F158</f>
-        <v>0</v>
-      </c>
-      <c r="G158" t="e">
+        <v>2021_09</v>
+      </c>
+      <c r="G158" t="str">
         <f>VLOOKUP(F158,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H158">
+        <v>Joint Treasurer</v>
+      </c>
+      <c r="H158" t="str">
         <f>global_candidacy!G158</f>
-        <v>0</v>
-      </c>
-      <c r="I158" s="1" t="e">
+        <v>anil_keshari_shah.jpg</v>
+      </c>
+      <c r="I158" s="1">
         <f>VLOOKUP($F158,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J158" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
         <f>VLOOKUP($F158,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K158" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
         <f>VLOOKUP($F158,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" t="str">
         <f>global_candidacy!B159</f>
-        <v>0</v>
-      </c>
-      <c r="B159" t="e">
+        <v>nrna_158</v>
+      </c>
+      <c r="B159" t="str">
         <f>VLOOKUP($A159,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C159">
+        <v xml:space="preserve">Kulman Ghising </v>
+      </c>
+      <c r="C159" t="str">
         <f>global_candidacy!C159</f>
-        <v>0</v>
-      </c>
-      <c r="D159">
+        <v>2021_158</v>
+      </c>
+      <c r="D159" t="str">
         <f>global_candidacy!D159</f>
-        <v>0</v>
-      </c>
-      <c r="E159">
+        <v>2021_pr_158</v>
+      </c>
+      <c r="E159" t="str">
         <f>global_candidacy!E159</f>
-        <v>0</v>
-      </c>
-      <c r="F159">
+        <v>2021_su_158</v>
+      </c>
+      <c r="F159" t="str">
         <f>global_candidacy!F159</f>
-        <v>0</v>
-      </c>
-      <c r="G159" t="e">
+        <v>2021_09</v>
+      </c>
+      <c r="G159" t="str">
         <f>VLOOKUP(F159,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H159">
+        <v>Joint Treasurer</v>
+      </c>
+      <c r="H159" t="str">
         <f>global_candidacy!G159</f>
-        <v>0</v>
-      </c>
-      <c r="I159" s="1" t="e">
+        <v>kul_man_ghising.jpg</v>
+      </c>
+      <c r="I159" s="1">
         <f>VLOOKUP($F159,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J159" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
         <f>VLOOKUP($F159,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K159" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1">
         <f>VLOOKUP($F159,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" t="str">
         <f>global_candidacy!B160</f>
-        <v>0</v>
-      </c>
-      <c r="B160" t="e">
+        <v>nrna_159</v>
+      </c>
+      <c r="B160" t="str">
         <f>VLOOKUP($A160,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C160">
+        <v>Ram Kumari Jhakri</v>
+      </c>
+      <c r="C160" t="str">
         <f>global_candidacy!C160</f>
-        <v>0</v>
-      </c>
-      <c r="D160">
+        <v>2021_159</v>
+      </c>
+      <c r="D160" t="str">
         <f>global_candidacy!D160</f>
-        <v>0</v>
-      </c>
-      <c r="E160">
+        <v>2021_pr_159</v>
+      </c>
+      <c r="E160" t="str">
         <f>global_candidacy!E160</f>
-        <v>0</v>
-      </c>
-      <c r="F160">
+        <v>2021_su_159</v>
+      </c>
+      <c r="F160" t="str">
         <f>global_candidacy!F160</f>
-        <v>0</v>
-      </c>
-      <c r="G160" t="e">
+        <v>2021_12</v>
+      </c>
+      <c r="G160" t="str">
         <f>VLOOKUP(F160,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H160">
+        <v>Youth Coordinator</v>
+      </c>
+      <c r="H160" t="str">
         <f>global_candidacy!G160</f>
-        <v>0</v>
-      </c>
-      <c r="I160" s="1" t="e">
+        <v>ram_kuamri_jhakri.jpg</v>
+      </c>
+      <c r="I160" s="1">
         <f>VLOOKUP($F160,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J160" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
         <f>VLOOKUP($F160,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K160" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K160" s="1">
         <f>VLOOKUP($F160,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" t="str">
         <f>global_candidacy!B161</f>
-        <v>0</v>
-      </c>
-      <c r="B161" t="e">
+        <v>nrna_160</v>
+      </c>
+      <c r="B161" t="str">
         <f>VLOOKUP($A161,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C161">
+        <v>Yogesh Kumar Bhattarai</v>
+      </c>
+      <c r="C161" t="str">
         <f>global_candidacy!C161</f>
-        <v>0</v>
-      </c>
-      <c r="D161">
+        <v>2021_160</v>
+      </c>
+      <c r="D161" t="str">
         <f>global_candidacy!D161</f>
-        <v>0</v>
-      </c>
-      <c r="E161">
+        <v>2021_pr_160</v>
+      </c>
+      <c r="E161" t="str">
         <f>global_candidacy!E161</f>
-        <v>0</v>
-      </c>
-      <c r="F161">
+        <v>2021_su_160</v>
+      </c>
+      <c r="F161" t="str">
         <f>global_candidacy!F161</f>
-        <v>0</v>
-      </c>
-      <c r="G161" t="e">
+        <v>2021_12</v>
+      </c>
+      <c r="G161" t="str">
         <f>VLOOKUP(F161,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H161">
+        <v>Youth Coordinator</v>
+      </c>
+      <c r="H161" t="str">
         <f>global_candidacy!G161</f>
-        <v>0</v>
-      </c>
-      <c r="I161" s="1" t="e">
+        <v>Yogesh-Bhattarai.jpg</v>
+      </c>
+      <c r="I161" s="1">
         <f>VLOOKUP($F161,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J161" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
         <f>VLOOKUP($F161,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K161" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K161" s="1">
         <f>VLOOKUP($F161,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" t="str">
         <f>global_candidacy!B162</f>
-        <v>0</v>
-      </c>
-      <c r="B162" t="e">
+        <v>nrna_161</v>
+      </c>
+      <c r="B162" t="str">
         <f>VLOOKUP($A162,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C162">
+        <v>Gangan Kumar Thapa</v>
+      </c>
+      <c r="C162" t="str">
         <f>global_candidacy!C162</f>
-        <v>0</v>
-      </c>
-      <c r="D162">
+        <v>2021_161</v>
+      </c>
+      <c r="D162" t="str">
         <f>global_candidacy!D162</f>
-        <v>0</v>
-      </c>
-      <c r="E162">
+        <v>2021_pr_161</v>
+      </c>
+      <c r="E162" t="str">
         <f>global_candidacy!E162</f>
-        <v>0</v>
-      </c>
-      <c r="F162">
+        <v>2021_su_161</v>
+      </c>
+      <c r="F162" t="str">
         <f>global_candidacy!F162</f>
-        <v>0</v>
-      </c>
-      <c r="G162" t="e">
+        <v>2021_12</v>
+      </c>
+      <c r="G162" t="str">
         <f>VLOOKUP(F162,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H162">
+        <v>Youth Coordinator</v>
+      </c>
+      <c r="H162" t="str">
         <f>global_candidacy!G162</f>
-        <v>0</v>
-      </c>
-      <c r="I162" s="1" t="e">
+        <v>gagan_thapa.jpg</v>
+      </c>
+      <c r="I162" s="1">
         <f>VLOOKUP($F162,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J162" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1">
         <f>VLOOKUP($F162,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K162" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K162" s="1">
         <f>VLOOKUP($F162,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" t="str">
         <f>global_candidacy!B163</f>
-        <v>0</v>
-      </c>
-      <c r="B163" t="e">
+        <v>nrna_162</v>
+      </c>
+      <c r="B163" t="str">
         <f>VLOOKUP($A163,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C163">
+        <v>Sandeep Lamichhane</v>
+      </c>
+      <c r="C163" t="str">
         <f>global_candidacy!C163</f>
-        <v>0</v>
-      </c>
-      <c r="D163">
+        <v>2021_162</v>
+      </c>
+      <c r="D163" t="str">
         <f>global_candidacy!D163</f>
-        <v>0</v>
-      </c>
-      <c r="E163">
+        <v>2021_pr_162</v>
+      </c>
+      <c r="E163" t="str">
         <f>global_candidacy!E163</f>
-        <v>0</v>
-      </c>
-      <c r="F163">
+        <v>2021_su_162</v>
+      </c>
+      <c r="F163" t="str">
         <f>global_candidacy!F163</f>
-        <v>0</v>
-      </c>
-      <c r="G163" t="e">
+        <v>2021_12</v>
+      </c>
+      <c r="G163" t="str">
         <f>VLOOKUP(F163,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H163">
+        <v>Youth Coordinator</v>
+      </c>
+      <c r="H163" t="str">
         <f>global_candidacy!G163</f>
-        <v>0</v>
-      </c>
-      <c r="I163" s="1" t="e">
+        <v>sandeep-lamichhane.jpg</v>
+      </c>
+      <c r="I163" s="1">
         <f>VLOOKUP($F163,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J163" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J163" s="1">
         <f>VLOOKUP($F163,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K163" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1">
         <f>VLOOKUP($F163,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" t="str">
         <f>global_candidacy!B164</f>
-        <v>0</v>
-      </c>
-      <c r="B164" t="e">
+        <v>nrna_163</v>
+      </c>
+      <c r="B164" t="str">
         <f>VLOOKUP($A164,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C164">
+        <v xml:space="preserve">Pradesh 1 </v>
+      </c>
+      <c r="C164" t="str">
         <f>global_candidacy!C164</f>
-        <v>0</v>
-      </c>
-      <c r="D164">
+        <v>2021_163</v>
+      </c>
+      <c r="D164" t="str">
         <f>global_candidacy!D164</f>
-        <v>0</v>
-      </c>
-      <c r="E164">
+        <v>2021_pr_163</v>
+      </c>
+      <c r="E164" t="str">
         <f>global_candidacy!E164</f>
-        <v>0</v>
-      </c>
-      <c r="F164">
+        <v>2021_su_163</v>
+      </c>
+      <c r="F164" t="str">
         <f>global_candidacy!F164</f>
-        <v>0</v>
-      </c>
-      <c r="G164" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G164" t="str">
         <f>VLOOKUP(F164,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H164">
+        <v>Treasurer</v>
+      </c>
+      <c r="H164" t="str">
         <f>global_candidacy!G164</f>
-        <v>0</v>
-      </c>
-      <c r="I164" s="1" t="e">
+        <v>province_01.jpg</v>
+      </c>
+      <c r="I164" s="1">
         <f>VLOOKUP($F164,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J164" s="1">
         <f>VLOOKUP($F164,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K164" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K164" s="1">
         <f>VLOOKUP($F164,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" t="str">
         <f>global_candidacy!B165</f>
-        <v>0</v>
-      </c>
-      <c r="B165" t="e">
+        <v>nrna_164</v>
+      </c>
+      <c r="B165" t="str">
         <f>VLOOKUP($A165,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C165">
+        <v>Pradesh 2</v>
+      </c>
+      <c r="C165" t="str">
         <f>global_candidacy!C165</f>
-        <v>0</v>
-      </c>
-      <c r="D165">
+        <v>2021_164</v>
+      </c>
+      <c r="D165" t="str">
         <f>global_candidacy!D165</f>
-        <v>0</v>
-      </c>
-      <c r="E165">
+        <v>2021_pr_164</v>
+      </c>
+      <c r="E165" t="str">
         <f>global_candidacy!E165</f>
-        <v>0</v>
-      </c>
-      <c r="F165">
+        <v>2021_su_164</v>
+      </c>
+      <c r="F165" t="str">
         <f>global_candidacy!F165</f>
-        <v>0</v>
-      </c>
-      <c r="G165" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G165" t="str">
         <f>VLOOKUP(F165,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H165">
+        <v>Treasurer</v>
+      </c>
+      <c r="H165" t="str">
         <f>global_candidacy!G165</f>
-        <v>0</v>
-      </c>
-      <c r="I165" s="1" t="e">
+        <v>province_02.jpg</v>
+      </c>
+      <c r="I165" s="1">
         <f>VLOOKUP($F165,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J165" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
         <f>VLOOKUP($F165,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K165" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1">
         <f>VLOOKUP($F165,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" t="str">
         <f>global_candidacy!B166</f>
-        <v>0</v>
-      </c>
-      <c r="B166" t="e">
+        <v>nrna_165</v>
+      </c>
+      <c r="B166" t="str">
         <f>VLOOKUP($A166,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C166">
+        <v>Pradesh 3</v>
+      </c>
+      <c r="C166" t="str">
         <f>global_candidacy!C166</f>
-        <v>0</v>
-      </c>
-      <c r="D166">
+        <v>2021_165</v>
+      </c>
+      <c r="D166" t="str">
         <f>global_candidacy!D166</f>
-        <v>0</v>
-      </c>
-      <c r="E166">
+        <v>2021_pr_165</v>
+      </c>
+      <c r="E166" t="str">
         <f>global_candidacy!E166</f>
-        <v>0</v>
-      </c>
-      <c r="F166">
+        <v>2021_su_165</v>
+      </c>
+      <c r="F166" t="str">
         <f>global_candidacy!F166</f>
-        <v>0</v>
-      </c>
-      <c r="G166" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G166" t="str">
         <f>VLOOKUP(F166,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H166">
+        <v>Treasurer</v>
+      </c>
+      <c r="H166" t="str">
         <f>global_candidacy!G166</f>
-        <v>0</v>
-      </c>
-      <c r="I166" s="1" t="e">
+        <v>province_03.png</v>
+      </c>
+      <c r="I166" s="1">
         <f>VLOOKUP($F166,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J166" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1">
         <f>VLOOKUP($F166,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K166" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K166" s="1">
         <f>VLOOKUP($F166,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" t="str">
         <f>global_candidacy!B167</f>
-        <v>0</v>
-      </c>
-      <c r="B167" t="e">
+        <v>nrna_166</v>
+      </c>
+      <c r="B167" t="str">
         <f>VLOOKUP($A167,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C167">
+        <v>Pradesh 4</v>
+      </c>
+      <c r="C167" t="str">
         <f>global_candidacy!C167</f>
-        <v>0</v>
-      </c>
-      <c r="D167">
+        <v>2021_166</v>
+      </c>
+      <c r="D167" t="str">
         <f>global_candidacy!D167</f>
-        <v>0</v>
-      </c>
-      <c r="E167">
+        <v>2021_pr_166</v>
+      </c>
+      <c r="E167" t="str">
         <f>global_candidacy!E167</f>
-        <v>0</v>
-      </c>
-      <c r="F167">
+        <v>2021_su_166</v>
+      </c>
+      <c r="F167" t="str">
         <f>global_candidacy!F167</f>
-        <v>0</v>
-      </c>
-      <c r="G167" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G167" t="str">
         <f>VLOOKUP(F167,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H167">
+        <v>Treasurer</v>
+      </c>
+      <c r="H167" t="str">
         <f>global_candidacy!G167</f>
-        <v>0</v>
-      </c>
-      <c r="I167" s="1" t="e">
+        <v>province_04.jpg</v>
+      </c>
+      <c r="I167" s="1">
         <f>VLOOKUP($F167,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J167" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1">
         <f>VLOOKUP($F167,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K167" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K167" s="1">
         <f>VLOOKUP($F167,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" t="str">
         <f>global_candidacy!B168</f>
-        <v>0</v>
-      </c>
-      <c r="B168" t="e">
+        <v>nrna_167</v>
+      </c>
+      <c r="B168" t="str">
         <f>VLOOKUP($A168,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C168">
+        <v>Pradesh 5</v>
+      </c>
+      <c r="C168" t="str">
         <f>global_candidacy!C168</f>
-        <v>0</v>
-      </c>
-      <c r="D168">
+        <v>2021_167</v>
+      </c>
+      <c r="D168" t="str">
         <f>global_candidacy!D168</f>
-        <v>0</v>
-      </c>
-      <c r="E168">
+        <v>2021_pr_167</v>
+      </c>
+      <c r="E168" t="str">
         <f>global_candidacy!E168</f>
-        <v>0</v>
-      </c>
-      <c r="F168">
+        <v>2021_su_167</v>
+      </c>
+      <c r="F168" t="str">
         <f>global_candidacy!F168</f>
-        <v>0</v>
-      </c>
-      <c r="G168" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G168" t="str">
         <f>VLOOKUP(F168,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H168">
+        <v>Treasurer</v>
+      </c>
+      <c r="H168" t="str">
         <f>global_candidacy!G168</f>
-        <v>0</v>
-      </c>
-      <c r="I168" s="1" t="e">
+        <v>province_05.jpg</v>
+      </c>
+      <c r="I168" s="1">
         <f>VLOOKUP($F168,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J168" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J168" s="1">
         <f>VLOOKUP($F168,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K168" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1">
         <f>VLOOKUP($F168,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" t="str">
         <f>global_candidacy!B169</f>
-        <v>0</v>
-      </c>
-      <c r="B169" t="e">
+        <v>nrna_168</v>
+      </c>
+      <c r="B169" t="str">
         <f>VLOOKUP($A169,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C169">
+        <v>Pradesh 6</v>
+      </c>
+      <c r="C169" t="str">
         <f>global_candidacy!C169</f>
-        <v>0</v>
-      </c>
-      <c r="D169">
+        <v>2021_168</v>
+      </c>
+      <c r="D169" t="str">
         <f>global_candidacy!D169</f>
-        <v>0</v>
-      </c>
-      <c r="E169">
+        <v>2021_pr_168</v>
+      </c>
+      <c r="E169" t="str">
         <f>global_candidacy!E169</f>
-        <v>0</v>
-      </c>
-      <c r="F169">
+        <v>2021_su_168</v>
+      </c>
+      <c r="F169" t="str">
         <f>global_candidacy!F169</f>
-        <v>0</v>
-      </c>
-      <c r="G169" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G169" t="str">
         <f>VLOOKUP(F169,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H169">
+        <v>Treasurer</v>
+      </c>
+      <c r="H169" t="str">
         <f>global_candidacy!G169</f>
-        <v>0</v>
-      </c>
-      <c r="I169" s="1" t="e">
+        <v>province_06.jpg</v>
+      </c>
+      <c r="I169" s="1">
         <f>VLOOKUP($F169,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J169" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J169" s="1">
         <f>VLOOKUP($F169,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K169" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K169" s="1">
         <f>VLOOKUP($F169,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" t="str">
         <f>global_candidacy!B170</f>
-        <v>0</v>
-      </c>
-      <c r="B170" t="e">
+        <v>nrna_169</v>
+      </c>
+      <c r="B170" t="str">
         <f>VLOOKUP($A170,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C170">
+        <v>Pradesh 7</v>
+      </c>
+      <c r="C170" t="str">
         <f>global_candidacy!C170</f>
-        <v>0</v>
-      </c>
-      <c r="D170">
+        <v>2021_169</v>
+      </c>
+      <c r="D170" t="str">
         <f>global_candidacy!D170</f>
-        <v>0</v>
-      </c>
-      <c r="E170">
+        <v>2021_pr_169</v>
+      </c>
+      <c r="E170" t="str">
         <f>global_candidacy!E170</f>
-        <v>0</v>
-      </c>
-      <c r="F170">
+        <v>2021_su_169</v>
+      </c>
+      <c r="F170" t="str">
         <f>global_candidacy!F170</f>
-        <v>0</v>
-      </c>
-      <c r="G170" t="e">
+        <v>2021_08</v>
+      </c>
+      <c r="G170" t="str">
         <f>VLOOKUP(F170,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H170">
+        <v>Treasurer</v>
+      </c>
+      <c r="H170" t="str">
         <f>global_candidacy!G170</f>
-        <v>0</v>
-      </c>
-      <c r="I170" s="1" t="e">
+        <v>province_07.jpg</v>
+      </c>
+      <c r="I170" s="1">
         <f>VLOOKUP($F170,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J170" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J170" s="1">
         <f>VLOOKUP($F170,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K170" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K170" s="1">
         <f>VLOOKUP($F170,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" t="str">
         <f>global_candidacy!B171</f>
-        <v>0</v>
-      </c>
-      <c r="B171" t="e">
+        <v>nrna_170</v>
+      </c>
+      <c r="B171" t="str">
         <f>VLOOKUP($A171,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C171">
+        <v>Barsha Man Pun</v>
+      </c>
+      <c r="C171" t="str">
         <f>global_candidacy!C171</f>
-        <v>0</v>
-      </c>
-      <c r="D171">
+        <v>2021_170</v>
+      </c>
+      <c r="D171" t="str">
         <f>global_candidacy!D171</f>
-        <v>0</v>
-      </c>
-      <c r="E171">
+        <v>2021_pr_170</v>
+      </c>
+      <c r="E171" t="str">
         <f>global_candidacy!E171</f>
-        <v>0</v>
-      </c>
-      <c r="F171">
+        <v>2021_su_170</v>
+      </c>
+      <c r="F171" t="str">
         <f>global_candidacy!F171</f>
-        <v>0</v>
-      </c>
-      <c r="G171" t="e">
+        <v>2021_12</v>
+      </c>
+      <c r="G171" t="str">
         <f>VLOOKUP(F171,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H171">
+        <v>Youth Coordinator</v>
+      </c>
+      <c r="H171" t="str">
         <f>global_candidacy!G171</f>
-        <v>0</v>
-      </c>
-      <c r="I171" s="1" t="e">
+        <v>barsha_man_pun.jpeg</v>
+      </c>
+      <c r="I171" s="1">
         <f>VLOOKUP($F171,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J171" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J171" s="1">
         <f>VLOOKUP($F171,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K171" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K171" s="1">
         <f>VLOOKUP($F171,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" t="str">
         <f>global_candidacy!B172</f>
-        <v>0</v>
-      </c>
-      <c r="B172" t="e">
+        <v>nrna_171</v>
+      </c>
+      <c r="B172" t="str">
         <f>VLOOKUP($A172,[1]global_candidates!$B$2:$H$296,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C172">
+        <v>Ambika Shrestha</v>
+      </c>
+      <c r="C172" t="str">
         <f>global_candidacy!C172</f>
-        <v>0</v>
-      </c>
-      <c r="D172">
+        <v>2021_171</v>
+      </c>
+      <c r="D172" t="str">
         <f>global_candidacy!D172</f>
-        <v>0</v>
-      </c>
-      <c r="E172">
+        <v>2021_pr_171</v>
+      </c>
+      <c r="E172" t="str">
         <f>global_candidacy!E172</f>
-        <v>0</v>
-      </c>
-      <c r="F172">
+        <v>2021_su_171</v>
+      </c>
+      <c r="F172" t="str">
         <f>global_candidacy!F172</f>
-        <v>0</v>
-      </c>
-      <c r="G172" t="e">
+        <v>2021_10</v>
+      </c>
+      <c r="G172" t="str">
         <f>VLOOKUP(F172,[2]global_posts!$B$2:$G$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H172">
+        <v>Women Joint Treasurer</v>
+      </c>
+      <c r="H172" t="str">
         <f>global_candidacy!G172</f>
-        <v>0</v>
-      </c>
-      <c r="I172" s="1" t="e">
+        <v>ambica_shrestha.jpg</v>
+      </c>
+      <c r="I172" s="1">
         <f>VLOOKUP($F172,[2]global_posts!$B$2:$G$100,4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J172" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J172" s="1">
         <f>VLOOKUP($F172,[2]global_posts!$B$2:$G$100,5,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K172" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="K172" s="1">
         <f>VLOOKUP($F172,[2]global_posts!$B$2:$G$100,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -22328,7 +23749,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K229"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -22339,7 +23759,7 @@
   <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -9018,8 +9018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9744,7 +9744,7 @@
         <v>2021_su_25</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -15170,11 +15170,11 @@
       </c>
       <c r="F26" t="str">
         <f>global_candidacy!F26</f>
-        <v>2021_15</v>
+        <v>2021_17</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(F26,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Coordinator Oceania</v>
+        <v>Regional Coordinator Middle East</v>
       </c>
       <c r="H26" t="str">
         <f>global_candidacy!G26</f>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="K26" s="1" t="str">
         <f>VLOOKUP($F26,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Oceania</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">uebersicht!$A$1:$K$229</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1034">
   <si>
     <t>user_id</t>
   </si>
@@ -3024,9 +3024,6 @@
     <t>Nirmal Purja</t>
   </si>
   <si>
-    <t>nikita-acharya.jpg</t>
-  </si>
-  <si>
     <t>doctors</t>
   </si>
   <si>
@@ -3100,6 +3097,42 @@
   </si>
   <si>
     <t>Hills</t>
+  </si>
+  <si>
+    <t>nikita_acharya.jpg</t>
+  </si>
+  <si>
+    <t>nawaraj_parajuli.jpg</t>
+  </si>
+  <si>
+    <t>bharat_mani_poudel.jpg</t>
+  </si>
+  <si>
+    <t>tara_devi1.jpg</t>
+  </si>
+  <si>
+    <t>nabin_k_bhattarai.jpg</t>
+  </si>
+  <si>
+    <t>rajendra_baniya.jpg</t>
+  </si>
+  <si>
+    <t>dil_bhusan_pathak.jpg</t>
+  </si>
+  <si>
+    <t>bhusan_dahal.jpg</t>
+  </si>
+  <si>
+    <t>Indra_Lohani.jpeg</t>
+  </si>
+  <si>
+    <t>yubaraj_ghimire.jpeg</t>
+  </si>
+  <si>
+    <t>ganga_maya_adhikari1.jpg</t>
+  </si>
+  <si>
+    <t>chari_maya_tamang.jpg</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +4518,7 @@
             <v>nrna_33</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Ek Rupaya</v>
+            <v>Nabin K Bhattarai</v>
           </cell>
           <cell r="D34" t="str">
             <v>test33@test.de</v>
@@ -7743,7 +7776,7 @@
             <v>nrna_174</v>
           </cell>
           <cell r="H175">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="176">
@@ -7766,7 +7799,7 @@
             <v>nrna_175</v>
           </cell>
           <cell r="H176">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="177">
@@ -7789,7 +7822,237 @@
             <v>nrna_176</v>
           </cell>
           <cell r="H177">
-            <v>3</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>nrna_177</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>Nawaraj Parajuli</v>
+          </cell>
+          <cell r="D178" t="str">
+            <v>test177@test.de</v>
+          </cell>
+          <cell r="E178" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F178">
+            <v>12345723</v>
+          </cell>
+          <cell r="G178" t="str">
+            <v>nrna_177</v>
+          </cell>
+          <cell r="H178">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>nrna_178</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>Bharat Mani  Poudel</v>
+          </cell>
+          <cell r="D179" t="str">
+            <v>test178@test.de</v>
+          </cell>
+          <cell r="E179" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F179">
+            <v>12345724</v>
+          </cell>
+          <cell r="G179" t="str">
+            <v>nrna_178</v>
+          </cell>
+          <cell r="H179">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>nrna_179</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v xml:space="preserve">Tara Devi </v>
+          </cell>
+          <cell r="D180" t="str">
+            <v>test179@test.de</v>
+          </cell>
+          <cell r="E180" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F180">
+            <v>12345724</v>
+          </cell>
+          <cell r="G180" t="str">
+            <v>nrna_179</v>
+          </cell>
+          <cell r="H180">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>nrna_180</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>Rajendra Baniya</v>
+          </cell>
+          <cell r="D181" t="str">
+            <v>test180@test.de</v>
+          </cell>
+          <cell r="E181" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F181">
+            <v>12345724</v>
+          </cell>
+          <cell r="G181" t="str">
+            <v>nrna_180</v>
+          </cell>
+          <cell r="H181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>nrna_181</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>Dil Bhusan Pathak</v>
+          </cell>
+          <cell r="D182" t="str">
+            <v>test181@test.de</v>
+          </cell>
+          <cell r="E182" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F182">
+            <v>12345724</v>
+          </cell>
+          <cell r="G182" t="str">
+            <v>nrna_181</v>
+          </cell>
+          <cell r="H182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>nrna_182</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>Bhusan Dahal</v>
+          </cell>
+          <cell r="D183" t="str">
+            <v>test182@test.de</v>
+          </cell>
+          <cell r="E183" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F183">
+            <v>12345724</v>
+          </cell>
+          <cell r="G183" t="str">
+            <v>nrna_182</v>
+          </cell>
+          <cell r="H183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>nrna_183</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>Indra Lohani</v>
+          </cell>
+          <cell r="D184" t="str">
+            <v>test183@test.de</v>
+          </cell>
+          <cell r="E184" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F184">
+            <v>12345724</v>
+          </cell>
+          <cell r="G184" t="str">
+            <v>nrna_183</v>
+          </cell>
+          <cell r="H184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>nrna_184</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>Yubaraj Ghimire</v>
+          </cell>
+          <cell r="D185" t="str">
+            <v>test184@test.de</v>
+          </cell>
+          <cell r="E185" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F185">
+            <v>12345724</v>
+          </cell>
+          <cell r="G185" t="str">
+            <v>nrna_184</v>
+          </cell>
+          <cell r="H185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>nrna_185</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>Ganga Maya Adhikari</v>
+          </cell>
+          <cell r="D186" t="str">
+            <v>test185@test.de</v>
+          </cell>
+          <cell r="E186" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F186">
+            <v>12345724</v>
+          </cell>
+          <cell r="G186" t="str">
+            <v>nrna_185</v>
+          </cell>
+          <cell r="H186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>nrna_186</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>Chari Maya Tamang</v>
+          </cell>
+          <cell r="D187" t="str">
+            <v>test186@test.de</v>
+          </cell>
+          <cell r="E187" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F187">
+            <v>12345724</v>
+          </cell>
+          <cell r="G187" t="str">
+            <v>nrna_186</v>
+          </cell>
+          <cell r="H187">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -9016,10 +9279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,10 +10231,10 @@
         <v>2021_su_33</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10080,7 +10343,7 @@
         <v>2021_su_37</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -10192,7 +10455,7 @@
         <v>2021_su_41</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G42" t="s">
         <v>55</v>
@@ -10920,7 +11183,7 @@
         <v>2021_su_67</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -10948,7 +11211,7 @@
         <v>2021_su_68</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
         <v>85</v>
@@ -10976,7 +11239,7 @@
         <v>2021_su_69</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="G70" t="s">
         <v>86</v>
@@ -11032,7 +11295,7 @@
         <v>2021_su_71</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
         <v>95</v>
@@ -11116,7 +11379,7 @@
         <v>2021_su_74</v>
       </c>
       <c r="F75" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -11144,7 +11407,7 @@
         <v>2021_su_75</v>
       </c>
       <c r="F76" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
         <v>99</v>
@@ -11172,7 +11435,7 @@
         <v>2021_su_76</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="G77" t="s">
         <v>100</v>
@@ -11228,7 +11491,7 @@
         <v>2021_su_78</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="G79" t="s">
         <v>102</v>
@@ -11256,7 +11519,7 @@
         <v>2021_su_79</v>
       </c>
       <c r="F80" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="G80" t="s">
         <v>103</v>
@@ -11592,7 +11855,7 @@
         <v>2021_su_91</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="G92" t="s">
         <v>142</v>
@@ -11648,7 +11911,7 @@
         <v>2021_su_93</v>
       </c>
       <c r="F94" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G94" t="s">
         <v>105</v>
@@ -11760,7 +12023,7 @@
         <v>2021_su_97</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G98" t="s">
         <v>119</v>
@@ -11788,7 +12051,7 @@
         <v>2021_su_98</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
         <v>120</v>
@@ -11816,7 +12079,7 @@
         <v>2021_su_99</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G100" t="s">
         <v>121</v>
@@ -11844,7 +12107,7 @@
         <v>2021_su_100</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
         <v>122</v>
@@ -11872,7 +12135,7 @@
         <v>2021_su_101</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
         <v>123</v>
@@ -11928,7 +12191,7 @@
         <v>2021_su_103</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
         <v>125</v>
@@ -12012,7 +12275,7 @@
         <v>2021_su_106</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G107" t="s">
         <v>128</v>
@@ -12068,7 +12331,7 @@
         <v>2021_su_108</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
         <v>141</v>
@@ -12124,7 +12387,7 @@
         <v>2021_su_110</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
         <v>137</v>
@@ -12152,7 +12415,7 @@
         <v>2021_su_111</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G112" t="s">
         <v>138</v>
@@ -12208,7 +12471,7 @@
         <v>2021_su_113</v>
       </c>
       <c r="F114" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="G114" t="s">
         <v>140</v>
@@ -12236,7 +12499,7 @@
         <v>2021_su_114</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
         <v>150</v>
@@ -12264,7 +12527,7 @@
         <v>2021_su_115</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G116" t="s">
         <v>151</v>
@@ -12460,7 +12723,7 @@
         <v>2021_su_122</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="G123" t="s">
         <v>160</v>
@@ -12516,7 +12779,7 @@
         <v>2021_su_124</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="G125" t="s">
         <v>162</v>
@@ -12544,7 +12807,7 @@
         <v>2021_su_125</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="G126" t="s">
         <v>163</v>
@@ -12600,7 +12863,7 @@
         <v>2021_su_127</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G128" t="s">
         <v>167</v>
@@ -12628,7 +12891,7 @@
         <v>2021_su_128</v>
       </c>
       <c r="F129" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="G129" t="s">
         <v>166</v>
@@ -12656,7 +12919,7 @@
         <v>2021_su_129</v>
       </c>
       <c r="F130" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G130" t="s">
         <v>165</v>
@@ -12684,7 +12947,7 @@
         <v>2021_su_130</v>
       </c>
       <c r="F131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G131" t="s">
         <v>168</v>
@@ -12696,19 +12959,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B177" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="B132:B187" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>nrna_131</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C177" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="C132:C187" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_131</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D177" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="D132:D187" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_pr_131</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E177" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="E132:E187" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_su_131</v>
       </c>
       <c r="F132" t="s">
@@ -12720,7 +12983,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A177" si="14">A132+1</f>
+        <f t="shared" ref="A133:A187" si="14">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -13076,7 +13339,7 @@
         <v>2021_su_144</v>
       </c>
       <c r="F145" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G145" t="s">
         <v>199</v>
@@ -13863,7 +14126,7 @@
         <v>189</v>
       </c>
       <c r="G173" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -13891,7 +14154,7 @@
         <v>94</v>
       </c>
       <c r="G174" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -13919,7 +14182,7 @@
         <v>94</v>
       </c>
       <c r="G175" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -13947,7 +14210,7 @@
         <v>94</v>
       </c>
       <c r="G176" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -13975,11 +14238,291 @@
         <v>94</v>
       </c>
       <c r="G177" t="s">
-        <v>1020</v>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_177</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_177</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_177</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_177</v>
+      </c>
+      <c r="F178" t="s">
+        <v>157</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_178</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_178</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_178</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_178</v>
+      </c>
+      <c r="F179" t="s">
+        <v>309</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_179</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_179</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_179</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_179</v>
+      </c>
+      <c r="F180" t="s">
+        <v>131</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_180</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_180</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_180</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_180</v>
+      </c>
+      <c r="F181" t="s">
+        <v>132</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_181</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_181</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_181</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_181</v>
+      </c>
+      <c r="F182" t="s">
+        <v>132</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_182</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_182</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_182</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_182</v>
+      </c>
+      <c r="F183" t="s">
+        <v>132</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_183</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_183</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_183</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_183</v>
+      </c>
+      <c r="F184" t="s">
+        <v>132</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_184</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_184</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_184</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_184</v>
+      </c>
+      <c r="F185" t="s">
+        <v>134</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_185</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_185</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_185</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_185</v>
+      </c>
+      <c r="F186" t="s">
+        <v>170</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_186</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_186</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_186</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_186</v>
+      </c>
+      <c r="F187" t="s">
+        <v>170</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G177"/>
+  <autoFilter ref="A1:G187"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -15522,7 +16065,7 @@
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP($A34,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>Ek Rupaya</v>
+        <v>Nabin K Bhattarai</v>
       </c>
       <c r="C34" t="str">
         <f>global_candidacy!C34</f>
@@ -15538,15 +16081,15 @@
       </c>
       <c r="F34" t="str">
         <f>global_candidacy!F34</f>
-        <v>2021_48</v>
+        <v>2021_32</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(F34,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy  Coordinator Americas</v>
       </c>
       <c r="H34" t="str">
         <f>global_candidacy!G34</f>
-        <v>rupaya_eka.jpg</v>
+        <v>nabin_k_bhattarai.jpg</v>
       </c>
       <c r="I34" s="1">
         <f>VLOOKUP($F34,[2]global_posts!$B$2:$G$100,4,0)</f>
@@ -15558,7 +16101,7 @@
       </c>
       <c r="K34" s="1" t="str">
         <f>VLOOKUP($F34,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -15722,11 +16265,11 @@
       </c>
       <c r="F38" t="str">
         <f>global_candidacy!F38</f>
-        <v>2021_09</v>
+        <v>2021_48</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(F38,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H38" t="str">
         <f>global_candidacy!G38</f>
@@ -15738,11 +16281,11 @@
       </c>
       <c r="J38" s="1">
         <f>VLOOKUP($F38,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="str">
         <f>VLOOKUP($F38,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -15906,11 +16449,11 @@
       </c>
       <c r="F42" t="str">
         <f>global_candidacy!F42</f>
-        <v>2021_10</v>
+        <v>2021_48</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(F42,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Women Joint Treasurer</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H42" t="str">
         <f>global_candidacy!G42</f>
@@ -15922,11 +16465,11 @@
       </c>
       <c r="J42" s="1">
         <f>VLOOKUP($F42,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="str">
         <f>VLOOKUP($F42,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>0</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17102,11 +17645,11 @@
       </c>
       <c r="F68" t="str">
         <f>global_candidacy!F68</f>
-        <v>2021_48</v>
+        <v>2021_31</v>
       </c>
       <c r="G68" t="str">
         <f>VLOOKUP(F68,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Europe</v>
       </c>
       <c r="H68" t="str">
         <f>global_candidacy!G68</f>
@@ -17114,7 +17657,7 @@
       </c>
       <c r="I68" s="1">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -17122,7 +17665,7 @@
       </c>
       <c r="K68" s="1" t="str">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -17148,11 +17691,11 @@
       </c>
       <c r="F69" t="str">
         <f>global_candidacy!F69</f>
-        <v>2021_40</v>
+        <v>2021_20</v>
       </c>
       <c r="G69" t="str">
         <f>VLOOKUP(F69,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Deputy Coordinator Asia Pacific</v>
+        <v>Regional Women Coordinator Americas</v>
       </c>
       <c r="H69" t="str">
         <f>global_candidacy!G69</f>
@@ -17168,7 +17711,7 @@
       </c>
       <c r="K69" s="1" t="str">
         <f>VLOOKUP($F69,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Asia Pacific</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -17194,11 +17737,11 @@
       </c>
       <c r="F70" t="str">
         <f>global_candidacy!F70</f>
-        <v>2021_41</v>
+        <v>2021_20</v>
       </c>
       <c r="G70" t="str">
         <f>VLOOKUP(F70,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Deputy Coordinator Middle East</v>
+        <v>Regional Women Coordinator Americas</v>
       </c>
       <c r="H70" t="str">
         <f>global_candidacy!G70</f>
@@ -17214,7 +17757,7 @@
       </c>
       <c r="K70" s="1" t="str">
         <f>VLOOKUP($F70,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -17286,11 +17829,11 @@
       </c>
       <c r="F72" t="str">
         <f>global_candidacy!F72</f>
-        <v>2021_48</v>
+        <v>2021_22</v>
       </c>
       <c r="G72" t="str">
         <f>VLOOKUP(F72,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Asia Pacific</v>
       </c>
       <c r="H72" t="str">
         <f>global_candidacy!G72</f>
@@ -17306,7 +17849,7 @@
       </c>
       <c r="K72" s="1" t="str">
         <f>VLOOKUP($F72,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -17424,11 +17967,11 @@
       </c>
       <c r="F75" t="str">
         <f>global_candidacy!F75</f>
-        <v>2021_48</v>
+        <v>2021_22</v>
       </c>
       <c r="G75" t="str">
         <f>VLOOKUP(F75,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Asia Pacific</v>
       </c>
       <c r="H75" t="str">
         <f>global_candidacy!G75</f>
@@ -17444,7 +17987,7 @@
       </c>
       <c r="K75" s="1" t="str">
         <f>VLOOKUP($F75,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -17470,11 +18013,11 @@
       </c>
       <c r="F76" t="str">
         <f>global_candidacy!F76</f>
-        <v>2021_48</v>
+        <v>2021_20</v>
       </c>
       <c r="G76" t="str">
         <f>VLOOKUP(F76,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Americas</v>
       </c>
       <c r="H76" t="str">
         <f>global_candidacy!G76</f>
@@ -17490,7 +18033,7 @@
       </c>
       <c r="K76" s="1" t="str">
         <f>VLOOKUP($F76,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -17516,11 +18059,11 @@
       </c>
       <c r="F77" t="str">
         <f>global_candidacy!F77</f>
-        <v>2021_48</v>
+        <v>2021_34</v>
       </c>
       <c r="G77" t="str">
         <f>VLOOKUP(F77,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Asia Pacific</v>
       </c>
       <c r="H77" t="str">
         <f>global_candidacy!G77</f>
@@ -17536,7 +18079,7 @@
       </c>
       <c r="K77" s="1" t="str">
         <f>VLOOKUP($F77,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -17608,11 +18151,11 @@
       </c>
       <c r="F79" t="str">
         <f>global_candidacy!F79</f>
-        <v>2021_48</v>
+        <v>2021_34</v>
       </c>
       <c r="G79" t="str">
         <f>VLOOKUP(F79,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Asia Pacific</v>
       </c>
       <c r="H79" t="str">
         <f>global_candidacy!G79</f>
@@ -17628,7 +18171,7 @@
       </c>
       <c r="K79" s="1" t="str">
         <f>VLOOKUP($F79,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -17654,11 +18197,11 @@
       </c>
       <c r="F80" t="str">
         <f>global_candidacy!F80</f>
-        <v>2021_48</v>
+        <v>2021_34</v>
       </c>
       <c r="G80" t="str">
         <f>VLOOKUP(F80,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Asia Pacific</v>
       </c>
       <c r="H80" t="str">
         <f>global_candidacy!G80</f>
@@ -17674,7 +18217,7 @@
       </c>
       <c r="K80" s="1" t="str">
         <f>VLOOKUP($F80,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18206,11 +18749,11 @@
       </c>
       <c r="F92" t="str">
         <f>global_candidacy!F92</f>
-        <v>2021_48</v>
+        <v>2021_23</v>
       </c>
       <c r="G92" t="str">
         <f>VLOOKUP(F92,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Middle East</v>
       </c>
       <c r="H92" t="str">
         <f>global_candidacy!G92</f>
@@ -18226,7 +18769,7 @@
       </c>
       <c r="K92" s="1" t="str">
         <f>VLOOKUP($F92,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -18298,11 +18841,11 @@
       </c>
       <c r="F94" t="str">
         <f>global_candidacy!F94</f>
-        <v>2021_48</v>
+        <v>2021_22</v>
       </c>
       <c r="G94" t="str">
         <f>VLOOKUP(F94,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Asia Pacific</v>
       </c>
       <c r="H94" t="str">
         <f>global_candidacy!G94</f>
@@ -18318,7 +18861,7 @@
       </c>
       <c r="K94" s="1" t="str">
         <f>VLOOKUP($F94,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -18482,11 +19025,11 @@
       </c>
       <c r="F98" t="str">
         <f>global_candidacy!F98</f>
-        <v>2021_32</v>
+        <v>2021_35</v>
       </c>
       <c r="G98" t="str">
         <f>VLOOKUP(F98,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy  Coordinator Americas</v>
+        <v>Regional Deputy Coordinator Middle East</v>
       </c>
       <c r="H98" t="str">
         <f>global_candidacy!G98</f>
@@ -18502,7 +19045,7 @@
       </c>
       <c r="K98" s="1" t="str">
         <f>VLOOKUP($F98,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -18528,11 +19071,11 @@
       </c>
       <c r="F99" t="str">
         <f>global_candidacy!F99</f>
-        <v>2021_33</v>
+        <v>2021_35</v>
       </c>
       <c r="G99" t="str">
         <f>VLOOKUP(F99,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Oceania</v>
+        <v>Regional Deputy Coordinator Middle East</v>
       </c>
       <c r="H99" t="str">
         <f>global_candidacy!G99</f>
@@ -18540,7 +19083,7 @@
       </c>
       <c r="I99" s="1">
         <f>VLOOKUP($F99,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" s="1">
         <f>VLOOKUP($F99,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -18548,7 +19091,7 @@
       </c>
       <c r="K99" s="1" t="str">
         <f>VLOOKUP($F99,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Oceania</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -18574,11 +19117,11 @@
       </c>
       <c r="F100" t="str">
         <f>global_candidacy!F100</f>
-        <v>2021_34</v>
+        <v>2021_35</v>
       </c>
       <c r="G100" t="str">
         <f>VLOOKUP(F100,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Asia Pacific</v>
+        <v>Regional Deputy Coordinator Middle East</v>
       </c>
       <c r="H100" t="str">
         <f>global_candidacy!G100</f>
@@ -18594,7 +19137,7 @@
       </c>
       <c r="K100" s="1" t="str">
         <f>VLOOKUP($F100,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Asia Pacific</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -18620,11 +19163,11 @@
       </c>
       <c r="F101" t="str">
         <f>global_candidacy!F101</f>
-        <v>2021_35</v>
+        <v>2021_24</v>
       </c>
       <c r="G101" t="str">
         <f>VLOOKUP(F101,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Middle East</v>
+        <v>Regional Women Coordinator Africa</v>
       </c>
       <c r="H101" t="str">
         <f>global_candidacy!G101</f>
@@ -18640,7 +19183,7 @@
       </c>
       <c r="K101" s="1" t="str">
         <f>VLOOKUP($F101,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -18666,11 +19209,11 @@
       </c>
       <c r="F102" t="str">
         <f>global_candidacy!F102</f>
-        <v>2021_48</v>
+        <v>2021_33</v>
       </c>
       <c r="G102" t="str">
         <f>VLOOKUP(F102,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Oceania</v>
       </c>
       <c r="H102" t="str">
         <f>global_candidacy!G102</f>
@@ -18678,7 +19221,7 @@
       </c>
       <c r="I102" s="1">
         <f>VLOOKUP($F102,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" s="1">
         <f>VLOOKUP($F102,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -18686,7 +19229,7 @@
       </c>
       <c r="K102" s="1" t="str">
         <f>VLOOKUP($F102,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -18758,11 +19301,11 @@
       </c>
       <c r="F104" t="str">
         <f>global_candidacy!F104</f>
-        <v>2021_32</v>
+        <v>2021_31</v>
       </c>
       <c r="G104" t="str">
         <f>VLOOKUP(F104,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy  Coordinator Americas</v>
+        <v>Regional Deputy Coordinator Europe</v>
       </c>
       <c r="H104" t="str">
         <f>global_candidacy!G104</f>
@@ -18770,7 +19313,7 @@
       </c>
       <c r="I104" s="1">
         <f>VLOOKUP($F104,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" s="1">
         <f>VLOOKUP($F104,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -18778,7 +19321,7 @@
       </c>
       <c r="K104" s="1" t="str">
         <f>VLOOKUP($F104,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -18896,11 +19439,11 @@
       </c>
       <c r="F107" t="str">
         <f>global_candidacy!F107</f>
-        <v>2021_35</v>
+        <v>2021_31</v>
       </c>
       <c r="G107" t="str">
         <f>VLOOKUP(F107,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Middle East</v>
+        <v>Regional Deputy Coordinator Europe</v>
       </c>
       <c r="H107" t="str">
         <f>global_candidacy!G107</f>
@@ -18908,7 +19451,7 @@
       </c>
       <c r="I107" s="1">
         <f>VLOOKUP($F107,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" s="1">
         <f>VLOOKUP($F107,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -18916,7 +19459,7 @@
       </c>
       <c r="K107" s="1" t="str">
         <f>VLOOKUP($F107,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -18988,11 +19531,11 @@
       </c>
       <c r="F109" t="str">
         <f>global_candidacy!F109</f>
-        <v>2021_31</v>
+        <v>2021_32</v>
       </c>
       <c r="G109" t="str">
         <f>VLOOKUP(F109,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Europe</v>
+        <v>Regional Deputy  Coordinator Americas</v>
       </c>
       <c r="H109" t="str">
         <f>global_candidacy!G109</f>
@@ -19000,7 +19543,7 @@
       </c>
       <c r="I109" s="1">
         <f>VLOOKUP($F109,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" s="1">
         <f>VLOOKUP($F109,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -19008,7 +19551,7 @@
       </c>
       <c r="K109" s="1" t="str">
         <f>VLOOKUP($F109,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Europe</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19080,11 +19623,11 @@
       </c>
       <c r="F111" t="str">
         <f>global_candidacy!F111</f>
-        <v>2021_33</v>
+        <v>2021_32</v>
       </c>
       <c r="G111" t="str">
         <f>VLOOKUP(F111,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Oceania</v>
+        <v>Regional Deputy  Coordinator Americas</v>
       </c>
       <c r="H111" t="str">
         <f>global_candidacy!G111</f>
@@ -19092,7 +19635,7 @@
       </c>
       <c r="I111" s="1">
         <f>VLOOKUP($F111,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="1">
         <f>VLOOKUP($F111,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -19100,7 +19643,7 @@
       </c>
       <c r="K111" s="1" t="str">
         <f>VLOOKUP($F111,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Oceania</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19126,11 +19669,11 @@
       </c>
       <c r="F112" t="str">
         <f>global_candidacy!F112</f>
-        <v>2021_34</v>
+        <v>2021_23</v>
       </c>
       <c r="G112" t="str">
         <f>VLOOKUP(F112,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Asia Pacific</v>
+        <v>Regional Women Coordinator Middle East</v>
       </c>
       <c r="H112" t="str">
         <f>global_candidacy!G112</f>
@@ -19146,7 +19689,7 @@
       </c>
       <c r="K112" s="1" t="str">
         <f>VLOOKUP($F112,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Asia Pacific</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -19218,11 +19761,11 @@
       </c>
       <c r="F114" t="str">
         <f>global_candidacy!F114</f>
-        <v>2021_48</v>
+        <v>2021_23</v>
       </c>
       <c r="G114" t="str">
         <f>VLOOKUP(F114,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Coordinator Middle East</v>
       </c>
       <c r="H114" t="str">
         <f>global_candidacy!G114</f>
@@ -19238,7 +19781,7 @@
       </c>
       <c r="K114" s="1" t="str">
         <f>VLOOKUP($F114,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -19264,11 +19807,11 @@
       </c>
       <c r="F115" t="str">
         <f>global_candidacy!F115</f>
-        <v>2021_19</v>
+        <v>2021_34</v>
       </c>
       <c r="G115" t="str">
         <f>VLOOKUP(F115,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Coordinator Europe</v>
+        <v>Regional Deputy Coordinator Asia Pacific</v>
       </c>
       <c r="H115" t="str">
         <f>global_candidacy!G115</f>
@@ -19284,7 +19827,7 @@
       </c>
       <c r="K115" s="1" t="str">
         <f>VLOOKUP($F115,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Europe</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -19310,11 +19853,11 @@
       </c>
       <c r="F116" t="str">
         <f>global_candidacy!F116</f>
-        <v>2021_20</v>
+        <v>2021_22</v>
       </c>
       <c r="G116" t="str">
         <f>VLOOKUP(F116,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Coordinator Americas</v>
+        <v>Regional Women Coordinator Asia Pacific</v>
       </c>
       <c r="H116" t="str">
         <f>global_candidacy!G116</f>
@@ -19330,7 +19873,7 @@
       </c>
       <c r="K116" s="1" t="str">
         <f>VLOOKUP($F116,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -19632,11 +20175,11 @@
       </c>
       <c r="F123" t="str">
         <f>global_candidacy!F123</f>
-        <v>2021_32</v>
+        <v>2021_40</v>
       </c>
       <c r="G123" t="str">
         <f>VLOOKUP(F123,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy  Coordinator Americas</v>
+        <v>Regional Women Deputy Coordinator Asia Pacific</v>
       </c>
       <c r="H123" t="str">
         <f>global_candidacy!G123</f>
@@ -19652,7 +20195,7 @@
       </c>
       <c r="K123" s="1" t="str">
         <f>VLOOKUP($F123,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -19724,11 +20267,11 @@
       </c>
       <c r="F125" t="str">
         <f>global_candidacy!F125</f>
-        <v>2021_20</v>
+        <v>2021_48</v>
       </c>
       <c r="G125" t="str">
         <f>VLOOKUP(F125,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Coordinator Americas</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H125" t="str">
         <f>global_candidacy!G125</f>
@@ -19744,7 +20287,7 @@
       </c>
       <c r="K125" s="1" t="str">
         <f>VLOOKUP($F125,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -19770,11 +20313,11 @@
       </c>
       <c r="F126" t="str">
         <f>global_candidacy!F126</f>
-        <v>2021_22</v>
+        <v>2021_48</v>
       </c>
       <c r="G126" t="str">
         <f>VLOOKUP(F126,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Coordinator Asia Pacific</v>
+        <v>Regional Youth Deputy Coordinator Africa</v>
       </c>
       <c r="H126" t="str">
         <f>global_candidacy!G126</f>
@@ -19790,7 +20333,7 @@
       </c>
       <c r="K126" s="1" t="str">
         <f>VLOOKUP($F126,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Asia Pacific</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -19862,11 +20405,11 @@
       </c>
       <c r="F128" t="str">
         <f>global_candidacy!F128</f>
-        <v>2021_37</v>
+        <v>2021_38</v>
       </c>
       <c r="G128" t="str">
         <f>VLOOKUP(F128,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Deputy Coordinator Europe</v>
+        <v>Regional Women Deputy Coordinator Americas</v>
       </c>
       <c r="H128" t="str">
         <f>global_candidacy!G128</f>
@@ -19882,7 +20425,7 @@
       </c>
       <c r="K128" s="1" t="str">
         <f>VLOOKUP($F128,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Europe</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -19908,11 +20451,11 @@
       </c>
       <c r="F129" t="str">
         <f>global_candidacy!F129</f>
-        <v>2021_25</v>
+        <v>2021_30</v>
       </c>
       <c r="G129" t="str">
         <f>VLOOKUP(F129,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Coordinator Europe</v>
+        <v>Regional Youth Coordinator Africa</v>
       </c>
       <c r="H129" t="str">
         <f>global_candidacy!G129</f>
@@ -19928,7 +20471,7 @@
       </c>
       <c r="K129" s="1" t="str">
         <f>VLOOKUP($F129,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Europe</v>
+        <v>Afria</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -19954,11 +20497,11 @@
       </c>
       <c r="F130" t="str">
         <f>global_candidacy!F130</f>
-        <v>2021_48</v>
+        <v>2021_37</v>
       </c>
       <c r="G130" t="str">
         <f>VLOOKUP(F130,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Women Deputy Coordinator Europe</v>
       </c>
       <c r="H130" t="str">
         <f>global_candidacy!G130</f>
@@ -19974,7 +20517,7 @@
       </c>
       <c r="K130" s="1" t="str">
         <f>VLOOKUP($F130,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -20000,11 +20543,11 @@
       </c>
       <c r="F131" t="str">
         <f>global_candidacy!F131</f>
-        <v>2021_38</v>
+        <v>2021_37</v>
       </c>
       <c r="G131" t="str">
         <f>VLOOKUP(F131,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Deputy Coordinator Americas</v>
+        <v>Regional Women Deputy Coordinator Europe</v>
       </c>
       <c r="H131" t="str">
         <f>global_candidacy!G131</f>
@@ -20020,7 +20563,7 @@
       </c>
       <c r="K131" s="1" t="str">
         <f>VLOOKUP($F131,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -20644,11 +21187,11 @@
       </c>
       <c r="F145" t="str">
         <f>global_candidacy!F145</f>
-        <v>2021_48</v>
+        <v>2021_31</v>
       </c>
       <c r="G145" t="str">
         <f>VLOOKUP(F145,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Deputy Coordinator Europe</v>
       </c>
       <c r="H145" t="str">
         <f>global_candidacy!G145</f>
@@ -20656,7 +21199,7 @@
       </c>
       <c r="I145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" s="1">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,5,0)</f>
@@ -20664,7 +21207,7 @@
       </c>
       <c r="K145" s="1" t="str">
         <f>VLOOKUP($F145,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -21940,7 +22483,7 @@
       </c>
       <c r="H173" t="str">
         <f>global_candidacy!G173</f>
-        <v>nikita-acharya.jpg</v>
+        <v>nikita_acharya.jpg</v>
       </c>
       <c r="I173" s="1">
         <f>VLOOKUP($F173,[2]global_posts!$B$2:$G$100,4,0)</f>
@@ -22140,463 +22683,463 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" t="str">
         <f>global_candidacy!B178</f>
-        <v>0</v>
-      </c>
-      <c r="B178" t="e">
+        <v>nrna_177</v>
+      </c>
+      <c r="B178" t="str">
         <f>VLOOKUP($A178,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C178">
+        <v>Nawaraj Parajuli</v>
+      </c>
+      <c r="C178" t="str">
         <f>global_candidacy!C178</f>
-        <v>0</v>
-      </c>
-      <c r="D178">
+        <v>2021_177</v>
+      </c>
+      <c r="D178" t="str">
         <f>global_candidacy!D178</f>
-        <v>0</v>
-      </c>
-      <c r="E178">
+        <v>2021_pr_177</v>
+      </c>
+      <c r="E178" t="str">
         <f>global_candidacy!E178</f>
-        <v>0</v>
-      </c>
-      <c r="F178">
+        <v>2021_su_177</v>
+      </c>
+      <c r="F178" t="str">
         <f>global_candidacy!F178</f>
-        <v>0</v>
-      </c>
-      <c r="G178" t="e">
+        <v>2021_25</v>
+      </c>
+      <c r="G178" t="str">
         <f>VLOOKUP(F178,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H178">
+        <v>Regional Youth Coordinator Europe</v>
+      </c>
+      <c r="H178" t="str">
         <f>global_candidacy!G178</f>
-        <v>0</v>
-      </c>
-      <c r="I178" s="1" t="e">
+        <v>nawaraj_parajuli.jpg</v>
+      </c>
+      <c r="I178" s="1">
         <f>VLOOKUP($F178,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J178" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J178" s="1">
         <f>VLOOKUP($F178,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K178" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1" t="str">
         <f>VLOOKUP($F178,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" t="str">
         <f>global_candidacy!B179</f>
-        <v>0</v>
-      </c>
-      <c r="B179" t="e">
+        <v>nrna_178</v>
+      </c>
+      <c r="B179" t="str">
         <f>VLOOKUP($A179,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C179">
+        <v>Bharat Mani  Poudel</v>
+      </c>
+      <c r="C179" t="str">
         <f>global_candidacy!C179</f>
-        <v>0</v>
-      </c>
-      <c r="D179">
+        <v>2021_178</v>
+      </c>
+      <c r="D179" t="str">
         <f>global_candidacy!D179</f>
-        <v>0</v>
-      </c>
-      <c r="E179">
+        <v>2021_pr_178</v>
+      </c>
+      <c r="E179" t="str">
         <f>global_candidacy!E179</f>
-        <v>0</v>
-      </c>
-      <c r="F179">
+        <v>2021_su_178</v>
+      </c>
+      <c r="F179" t="str">
         <f>global_candidacy!F179</f>
-        <v>0</v>
-      </c>
-      <c r="G179" t="e">
+        <v>2021_26</v>
+      </c>
+      <c r="G179" t="str">
         <f>VLOOKUP(F179,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H179">
+        <v>Regional Youth Coordinator Americas</v>
+      </c>
+      <c r="H179" t="str">
         <f>global_candidacy!G179</f>
-        <v>0</v>
-      </c>
-      <c r="I179" s="1" t="e">
+        <v>bharat_mani_poudel.jpg</v>
+      </c>
+      <c r="I179" s="1">
         <f>VLOOKUP($F179,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J179" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J179" s="1">
         <f>VLOOKUP($F179,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K179" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1" t="str">
         <f>VLOOKUP($F179,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" t="str">
         <f>global_candidacy!B180</f>
-        <v>0</v>
-      </c>
-      <c r="B180" t="e">
+        <v>nrna_179</v>
+      </c>
+      <c r="B180" t="str">
         <f>VLOOKUP($A180,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C180">
+        <v xml:space="preserve">Tara Devi </v>
+      </c>
+      <c r="C180" t="str">
         <f>global_candidacy!C180</f>
-        <v>0</v>
-      </c>
-      <c r="D180">
+        <v>2021_179</v>
+      </c>
+      <c r="D180" t="str">
         <f>global_candidacy!D180</f>
-        <v>0</v>
-      </c>
-      <c r="E180">
+        <v>2021_pr_179</v>
+      </c>
+      <c r="E180" t="str">
         <f>global_candidacy!E180</f>
-        <v>0</v>
-      </c>
-      <c r="F180">
+        <v>2021_su_179</v>
+      </c>
+      <c r="F180" t="str">
         <f>global_candidacy!F180</f>
-        <v>0</v>
-      </c>
-      <c r="G180" t="e">
+        <v>2021_32</v>
+      </c>
+      <c r="G180" t="str">
         <f>VLOOKUP(F180,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H180">
+        <v>Regional Deputy  Coordinator Americas</v>
+      </c>
+      <c r="H180" t="str">
         <f>global_candidacy!G180</f>
-        <v>0</v>
-      </c>
-      <c r="I180" s="1" t="e">
+        <v>tara_devi1.jpg</v>
+      </c>
+      <c r="I180" s="1">
         <f>VLOOKUP($F180,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J180" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J180" s="1">
         <f>VLOOKUP($F180,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K180" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1" t="str">
         <f>VLOOKUP($F180,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" t="str">
         <f>global_candidacy!B181</f>
-        <v>0</v>
-      </c>
-      <c r="B181" t="e">
+        <v>nrna_180</v>
+      </c>
+      <c r="B181" t="str">
         <f>VLOOKUP($A181,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C181">
+        <v>Rajendra Baniya</v>
+      </c>
+      <c r="C181" t="str">
         <f>global_candidacy!C181</f>
-        <v>0</v>
-      </c>
-      <c r="D181">
+        <v>2021_180</v>
+      </c>
+      <c r="D181" t="str">
         <f>global_candidacy!D181</f>
-        <v>0</v>
-      </c>
-      <c r="E181">
+        <v>2021_pr_180</v>
+      </c>
+      <c r="E181" t="str">
         <f>global_candidacy!E181</f>
-        <v>0</v>
-      </c>
-      <c r="F181">
+        <v>2021_su_180</v>
+      </c>
+      <c r="F181" t="str">
         <f>global_candidacy!F181</f>
-        <v>0</v>
-      </c>
-      <c r="G181" t="e">
+        <v>2021_33</v>
+      </c>
+      <c r="G181" t="str">
         <f>VLOOKUP(F181,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H181">
+        <v>Regional Deputy Coordinator Oceania</v>
+      </c>
+      <c r="H181" t="str">
         <f>global_candidacy!G181</f>
-        <v>0</v>
-      </c>
-      <c r="I181" s="1" t="e">
+        <v>rajendra_baniya.jpg</v>
+      </c>
+      <c r="I181" s="1">
         <f>VLOOKUP($F181,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J181" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="J181" s="1">
         <f>VLOOKUP($F181,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K181" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1" t="str">
         <f>VLOOKUP($F181,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" t="str">
         <f>global_candidacy!B182</f>
-        <v>0</v>
-      </c>
-      <c r="B182" t="e">
+        <v>nrna_181</v>
+      </c>
+      <c r="B182" t="str">
         <f>VLOOKUP($A182,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C182">
+        <v>Dil Bhusan Pathak</v>
+      </c>
+      <c r="C182" t="str">
         <f>global_candidacy!C182</f>
-        <v>0</v>
-      </c>
-      <c r="D182">
+        <v>2021_181</v>
+      </c>
+      <c r="D182" t="str">
         <f>global_candidacy!D182</f>
-        <v>0</v>
-      </c>
-      <c r="E182">
+        <v>2021_pr_181</v>
+      </c>
+      <c r="E182" t="str">
         <f>global_candidacy!E182</f>
-        <v>0</v>
-      </c>
-      <c r="F182">
+        <v>2021_su_181</v>
+      </c>
+      <c r="F182" t="str">
         <f>global_candidacy!F182</f>
-        <v>0</v>
-      </c>
-      <c r="G182" t="e">
+        <v>2021_33</v>
+      </c>
+      <c r="G182" t="str">
         <f>VLOOKUP(F182,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H182">
+        <v>Regional Deputy Coordinator Oceania</v>
+      </c>
+      <c r="H182" t="str">
         <f>global_candidacy!G182</f>
-        <v>0</v>
-      </c>
-      <c r="I182" s="1" t="e">
+        <v>dil_bhusan_pathak.jpg</v>
+      </c>
+      <c r="I182" s="1">
         <f>VLOOKUP($F182,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J182" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="J182" s="1">
         <f>VLOOKUP($F182,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K182" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1" t="str">
         <f>VLOOKUP($F182,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" t="str">
         <f>global_candidacy!B183</f>
-        <v>0</v>
-      </c>
-      <c r="B183" t="e">
+        <v>nrna_182</v>
+      </c>
+      <c r="B183" t="str">
         <f>VLOOKUP($A183,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C183">
+        <v>Bhusan Dahal</v>
+      </c>
+      <c r="C183" t="str">
         <f>global_candidacy!C183</f>
-        <v>0</v>
-      </c>
-      <c r="D183">
+        <v>2021_182</v>
+      </c>
+      <c r="D183" t="str">
         <f>global_candidacy!D183</f>
-        <v>0</v>
-      </c>
-      <c r="E183">
+        <v>2021_pr_182</v>
+      </c>
+      <c r="E183" t="str">
         <f>global_candidacy!E183</f>
-        <v>0</v>
-      </c>
-      <c r="F183">
+        <v>2021_su_182</v>
+      </c>
+      <c r="F183" t="str">
         <f>global_candidacy!F183</f>
-        <v>0</v>
-      </c>
-      <c r="G183" t="e">
+        <v>2021_33</v>
+      </c>
+      <c r="G183" t="str">
         <f>VLOOKUP(F183,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H183">
+        <v>Regional Deputy Coordinator Oceania</v>
+      </c>
+      <c r="H183" t="str">
         <f>global_candidacy!G183</f>
-        <v>0</v>
-      </c>
-      <c r="I183" s="1" t="e">
+        <v>bhusan_dahal.jpg</v>
+      </c>
+      <c r="I183" s="1">
         <f>VLOOKUP($F183,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J183" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="J183" s="1">
         <f>VLOOKUP($F183,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K183" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K183" s="1" t="str">
         <f>VLOOKUP($F183,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" t="str">
         <f>global_candidacy!B184</f>
-        <v>0</v>
-      </c>
-      <c r="B184" t="e">
+        <v>nrna_183</v>
+      </c>
+      <c r="B184" t="str">
         <f>VLOOKUP($A184,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C184">
+        <v>Indra Lohani</v>
+      </c>
+      <c r="C184" t="str">
         <f>global_candidacy!C184</f>
-        <v>0</v>
-      </c>
-      <c r="D184">
+        <v>2021_183</v>
+      </c>
+      <c r="D184" t="str">
         <f>global_candidacy!D184</f>
-        <v>0</v>
-      </c>
-      <c r="E184">
+        <v>2021_pr_183</v>
+      </c>
+      <c r="E184" t="str">
         <f>global_candidacy!E184</f>
-        <v>0</v>
-      </c>
-      <c r="F184">
+        <v>2021_su_183</v>
+      </c>
+      <c r="F184" t="str">
         <f>global_candidacy!F184</f>
-        <v>0</v>
-      </c>
-      <c r="G184" t="e">
+        <v>2021_33</v>
+      </c>
+      <c r="G184" t="str">
         <f>VLOOKUP(F184,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H184">
+        <v>Regional Deputy Coordinator Oceania</v>
+      </c>
+      <c r="H184" t="str">
         <f>global_candidacy!G184</f>
-        <v>0</v>
-      </c>
-      <c r="I184" s="1" t="e">
+        <v>Indra_Lohani.jpeg</v>
+      </c>
+      <c r="I184" s="1">
         <f>VLOOKUP($F184,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J184" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="J184" s="1">
         <f>VLOOKUP($F184,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K184" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1" t="str">
         <f>VLOOKUP($F184,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" t="str">
         <f>global_candidacy!B185</f>
-        <v>0</v>
-      </c>
-      <c r="B185" t="e">
+        <v>nrna_184</v>
+      </c>
+      <c r="B185" t="str">
         <f>VLOOKUP($A185,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C185">
+        <v>Yubaraj Ghimire</v>
+      </c>
+      <c r="C185" t="str">
         <f>global_candidacy!C185</f>
-        <v>0</v>
-      </c>
-      <c r="D185">
+        <v>2021_184</v>
+      </c>
+      <c r="D185" t="str">
         <f>global_candidacy!D185</f>
-        <v>0</v>
-      </c>
-      <c r="E185">
+        <v>2021_pr_184</v>
+      </c>
+      <c r="E185" t="str">
         <f>global_candidacy!E185</f>
-        <v>0</v>
-      </c>
-      <c r="F185">
+        <v>2021_su_184</v>
+      </c>
+      <c r="F185" t="str">
         <f>global_candidacy!F185</f>
-        <v>0</v>
-      </c>
-      <c r="G185" t="e">
+        <v>2021_35</v>
+      </c>
+      <c r="G185" t="str">
         <f>VLOOKUP(F185,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H185">
+        <v>Regional Deputy Coordinator Middle East</v>
+      </c>
+      <c r="H185" t="str">
         <f>global_candidacy!G185</f>
-        <v>0</v>
-      </c>
-      <c r="I185" s="1" t="e">
+        <v>yubaraj_ghimire.jpeg</v>
+      </c>
+      <c r="I185" s="1">
         <f>VLOOKUP($F185,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J185" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J185" s="1">
         <f>VLOOKUP($F185,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K185" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1" t="str">
         <f>VLOOKUP($F185,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Middle East</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" t="str">
         <f>global_candidacy!B186</f>
-        <v>0</v>
-      </c>
-      <c r="B186" t="e">
+        <v>nrna_185</v>
+      </c>
+      <c r="B186" t="str">
         <f>VLOOKUP($A186,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C186">
+        <v>Ganga Maya Adhikari</v>
+      </c>
+      <c r="C186" t="str">
         <f>global_candidacy!C186</f>
-        <v>0</v>
-      </c>
-      <c r="D186">
+        <v>2021_185</v>
+      </c>
+      <c r="D186" t="str">
         <f>global_candidacy!D186</f>
-        <v>0</v>
-      </c>
-      <c r="E186">
+        <v>2021_pr_185</v>
+      </c>
+      <c r="E186" t="str">
         <f>global_candidacy!E186</f>
-        <v>0</v>
-      </c>
-      <c r="F186">
+        <v>2021_su_185</v>
+      </c>
+      <c r="F186" t="str">
         <f>global_candidacy!F186</f>
-        <v>0</v>
-      </c>
-      <c r="G186" t="e">
+        <v>2021_37</v>
+      </c>
+      <c r="G186" t="str">
         <f>VLOOKUP(F186,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H186">
+        <v>Regional Women Deputy Coordinator Europe</v>
+      </c>
+      <c r="H186" t="str">
         <f>global_candidacy!G186</f>
-        <v>0</v>
-      </c>
-      <c r="I186" s="1" t="e">
+        <v>ganga_maya_adhikari1.jpg</v>
+      </c>
+      <c r="I186" s="1">
         <f>VLOOKUP($F186,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J186" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J186" s="1">
         <f>VLOOKUP($F186,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K186" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1" t="str">
         <f>VLOOKUP($F186,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" t="str">
         <f>global_candidacy!B187</f>
-        <v>0</v>
-      </c>
-      <c r="B187" t="e">
+        <v>nrna_186</v>
+      </c>
+      <c r="B187" t="str">
         <f>VLOOKUP($A187,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C187">
+        <v>Chari Maya Tamang</v>
+      </c>
+      <c r="C187" t="str">
         <f>global_candidacy!C187</f>
-        <v>0</v>
-      </c>
-      <c r="D187">
+        <v>2021_186</v>
+      </c>
+      <c r="D187" t="str">
         <f>global_candidacy!D187</f>
-        <v>0</v>
-      </c>
-      <c r="E187">
+        <v>2021_pr_186</v>
+      </c>
+      <c r="E187" t="str">
         <f>global_candidacy!E187</f>
-        <v>0</v>
-      </c>
-      <c r="F187">
+        <v>2021_su_186</v>
+      </c>
+      <c r="F187" t="str">
         <f>global_candidacy!F187</f>
-        <v>0</v>
-      </c>
-      <c r="G187" t="e">
+        <v>2021_37</v>
+      </c>
+      <c r="G187" t="str">
         <f>VLOOKUP(F187,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H187">
+        <v>Regional Women Deputy Coordinator Europe</v>
+      </c>
+      <c r="H187" t="str">
         <f>global_candidacy!G187</f>
-        <v>0</v>
-      </c>
-      <c r="I187" s="1" t="e">
+        <v>chari_maya_tamang.jpg</v>
+      </c>
+      <c r="I187" s="1">
         <f>VLOOKUP($F187,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J187" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J187" s="1">
         <f>VLOOKUP($F187,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K187" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1" t="str">
         <f>VLOOKUP($F187,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -33187,25 +33730,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>1007</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -33213,13 +33756,13 @@
         <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -33230,13 +33773,13 @@
         <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33244,13 +33787,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -33262,10 +33805,10 @@
         <v>317</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -33274,13 +33817,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -33289,13 +33832,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="1275">
   <si>
     <t>user_id</t>
   </si>
@@ -3854,6 +3854,9 @@
   </si>
   <si>
     <t>Sangina_Baidya.jpg</t>
+  </si>
+  <si>
+    <t>jagdish_ghimire.jpg</t>
   </si>
 </sst>
 </file>
@@ -10176,8 +10179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11157,7 +11160,7 @@
         <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>1037</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17282,7 +17285,7 @@
       </c>
       <c r="H35" t="str">
         <f>global_candidacy!G35</f>
-        <v>Jagdish_ghimire.jpg</v>
+        <v>jagdish_ghimire.jpg</v>
       </c>
       <c r="I35" s="1">
         <f>VLOOKUP($F35,[2]global_posts!$B$2:$G$100,4,0)</f>

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_candidacy!$A$1:$G$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">uebersicht!$A$1:$K$229</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1286">
   <si>
     <t>user_id</t>
   </si>
@@ -3857,6 +3857,39 @@
   </si>
   <si>
     <t>jagdish_ghimire.jpg</t>
+  </si>
+  <si>
+    <t>sompal_kami.png</t>
+  </si>
+  <si>
+    <t>niru_thapa_women_football_captain.png</t>
+  </si>
+  <si>
+    <t>paras_khadka.jpg</t>
+  </si>
+  <si>
+    <t>sambhujit_baskota.jpg</t>
+  </si>
+  <si>
+    <t>ramkrishna_dhakal.jpg</t>
+  </si>
+  <si>
+    <t>basundhara-bhusal.jpg</t>
+  </si>
+  <si>
+    <t>sanchita_luitel.jpg</t>
+  </si>
+  <si>
+    <t>aruna_lama.jpg</t>
+  </si>
+  <si>
+    <t>reema-bishwokarma.jpg</t>
+  </si>
+  <si>
+    <t>sntoshi_shrestha.jpg</t>
+  </si>
+  <si>
+    <t>minu_gurung.jpg</t>
   </si>
 </sst>
 </file>
@@ -4611,7 +4644,7 @@
             <v>nrna_07</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Humla Simikot</v>
+            <v>Paras Khadka</v>
           </cell>
           <cell r="D8" t="str">
             <v>test7@test.de</v>
@@ -8952,6 +8985,245 @@
           <cell r="H196">
             <v>0</v>
           </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>nrna_196</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>Sompal Kami</v>
+          </cell>
+          <cell r="D197" t="str">
+            <v>test196@test.de</v>
+          </cell>
+          <cell r="E197" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F197">
+            <v>12345724</v>
+          </cell>
+          <cell r="G197" t="str">
+            <v>nrna_196</v>
+          </cell>
+          <cell r="H197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>nrna_197</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>Niru Thapa  (Women Football Captain)</v>
+          </cell>
+          <cell r="D198" t="str">
+            <v>test197@test.de</v>
+          </cell>
+          <cell r="E198" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F198">
+            <v>12345724</v>
+          </cell>
+          <cell r="G198" t="str">
+            <v>nrna_197</v>
+          </cell>
+          <cell r="H198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>nrna_198</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>Sambhujit Baskota</v>
+          </cell>
+          <cell r="D199" t="str">
+            <v>test198@test.de</v>
+          </cell>
+          <cell r="E199" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F199">
+            <v>12345724</v>
+          </cell>
+          <cell r="G199" t="str">
+            <v>nrna_198</v>
+          </cell>
+          <cell r="H199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>nrna_199</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>Ram Krishna Dhakal</v>
+          </cell>
+          <cell r="D200" t="str">
+            <v>test199@test.de</v>
+          </cell>
+          <cell r="E200" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F200">
+            <v>12345724</v>
+          </cell>
+          <cell r="G200" t="str">
+            <v>nrna_199</v>
+          </cell>
+          <cell r="H200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>nrna_200</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>Basundhara Bhusal</v>
+          </cell>
+          <cell r="D201" t="str">
+            <v>test200@test.de</v>
+          </cell>
+          <cell r="E201" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F201">
+            <v>12345724</v>
+          </cell>
+          <cell r="G201" t="str">
+            <v>nrna_200</v>
+          </cell>
+          <cell r="H201">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>nrna_201</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>Sanchihta Luitel</v>
+          </cell>
+          <cell r="D202" t="str">
+            <v>test201@test.de</v>
+          </cell>
+          <cell r="E202" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F202">
+            <v>12345724</v>
+          </cell>
+          <cell r="G202" t="str">
+            <v>nrna_201</v>
+          </cell>
+          <cell r="H202">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>nrna_202</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>Aruna Lama</v>
+          </cell>
+          <cell r="D203" t="str">
+            <v>test202@test.de</v>
+          </cell>
+          <cell r="E203" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F203">
+            <v>12345724</v>
+          </cell>
+          <cell r="G203" t="str">
+            <v>nrna_202</v>
+          </cell>
+          <cell r="H203">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>nrna_203</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>Rima Bishwokarma</v>
+          </cell>
+          <cell r="D204" t="str">
+            <v>test203@test.de</v>
+          </cell>
+          <cell r="E204" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F204">
+            <v>12345724</v>
+          </cell>
+          <cell r="G204" t="str">
+            <v>nrna_203</v>
+          </cell>
+          <cell r="H204">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>nrna_204</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>Santoshi Shrestha</v>
+          </cell>
+          <cell r="D205" t="str">
+            <v>test204@test.de</v>
+          </cell>
+          <cell r="E205" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F205">
+            <v>12345724</v>
+          </cell>
+          <cell r="G205" t="str">
+            <v>nrna_204</v>
+          </cell>
+          <cell r="H205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>nrna_205</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>Minu Gurung</v>
+          </cell>
+          <cell r="D206" t="str">
+            <v>test205@test.de</v>
+          </cell>
+          <cell r="E206" t="str">
+            <v>Americas</v>
+          </cell>
+          <cell r="F206">
+            <v>12345724</v>
+          </cell>
+          <cell r="G206" t="str">
+            <v>nrna_205</v>
+          </cell>
+          <cell r="H206">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207"/>
+          <cell r="C207"/>
+          <cell r="D207"/>
+          <cell r="E207"/>
+          <cell r="F207"/>
+          <cell r="G207"/>
+          <cell r="H207"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -9268,7 +9540,7 @@
             <v>0</v>
           </cell>
           <cell r="G18" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="19">
@@ -9288,7 +9560,7 @@
             <v>0</v>
           </cell>
           <cell r="G19" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="20">
@@ -9388,7 +9660,7 @@
             <v>0</v>
           </cell>
           <cell r="G24" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="25">
@@ -9408,7 +9680,7 @@
             <v>0</v>
           </cell>
           <cell r="G25" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="26">
@@ -9508,7 +9780,7 @@
             <v>0</v>
           </cell>
           <cell r="G30" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="31">
@@ -9528,7 +9800,7 @@
             <v>0</v>
           </cell>
           <cell r="G31" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="32">
@@ -9628,7 +9900,7 @@
             <v>0</v>
           </cell>
           <cell r="G36" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="37">
@@ -9648,7 +9920,7 @@
             <v>0</v>
           </cell>
           <cell r="G37" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="38">
@@ -9748,7 +10020,7 @@
             <v>0</v>
           </cell>
           <cell r="G42" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="43">
@@ -9768,7 +10040,7 @@
             <v>0</v>
           </cell>
           <cell r="G43" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="44">
@@ -9868,7 +10140,7 @@
             <v>0</v>
           </cell>
           <cell r="G48" t="str">
-            <v>Middle East</v>
+            <v>Middle East Asia</v>
           </cell>
         </row>
         <row r="49">
@@ -9888,7 +10160,7 @@
             <v>0</v>
           </cell>
           <cell r="G49" t="str">
-            <v>Afria</v>
+            <v>Africa</v>
           </cell>
         </row>
         <row r="50">
@@ -9915,9 +10187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9955,7 +10227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10027,7 +10299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10177,10 +10449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,10 +10673,10 @@
         <v>2021_su_07</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10569,7 +10841,7 @@
         <v>2021_su_13</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
         <v>1270</v>
@@ -11689,7 +11961,7 @@
         <v>2021_su_53</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
         <v>1272</v>
@@ -12053,7 +12325,7 @@
         <v>2021_su_66</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
@@ -13197,11 +13469,11 @@
         <v>2021_pr_107</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="8"/>
+        <f>"2021_su"&amp;IF($A108&lt;10,"_0","_")&amp;$A108</f>
         <v>2021_su_107</v>
       </c>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="G108" t="s">
         <v>1273</v>
@@ -13229,7 +13501,7 @@
         <v>2021_su_108</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="G109" t="s">
         <v>141</v>
@@ -13857,19 +14129,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B196" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="B132:B206" si="10">"nrna"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>nrna_131</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C196" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="C132:C206" si="11">"2021"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_131</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D196" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="D132:D206" si="12">"2021_pr"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_pr_131</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E196" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
+        <f t="shared" ref="E132:E206" si="13">"2021_su"&amp;IF($A132&lt;10,"_0","_")&amp;$A132</f>
         <v>2021_su_131</v>
       </c>
       <c r="F132" t="s">
@@ -13881,7 +14153,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A196" si="14">A132+1</f>
+        <f t="shared" ref="A133:A206" si="14">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -15671,8 +15943,288 @@
         <v>1049</v>
       </c>
     </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_196</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_196</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_196</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_196</v>
+      </c>
+      <c r="F197" t="s">
+        <v>158</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_197</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_197</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_197</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_197</v>
+      </c>
+      <c r="F198" t="s">
+        <v>158</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_198</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_198</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_198</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_198</v>
+      </c>
+      <c r="F199" t="s">
+        <v>319</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_199</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_199</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_199</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_199</v>
+      </c>
+      <c r="F200" t="s">
+        <v>319</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_200</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_200</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_200</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>144</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_201</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_201</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_201</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_201</v>
+      </c>
+      <c r="F202" t="s">
+        <v>149</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_202</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_202</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_202</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_202</v>
+      </c>
+      <c r="F203" t="s">
+        <v>149</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_203</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_203</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_203</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_203</v>
+      </c>
+      <c r="F204" t="s">
+        <v>88</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_204</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_204</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_204</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>309</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="10"/>
+        <v>nrna_205</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="11"/>
+        <v>2021_205</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="12"/>
+        <v>2021_pr_205</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="13"/>
+        <v>2021_su_205</v>
+      </c>
+      <c r="F206" t="s">
+        <v>309</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1285</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G196"/>
+  <autoFilter ref="A1:G202"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -16019,7 +16571,7 @@
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP($A8,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>Humla Simikot</v>
+        <v>Paras Khadka</v>
       </c>
       <c r="C8" t="str">
         <f>global_candidacy!C8</f>
@@ -16035,15 +16587,15 @@
       </c>
       <c r="F8" t="str">
         <f>global_candidacy!F8</f>
-        <v>2021_48</v>
+        <v>2021_28</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(F8,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Deputy Coordinator Africa</v>
+        <v>Regional Youth Coordinator Asia Pacific</v>
       </c>
       <c r="H8" t="str">
         <f>global_candidacy!G8</f>
-        <v>simikot.jpg</v>
+        <v>paras_khadka.jpg</v>
       </c>
       <c r="I8" s="1">
         <f>VLOOKUP($F8,[2]global_posts!$B$2:$G$100,4,0)</f>
@@ -16055,7 +16607,7 @@
       </c>
       <c r="K8" s="1" t="str">
         <f>VLOOKUP($F8,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -16311,11 +16863,11 @@
       </c>
       <c r="F14" t="str">
         <f>global_candidacy!F14</f>
-        <v>2021_26</v>
+        <v>2021_27</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(F14,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Coordinator Americas</v>
+        <v>Regional Youth Coordinator Oceania</v>
       </c>
       <c r="H14" t="str">
         <f>global_candidacy!G14</f>
@@ -16331,7 +16883,7 @@
       </c>
       <c r="K14" s="1" t="str">
         <f>VLOOKUP($F14,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16699,7 +17251,7 @@
       </c>
       <c r="K22" s="1" t="str">
         <f>VLOOKUP($F22,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -16745,7 +17297,7 @@
       </c>
       <c r="K23" s="1" t="str">
         <f>VLOOKUP($F23,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -16791,7 +17343,7 @@
       </c>
       <c r="K24" s="1" t="str">
         <f>VLOOKUP($F24,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -16837,7 +17389,7 @@
       </c>
       <c r="K25" s="1" t="str">
         <f>VLOOKUP($F25,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -16883,7 +17435,7 @@
       </c>
       <c r="K26" s="1" t="str">
         <f>VLOOKUP($F26,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -16929,7 +17481,7 @@
       </c>
       <c r="K27" s="1" t="str">
         <f>VLOOKUP($F27,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -16975,7 +17527,7 @@
       </c>
       <c r="K28" s="1" t="str">
         <f>VLOOKUP($F28,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -17251,7 +17803,7 @@
       </c>
       <c r="K34" s="1" t="str">
         <f>VLOOKUP($F34,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -17297,7 +17849,7 @@
       </c>
       <c r="K35" s="1" t="str">
         <f>VLOOKUP($F35,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -17343,7 +17895,7 @@
       </c>
       <c r="K36" s="1" t="str">
         <f>VLOOKUP($F36,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -17389,7 +17941,7 @@
       </c>
       <c r="K37" s="1" t="str">
         <f>VLOOKUP($F37,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -18151,11 +18703,11 @@
       </c>
       <c r="F54" t="str">
         <f>global_candidacy!F54</f>
-        <v>2021_26</v>
+        <v>2021_27</v>
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(F54,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Coordinator Americas</v>
+        <v>Regional Youth Coordinator Oceania</v>
       </c>
       <c r="H54" t="str">
         <f>global_candidacy!G54</f>
@@ -18171,7 +18723,7 @@
       </c>
       <c r="K54" s="1" t="str">
         <f>VLOOKUP($F54,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Americas</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -18493,7 +19045,7 @@
       </c>
       <c r="K61" s="1" t="str">
         <f>VLOOKUP($F61,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -18539,7 +19091,7 @@
       </c>
       <c r="K62" s="1" t="str">
         <f>VLOOKUP($F62,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -18585,7 +19137,7 @@
       </c>
       <c r="K63" s="1" t="str">
         <f>VLOOKUP($F63,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18631,7 +19183,7 @@
       </c>
       <c r="K64" s="1" t="str">
         <f>VLOOKUP($F64,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18749,11 +19301,11 @@
       </c>
       <c r="F67" t="str">
         <f>global_candidacy!F67</f>
-        <v>2021_27</v>
+        <v>2021_29</v>
       </c>
       <c r="G67" t="str">
         <f>VLOOKUP(F67,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Youth Coordinator Oceania</v>
+        <v>Regional Youth Coordinator Middle East</v>
       </c>
       <c r="H67" t="str">
         <f>global_candidacy!G67</f>
@@ -18769,7 +19321,7 @@
       </c>
       <c r="K67" s="1" t="str">
         <f>VLOOKUP($F67,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Oceania</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18815,7 +19367,7 @@
       </c>
       <c r="K68" s="1" t="str">
         <f>VLOOKUP($F68,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -19321,7 +19873,7 @@
       </c>
       <c r="K79" s="1" t="str">
         <f>VLOOKUP($F79,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -19919,7 +20471,7 @@
       </c>
       <c r="K92" s="1" t="str">
         <f>VLOOKUP($F92,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -20195,7 +20747,7 @@
       </c>
       <c r="K98" s="1" t="str">
         <f>VLOOKUP($F98,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -20241,7 +20793,7 @@
       </c>
       <c r="K99" s="1" t="str">
         <f>VLOOKUP($F99,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -20287,7 +20839,7 @@
       </c>
       <c r="K100" s="1" t="str">
         <f>VLOOKUP($F100,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -20333,7 +20885,7 @@
       </c>
       <c r="K101" s="1" t="str">
         <f>VLOOKUP($F101,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -20635,11 +21187,11 @@
       </c>
       <c r="F108" t="str">
         <f>global_candidacy!F108</f>
-        <v>2021_38</v>
+        <v>2021_26</v>
       </c>
       <c r="G108" t="str">
         <f>VLOOKUP(F108,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Women Deputy Coordinator Americas</v>
+        <v>Regional Youth Coordinator Americas</v>
       </c>
       <c r="H108" t="str">
         <f>global_candidacy!G108</f>
@@ -20681,11 +21233,11 @@
       </c>
       <c r="F109" t="str">
         <f>global_candidacy!F109</f>
-        <v>2021_36</v>
+        <v>2021_28</v>
       </c>
       <c r="G109" t="str">
         <f>VLOOKUP(F109,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>Regional Deputy Coordinator Africa</v>
+        <v>Regional Youth Coordinator Asia Pacific</v>
       </c>
       <c r="H109" t="str">
         <f>global_candidacy!G109</f>
@@ -20701,7 +21253,7 @@
       </c>
       <c r="K109" s="1" t="str">
         <f>VLOOKUP($F109,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -20793,7 +21345,7 @@
       </c>
       <c r="K111" s="1" t="str">
         <f>VLOOKUP($F111,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -20839,7 +21391,7 @@
       </c>
       <c r="K112" s="1" t="str">
         <f>VLOOKUP($F112,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -20885,7 +21437,7 @@
       </c>
       <c r="K113" s="1" t="str">
         <f>VLOOKUP($F113,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -20931,7 +21483,7 @@
       </c>
       <c r="K114" s="1" t="str">
         <f>VLOOKUP($F114,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -21207,7 +21759,7 @@
       </c>
       <c r="K120" s="1" t="str">
         <f>VLOOKUP($F120,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -21621,7 +22173,7 @@
       </c>
       <c r="K129" s="1" t="str">
         <f>VLOOKUP($F129,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -21713,7 +22265,7 @@
       </c>
       <c r="K131" s="1" t="str">
         <f>VLOOKUP($F131,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -22265,7 +22817,7 @@
       </c>
       <c r="K143" s="1" t="str">
         <f>VLOOKUP($F143,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -22311,7 +22863,7 @@
       </c>
       <c r="K144" s="1" t="str">
         <f>VLOOKUP($F144,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -23691,7 +24243,7 @@
       </c>
       <c r="K174" s="1" t="str">
         <f>VLOOKUP($F174,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -23737,7 +24289,7 @@
       </c>
       <c r="K175" s="1" t="str">
         <f>VLOOKUP($F175,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -23783,7 +24335,7 @@
       </c>
       <c r="K176" s="1" t="str">
         <f>VLOOKUP($F176,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -23829,7 +24381,7 @@
       </c>
       <c r="K177" s="1" t="str">
         <f>VLOOKUP($F177,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -23921,7 +24473,7 @@
       </c>
       <c r="K179" s="1" t="str">
         <f>VLOOKUP($F179,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -24197,7 +24749,7 @@
       </c>
       <c r="K185" s="1" t="str">
         <f>VLOOKUP($F185,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Middle East</v>
+        <v>Middle East Asia</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -24703,467 +25255,467 @@
       </c>
       <c r="K196" s="1" t="str">
         <f>VLOOKUP($F196,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>Afria</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" t="str">
         <f>global_candidacy!B197</f>
-        <v>0</v>
-      </c>
-      <c r="B197" t="e">
+        <v>nrna_196</v>
+      </c>
+      <c r="B197" t="str">
         <f>VLOOKUP($A197,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C197">
+        <v>Sompal Kami</v>
+      </c>
+      <c r="C197" t="str">
         <f>global_candidacy!C197</f>
-        <v>0</v>
-      </c>
-      <c r="D197">
+        <v>2021_196</v>
+      </c>
+      <c r="D197" t="str">
         <f>global_candidacy!D197</f>
-        <v>0</v>
-      </c>
-      <c r="E197">
+        <v>2021_pr_196</v>
+      </c>
+      <c r="E197" t="str">
         <f>global_candidacy!E197</f>
-        <v>0</v>
-      </c>
-      <c r="F197">
+        <v>2021_su_196</v>
+      </c>
+      <c r="F197" t="str">
         <f>global_candidacy!F197</f>
-        <v>0</v>
-      </c>
-      <c r="G197" t="e">
+        <v>2021_27</v>
+      </c>
+      <c r="G197" t="str">
         <f>VLOOKUP(F197,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H197">
+        <v>Regional Youth Coordinator Oceania</v>
+      </c>
+      <c r="H197" t="str">
         <f>global_candidacy!G197</f>
-        <v>0</v>
-      </c>
-      <c r="I197" s="1" t="e">
+        <v>sompal_kami.png</v>
+      </c>
+      <c r="I197" s="1">
         <f>VLOOKUP($F197,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J197" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1">
         <f>VLOOKUP($F197,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K197" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1" t="str">
         <f>VLOOKUP($F197,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" t="str">
         <f>global_candidacy!B198</f>
-        <v>0</v>
-      </c>
-      <c r="B198" t="e">
+        <v>nrna_197</v>
+      </c>
+      <c r="B198" t="str">
         <f>VLOOKUP($A198,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C198">
+        <v>Niru Thapa  (Women Football Captain)</v>
+      </c>
+      <c r="C198" t="str">
         <f>global_candidacy!C198</f>
-        <v>0</v>
-      </c>
-      <c r="D198">
+        <v>2021_197</v>
+      </c>
+      <c r="D198" t="str">
         <f>global_candidacy!D198</f>
-        <v>0</v>
-      </c>
-      <c r="E198">
+        <v>2021_pr_197</v>
+      </c>
+      <c r="E198" t="str">
         <f>global_candidacy!E198</f>
-        <v>0</v>
-      </c>
-      <c r="F198">
+        <v>2021_su_197</v>
+      </c>
+      <c r="F198" t="str">
         <f>global_candidacy!F198</f>
-        <v>0</v>
-      </c>
-      <c r="G198" t="e">
+        <v>2021_27</v>
+      </c>
+      <c r="G198" t="str">
         <f>VLOOKUP(F198,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H198">
+        <v>Regional Youth Coordinator Oceania</v>
+      </c>
+      <c r="H198" t="str">
         <f>global_candidacy!G198</f>
-        <v>0</v>
-      </c>
-      <c r="I198" s="1" t="e">
+        <v>niru_thapa_women_football_captain.png</v>
+      </c>
+      <c r="I198" s="1">
         <f>VLOOKUP($F198,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J198" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J198" s="1">
         <f>VLOOKUP($F198,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K198" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1" t="str">
         <f>VLOOKUP($F198,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Oceania</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" t="str">
         <f>global_candidacy!B199</f>
-        <v>0</v>
-      </c>
-      <c r="B199" t="e">
+        <v>nrna_198</v>
+      </c>
+      <c r="B199" t="str">
         <f>VLOOKUP($A199,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C199">
+        <v>Sambhujit Baskota</v>
+      </c>
+      <c r="C199" t="str">
         <f>global_candidacy!C199</f>
-        <v>0</v>
-      </c>
-      <c r="D199">
+        <v>2021_198</v>
+      </c>
+      <c r="D199" t="str">
         <f>global_candidacy!D199</f>
-        <v>0</v>
-      </c>
-      <c r="E199">
+        <v>2021_pr_198</v>
+      </c>
+      <c r="E199" t="str">
         <f>global_candidacy!E199</f>
-        <v>0</v>
-      </c>
-      <c r="F199">
+        <v>2021_su_198</v>
+      </c>
+      <c r="F199" t="str">
         <f>global_candidacy!F199</f>
-        <v>0</v>
-      </c>
-      <c r="G199" t="e">
+        <v>2021_28</v>
+      </c>
+      <c r="G199" t="str">
         <f>VLOOKUP(F199,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H199">
+        <v>Regional Youth Coordinator Asia Pacific</v>
+      </c>
+      <c r="H199" t="str">
         <f>global_candidacy!G199</f>
-        <v>0</v>
-      </c>
-      <c r="I199" s="1" t="e">
+        <v>sambhujit_baskota.jpg</v>
+      </c>
+      <c r="I199" s="1">
         <f>VLOOKUP($F199,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J199" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1">
         <f>VLOOKUP($F199,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K199" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1" t="str">
         <f>VLOOKUP($F199,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" t="str">
         <f>global_candidacy!B200</f>
-        <v>0</v>
-      </c>
-      <c r="B200" t="e">
+        <v>nrna_199</v>
+      </c>
+      <c r="B200" t="str">
         <f>VLOOKUP($A200,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C200">
+        <v>Ram Krishna Dhakal</v>
+      </c>
+      <c r="C200" t="str">
         <f>global_candidacy!C200</f>
-        <v>0</v>
-      </c>
-      <c r="D200">
+        <v>2021_199</v>
+      </c>
+      <c r="D200" t="str">
         <f>global_candidacy!D200</f>
-        <v>0</v>
-      </c>
-      <c r="E200">
+        <v>2021_pr_199</v>
+      </c>
+      <c r="E200" t="str">
         <f>global_candidacy!E200</f>
-        <v>0</v>
-      </c>
-      <c r="F200">
+        <v>2021_su_199</v>
+      </c>
+      <c r="F200" t="str">
         <f>global_candidacy!F200</f>
-        <v>0</v>
-      </c>
-      <c r="G200" t="e">
+        <v>2021_28</v>
+      </c>
+      <c r="G200" t="str">
         <f>VLOOKUP(F200,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H200">
+        <v>Regional Youth Coordinator Asia Pacific</v>
+      </c>
+      <c r="H200" t="str">
         <f>global_candidacy!G200</f>
-        <v>0</v>
-      </c>
-      <c r="I200" s="1" t="e">
+        <v>ramkrishna_dhakal.jpg</v>
+      </c>
+      <c r="I200" s="1">
         <f>VLOOKUP($F200,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J200" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J200" s="1">
         <f>VLOOKUP($F200,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K200" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1" t="str">
         <f>VLOOKUP($F200,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Asia Pacific</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" t="str">
         <f>global_candidacy!B201</f>
-        <v>0</v>
-      </c>
-      <c r="B201" t="e">
+        <v>nrna_200</v>
+      </c>
+      <c r="B201" t="str">
         <f>VLOOKUP($A201,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C201">
+        <v>Basundhara Bhusal</v>
+      </c>
+      <c r="C201" t="str">
         <f>global_candidacy!C201</f>
-        <v>0</v>
-      </c>
-      <c r="D201">
+        <v>2021_200</v>
+      </c>
+      <c r="D201" t="str">
         <f>global_candidacy!D201</f>
-        <v>0</v>
-      </c>
-      <c r="E201">
+        <v>2021_pr_200</v>
+      </c>
+      <c r="E201" t="str">
         <f>global_candidacy!E201</f>
-        <v>0</v>
-      </c>
-      <c r="F201">
+        <v>2021_su_200</v>
+      </c>
+      <c r="F201" t="str">
         <f>global_candidacy!F201</f>
-        <v>0</v>
-      </c>
-      <c r="G201" t="e">
+        <v>2021_19</v>
+      </c>
+      <c r="G201" t="str">
         <f>VLOOKUP(F201,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H201">
+        <v>Regional Women Coordinator Europe</v>
+      </c>
+      <c r="H201" t="str">
         <f>global_candidacy!G201</f>
-        <v>0</v>
-      </c>
-      <c r="I201" s="1" t="e">
+        <v>basundhara-bhusal.jpg</v>
+      </c>
+      <c r="I201" s="1">
         <f>VLOOKUP($F201,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J201" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J201" s="1">
         <f>VLOOKUP($F201,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K201" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1" t="str">
         <f>VLOOKUP($F201,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Europe</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" t="str">
         <f>global_candidacy!B202</f>
-        <v>0</v>
-      </c>
-      <c r="B202" t="e">
+        <v>nrna_201</v>
+      </c>
+      <c r="B202" t="str">
         <f>VLOOKUP($A202,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C202">
+        <v>Sanchihta Luitel</v>
+      </c>
+      <c r="C202" t="str">
         <f>global_candidacy!C202</f>
-        <v>0</v>
-      </c>
-      <c r="D202">
+        <v>2021_201</v>
+      </c>
+      <c r="D202" t="str">
         <f>global_candidacy!D202</f>
-        <v>0</v>
-      </c>
-      <c r="E202">
+        <v>2021_pr_201</v>
+      </c>
+      <c r="E202" t="str">
         <f>global_candidacy!E202</f>
-        <v>0</v>
-      </c>
-      <c r="F202">
+        <v>2021_su_201</v>
+      </c>
+      <c r="F202" t="str">
         <f>global_candidacy!F202</f>
-        <v>0</v>
-      </c>
-      <c r="G202" t="e">
+        <v>2021_24</v>
+      </c>
+      <c r="G202" t="str">
         <f>VLOOKUP(F202,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202">
+        <v>Regional Women Coordinator Africa</v>
+      </c>
+      <c r="H202" t="str">
         <f>global_candidacy!G202</f>
-        <v>0</v>
-      </c>
-      <c r="I202" s="1" t="e">
+        <v>sanchita_luitel.jpg</v>
+      </c>
+      <c r="I202" s="1">
         <f>VLOOKUP($F202,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J202" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J202" s="1">
         <f>VLOOKUP($F202,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1" t="str">
         <f>VLOOKUP($F202,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" t="str">
         <f>global_candidacy!B203</f>
-        <v>0</v>
-      </c>
-      <c r="B203" t="e">
+        <v>nrna_202</v>
+      </c>
+      <c r="B203" t="str">
         <f>VLOOKUP($A203,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C203">
+        <v>Aruna Lama</v>
+      </c>
+      <c r="C203" t="str">
         <f>global_candidacy!C203</f>
-        <v>0</v>
-      </c>
-      <c r="D203">
+        <v>2021_202</v>
+      </c>
+      <c r="D203" t="str">
         <f>global_candidacy!D203</f>
-        <v>0</v>
-      </c>
-      <c r="E203">
+        <v>2021_pr_202</v>
+      </c>
+      <c r="E203" t="str">
         <f>global_candidacy!E203</f>
-        <v>0</v>
-      </c>
-      <c r="F203">
+        <v>2021_su_202</v>
+      </c>
+      <c r="F203" t="str">
         <f>global_candidacy!F203</f>
-        <v>0</v>
-      </c>
-      <c r="G203" t="e">
+        <v>2021_24</v>
+      </c>
+      <c r="G203" t="str">
         <f>VLOOKUP(F203,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H203">
+        <v>Regional Women Coordinator Africa</v>
+      </c>
+      <c r="H203" t="str">
         <f>global_candidacy!G203</f>
-        <v>0</v>
-      </c>
-      <c r="I203" s="1" t="e">
+        <v>aruna_lama.jpg</v>
+      </c>
+      <c r="I203" s="1">
         <f>VLOOKUP($F203,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J203" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J203" s="1">
         <f>VLOOKUP($F203,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K203" s="1" t="str">
         <f>VLOOKUP($F203,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" t="str">
         <f>global_candidacy!B204</f>
-        <v>0</v>
-      </c>
-      <c r="B204" t="e">
+        <v>nrna_203</v>
+      </c>
+      <c r="B204" t="str">
         <f>VLOOKUP($A204,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C204">
+        <v>Rima Bishwokarma</v>
+      </c>
+      <c r="C204" t="str">
         <f>global_candidacy!C204</f>
-        <v>0</v>
-      </c>
-      <c r="D204">
+        <v>2021_203</v>
+      </c>
+      <c r="D204" t="str">
         <f>global_candidacy!D204</f>
-        <v>0</v>
-      </c>
-      <c r="E204">
+        <v>2021_pr_203</v>
+      </c>
+      <c r="E204" t="str">
         <f>global_candidacy!E204</f>
-        <v>0</v>
-      </c>
-      <c r="F204">
+        <v>2021_su_203</v>
+      </c>
+      <c r="F204" t="str">
         <f>global_candidacy!F204</f>
-        <v>0</v>
-      </c>
-      <c r="G204" t="e">
+        <v>2021_42</v>
+      </c>
+      <c r="G204" t="str">
         <f>VLOOKUP(F204,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H204">
+        <v>Regional Women Deputy Coordinator Africa</v>
+      </c>
+      <c r="H204" t="str">
         <f>global_candidacy!G204</f>
-        <v>0</v>
-      </c>
-      <c r="I204" s="1" t="e">
+        <v>reema-bishwokarma.jpg</v>
+      </c>
+      <c r="I204" s="1">
         <f>VLOOKUP($F204,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J204" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J204" s="1">
         <f>VLOOKUP($F204,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K204" s="1" t="str">
         <f>VLOOKUP($F204,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Africa</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" t="str">
         <f>global_candidacy!B205</f>
-        <v>0</v>
-      </c>
-      <c r="B205" t="e">
+        <v>nrna_204</v>
+      </c>
+      <c r="B205" t="str">
         <f>VLOOKUP($A205,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C205">
+        <v>Santoshi Shrestha</v>
+      </c>
+      <c r="C205" t="str">
         <f>global_candidacy!C205</f>
-        <v>0</v>
-      </c>
-      <c r="D205">
+        <v>2021_204</v>
+      </c>
+      <c r="D205" t="str">
         <f>global_candidacy!D205</f>
-        <v>0</v>
-      </c>
-      <c r="E205">
+        <v>2021_pr_204</v>
+      </c>
+      <c r="E205" t="str">
         <f>global_candidacy!E205</f>
-        <v>0</v>
-      </c>
-      <c r="F205">
+        <v>2021_su_204</v>
+      </c>
+      <c r="F205" t="str">
         <f>global_candidacy!F205</f>
-        <v>0</v>
-      </c>
-      <c r="G205" t="e">
+        <v>2021_26</v>
+      </c>
+      <c r="G205" t="str">
         <f>VLOOKUP(F205,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H205">
+        <v>Regional Youth Coordinator Americas</v>
+      </c>
+      <c r="H205" t="str">
         <f>global_candidacy!G205</f>
-        <v>0</v>
-      </c>
-      <c r="I205" s="1" t="e">
+        <v>sntoshi_shrestha.jpg</v>
+      </c>
+      <c r="I205" s="1">
         <f>VLOOKUP($F205,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J205" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J205" s="1">
         <f>VLOOKUP($F205,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K205" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K205" s="1" t="str">
         <f>VLOOKUP($F205,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" t="str">
         <f>global_candidacy!B206</f>
-        <v>0</v>
-      </c>
-      <c r="B206" t="e">
+        <v>nrna_205</v>
+      </c>
+      <c r="B206" t="str">
         <f>VLOOKUP($A206,[1]global_candidates!$B$2:$H$296,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C206">
+        <v>Minu Gurung</v>
+      </c>
+      <c r="C206" t="str">
         <f>global_candidacy!C206</f>
-        <v>0</v>
-      </c>
-      <c r="D206">
+        <v>2021_205</v>
+      </c>
+      <c r="D206" t="str">
         <f>global_candidacy!D206</f>
-        <v>0</v>
-      </c>
-      <c r="E206">
+        <v>2021_pr_205</v>
+      </c>
+      <c r="E206" t="str">
         <f>global_candidacy!E206</f>
-        <v>0</v>
-      </c>
-      <c r="F206">
+        <v>2021_su_205</v>
+      </c>
+      <c r="F206" t="str">
         <f>global_candidacy!F206</f>
-        <v>0</v>
-      </c>
-      <c r="G206" t="e">
+        <v>2021_26</v>
+      </c>
+      <c r="G206" t="str">
         <f>VLOOKUP(F206,[2]global_posts!$B$2:$G$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H206">
+        <v>Regional Youth Coordinator Americas</v>
+      </c>
+      <c r="H206" t="str">
         <f>global_candidacy!G206</f>
-        <v>0</v>
-      </c>
-      <c r="I206" s="1" t="e">
+        <v>minu_gurung.jpg</v>
+      </c>
+      <c r="I206" s="1">
         <f>VLOOKUP($F206,[2]global_posts!$B$2:$G$100,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J206" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="J206" s="1">
         <f>VLOOKUP($F206,[2]global_posts!$B$2:$G$100,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K206" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K206" s="1" t="str">
         <f>VLOOKUP($F206,[2]global_posts!$B$2:$G$100,6,0)</f>
-        <v>#N/A</v>
+        <v>Americas</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">

--- a/storage/csv_files/global_candidacy.xlsx
+++ b/storage/csv_files/global_candidacy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="global_candidacy" sheetId="1" r:id="rId1"/>
@@ -10451,7 +10451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
@@ -16234,8 +16234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection sqref="A1:K196"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
